--- a/src/attributions/attributions_saliency_traj_136.xlsx
+++ b/src/attributions/attributions_saliency_traj_136.xlsx
@@ -1004,1140 +1004,1140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.840506219652482e-11</v>
+        <v>9.969201852921827e-11</v>
       </c>
       <c r="B2" t="n">
-        <v>1.449770858918953e-12</v>
+        <v>1.013412576078565e-09</v>
       </c>
       <c r="C2" t="n">
-        <v>9.16088177538299e-11</v>
+        <v>9.176569226720943e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>6.679902464501453e-11</v>
+        <v>4.16784856627217e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>1.356568607446818e-10</v>
+        <v>2.918832953113792e-10</v>
       </c>
       <c r="F2" t="n">
-        <v>2.718970881776528e-10</v>
+        <v>4.558869948212418e-10</v>
       </c>
       <c r="G2" t="n">
-        <v>3.084938138275817e-10</v>
+        <v>3.441746887489217e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.299570728807709e-10</v>
+        <v>1.189700594983467e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>1.568718072109121e-11</v>
+        <v>1.106657265825817e-10</v>
       </c>
       <c r="J2" t="n">
-        <v>5.810722562837878e-12</v>
+        <v>1.409871386304218e-10</v>
       </c>
       <c r="K2" t="n">
-        <v>5.671344643909393e-11</v>
+        <v>8.79710471135553e-10</v>
       </c>
       <c r="L2" t="n">
-        <v>9.878626389125955e-11</v>
+        <v>4.889776084038289e-11</v>
       </c>
       <c r="M2" t="n">
-        <v>8.434247744659729e-11</v>
+        <v>4.302113665310969e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>7.498972970365614e-11</v>
+        <v>2.00435820718603e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>4.091412764140046e-10</v>
+        <v>2.407277710503308e-10</v>
       </c>
       <c r="P2" t="n">
-        <v>3.246074242735375e-10</v>
+        <v>7.366905696581938e-12</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.914480128930364e-10</v>
+        <v>1.062501198134669e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>2.405656507331599e-10</v>
+        <v>5.723251733646961e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>6.286644121944462e-11</v>
+        <v>3.065699083482087e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>1.063343857410359e-10</v>
+        <v>1.351000700200444e-10</v>
       </c>
       <c r="U2" t="n">
-        <v>1.412905070719006e-10</v>
+        <v>2.961261097444989e-11</v>
       </c>
       <c r="V2" t="n">
-        <v>5.418554493985539e-11</v>
+        <v>8.77648648200946e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.737511107213763e-10</v>
+        <v>1.098383051179042e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>8.019321318109007e-11</v>
+        <v>1.598361165644491e-10</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.809296878985123e-10</v>
+        <v>5.458811874747838e-11</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.42524530644917e-11</v>
+        <v>3.866991449275048e-11</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.137136565465546e-10</v>
+        <v>6.726334073059448e-11</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.098802507315533e-10</v>
+        <v>4.760603716791323e-11</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.122079304471946e-10</v>
+        <v>4.543539849910516e-11</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.199936314870257e-11</v>
+        <v>9.280270996114837e-11</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.754898822427855e-11</v>
+        <v>5.493769328346332e-11</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.368621850525116e-11</v>
+        <v>5.993020663064286e-11</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.166558516452199e-10</v>
+        <v>5.213841858253687e-11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.116250702981603e-10</v>
+        <v>4.914839368819202e-12</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.09487331595637e-11</v>
+        <v>5.93049914732191e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.203919186565372e-10</v>
+        <v>1.972855559473352e-11</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.943427099277862e-11</v>
+        <v>3.434547785063913e-11</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.240590517623488e-12</v>
+        <v>1.192085319345892e-10</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.875047670578226e-11</v>
+        <v>1.441029517934567e-10</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.184485981520211e-10</v>
+        <v>1.176282161952091e-11</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.246978909019703e-10</v>
+        <v>5.825316617968923e-11</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.719390239189437e-11</v>
+        <v>1.973166768864942e-10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.635320351356384e-11</v>
+        <v>7.171828408925052e-11</v>
       </c>
       <c r="AR2" t="n">
-        <v>8.260276490590357e-11</v>
+        <v>3.304885878852026e-11</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.471148806415524e-11</v>
+        <v>7.556173742262473e-11</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.453779367195263e-11</v>
+        <v>1.23212828828656e-10</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.524801003995108e-11</v>
+        <v>6.702359223176302e-10</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.611429462089475e-10</v>
+        <v>5.483747830825614e-11</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.825987971937337e-10</v>
+        <v>1.041156327818982e-10</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.805803839793896e-10</v>
+        <v>2.489733939847749e-11</v>
       </c>
       <c r="AY2" t="n">
-        <v>5.735004138252009e-11</v>
+        <v>1.492579948525474e-10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6.427670895536863e-11</v>
+        <v>1.686032841119456e-10</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.156544929270531e-10</v>
+        <v>4.235077566416834e-12</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.257728643455636e-10</v>
+        <v>8.367699588784916e-11</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.360095369662417e-11</v>
+        <v>1.11516990086713e-10</v>
       </c>
       <c r="BD2" t="n">
-        <v>7.684559932830126e-11</v>
+        <v>1.528671217387867e-10</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.880994401377457e-11</v>
+        <v>1.600339999408007e-10</v>
       </c>
       <c r="BF2" t="n">
-        <v>9.356691810236129e-11</v>
+        <v>4.135513112513145e-12</v>
       </c>
       <c r="BG2" t="n">
-        <v>8.951021868153219e-11</v>
+        <v>3.971687700943249e-10</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.40659520089892e-10</v>
+        <v>1.192185100640231e-10</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.221617612097049e-10</v>
+        <v>2.289216871620425e-10</v>
       </c>
       <c r="BJ2" t="n">
-        <v>6.481536141134114e-11</v>
+        <v>1.944018696020677e-10</v>
       </c>
       <c r="BK2" t="n">
-        <v>6.653786549515317e-11</v>
+        <v>1.194380289115671e-10</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.257285760560613e-11</v>
+        <v>6.32075503048668e-11</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.419792045713301e-11</v>
+        <v>9.333846195946904e-12</v>
       </c>
       <c r="BN2" t="n">
-        <v>8.264157413950812e-11</v>
+        <v>1.240741398511602e-10</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.744039883153306e-11</v>
+        <v>1.009092739923112e-10</v>
       </c>
       <c r="BP2" t="n">
-        <v>6.51420445363371e-11</v>
+        <v>1.013934214366685e-10</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.519347841982821e-10</v>
+        <v>9.894327024362326e-11</v>
       </c>
       <c r="BR2" t="n">
-        <v>8.930539641127666e-11</v>
+        <v>7.996621420591765e-11</v>
       </c>
       <c r="BS2" t="n">
-        <v>7.13279019182167e-11</v>
+        <v>2.467138646156108e-11</v>
       </c>
       <c r="BT2" t="n">
-        <v>6.408075459152229e-11</v>
+        <v>2.858395291294169e-11</v>
       </c>
       <c r="BU2" t="n">
-        <v>3.518300885005377e-12</v>
+        <v>8.830008946247858e-11</v>
       </c>
       <c r="BV2" t="n">
-        <v>6.167896055009336e-11</v>
+        <v>3.080321830939425e-10</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.077728531417854e-11</v>
+        <v>1.944579480078756e-12</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.141327587994567e-10</v>
+        <v>9.409860390885427e-11</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.936385856688872e-11</v>
+        <v>5.987570161902767e-11</v>
       </c>
       <c r="BZ2" t="n">
-        <v>3.588706068424763e-11</v>
+        <v>7.766671333842012e-11</v>
       </c>
       <c r="CA2" t="n">
-        <v>7.740444396553414e-11</v>
+        <v>6.717477962769891e-11</v>
       </c>
       <c r="CB2" t="n">
-        <v>6.550721770581802e-11</v>
+        <v>5.533540986535357e-11</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.269808008741435e-10</v>
+        <v>5.310141909520283e-11</v>
       </c>
       <c r="CD2" t="n">
-        <v>4.101686351676292e-11</v>
+        <v>6.467750640615222e-11</v>
       </c>
       <c r="CE2" t="n">
-        <v>3.877044518763029e-11</v>
+        <v>1.472672955804555e-10</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.11606114575158e-11</v>
+        <v>5.257971141814366e-11</v>
       </c>
       <c r="CG2" t="n">
-        <v>9.430720093739353e-12</v>
+        <v>7.071838253880358e-11</v>
       </c>
       <c r="CH2" t="n">
-        <v>5.297306343576835e-11</v>
+        <v>5.003553821270046e-11</v>
       </c>
       <c r="CI2" t="n">
-        <v>3.517950167286621e-11</v>
+        <v>8.644845950200875e-11</v>
       </c>
       <c r="CJ2" t="n">
-        <v>7.172389765441878e-11</v>
+        <v>3.871002823840897e-11</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.434878861035106e-11</v>
+        <v>1.270578173923065e-11</v>
       </c>
       <c r="CL2" t="n">
-        <v>4.241028535301172e-12</v>
+        <v>7.76654296430479e-11</v>
       </c>
       <c r="CM2" t="n">
-        <v>6.681704495248297e-11</v>
+        <v>6.633060073424346e-11</v>
       </c>
       <c r="CN2" t="n">
-        <v>5.976128619744614e-11</v>
+        <v>2.285391667578018e-11</v>
       </c>
       <c r="CO2" t="n">
-        <v>9.586876431599833e-11</v>
+        <v>3.304362686251672e-11</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.627520167246654e-11</v>
+        <v>1.618931377844746e-10</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.51304851664969e-11</v>
+        <v>1.230001794860769e-10</v>
       </c>
       <c r="CR2" t="n">
-        <v>7.85684781123841e-11</v>
+        <v>1.354036327505526e-10</v>
       </c>
       <c r="CS2" t="n">
-        <v>8.520818772783656e-11</v>
+        <v>1.079977218765293e-10</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.735762644727856e-10</v>
+        <v>8.808474089017082e-11</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.022892684060977e-11</v>
+        <v>1.022157705699023e-10</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.378126597897158e-11</v>
+        <v>3.908420115328326e-11</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.870785124036267e-11</v>
+        <v>1.51111664847825e-10</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.990764671166989e-11</v>
+        <v>5.08039547930661e-11</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.835301438075533e-11</v>
+        <v>1.05466267663612e-10</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.693449373785239e-11</v>
+        <v>2.546714054918464e-11</v>
       </c>
       <c r="DA2" t="n">
-        <v>4.451496116164577e-11</v>
+        <v>1.103843891292478e-10</v>
       </c>
       <c r="DB2" t="n">
-        <v>3.753438532205777e-11</v>
+        <v>3.21123891366959e-11</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.811632350552262e-11</v>
+        <v>1.299246300823231e-11</v>
       </c>
       <c r="DD2" t="n">
-        <v>8.529072413610006e-12</v>
+        <v>7.355425990507314e-11</v>
       </c>
       <c r="DE2" t="n">
-        <v>7.123010514753503e-11</v>
+        <v>7.524348505372203e-11</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.351099341937115e-11</v>
+        <v>1.996762755140935e-10</v>
       </c>
       <c r="DG2" t="n">
-        <v>9.452996718728457e-11</v>
+        <v>3.42313295764729e-11</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.97858923426331e-11</v>
+        <v>1.566857199541971e-10</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.186497289307198e-10</v>
+        <v>5.053639451357839e-11</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.553392550845416e-11</v>
+        <v>1.321446511243218e-11</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.29874865202606e-12</v>
+        <v>1.95982174933107e-10</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.076980393228567e-10</v>
+        <v>2.456385442273223e-11</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.682196699645533e-12</v>
+        <v>5.910939099296186e-11</v>
       </c>
       <c r="DN2" t="n">
-        <v>3.038013590694888e-11</v>
+        <v>8.318312011423856e-11</v>
       </c>
       <c r="DO2" t="n">
-        <v>9.615679780194952e-12</v>
+        <v>1.785050718350334e-10</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.045767292207067e-10</v>
+        <v>1.962714019088097e-10</v>
       </c>
       <c r="DQ2" t="n">
-        <v>9.334230610669181e-11</v>
+        <v>1.002551791584594e-10</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.014954648104194e-10</v>
+        <v>7.590961886849712e-11</v>
       </c>
       <c r="DS2" t="n">
-        <v>8.398048229052435e-11</v>
+        <v>1.610391403561451e-10</v>
       </c>
       <c r="DT2" t="n">
-        <v>2.465983667265803e-11</v>
+        <v>4.371152051430016e-11</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.083615835950624e-10</v>
+        <v>3.511049437299185e-11</v>
       </c>
       <c r="DV2" t="n">
-        <v>5.839861233480903e-11</v>
+        <v>1.471816939158099e-11</v>
       </c>
       <c r="DW2" t="n">
-        <v>3.192790129502576e-11</v>
+        <v>5.152783755235646e-11</v>
       </c>
       <c r="DX2" t="n">
-        <v>3.286309072092486e-11</v>
+        <v>1.437314503527354e-11</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.085171674741758e-10</v>
+        <v>1.70374644947735e-10</v>
       </c>
       <c r="DZ2" t="n">
-        <v>8.525055661401382e-11</v>
+        <v>1.589398057610936e-11</v>
       </c>
       <c r="EA2" t="n">
-        <v>3.559982170164844e-13</v>
+        <v>2.961832168413281e-11</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.104814018049183e-10</v>
+        <v>6.620420184288989e-11</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.756119811542224e-11</v>
+        <v>3.375401000371703e-11</v>
       </c>
       <c r="ED2" t="n">
-        <v>3.993171418525954e-11</v>
+        <v>2.320484950024682e-11</v>
       </c>
       <c r="EE2" t="n">
-        <v>4.767659184112816e-11</v>
+        <v>1.0107465212017e-11</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.605055407500778e-11</v>
+        <v>1.313943745473445e-11</v>
       </c>
       <c r="EG2" t="n">
-        <v>4.394581226696559e-11</v>
+        <v>4.838359574099727e-11</v>
       </c>
       <c r="EH2" t="n">
-        <v>3.432871348296729e-11</v>
+        <v>3.083174340834383e-11</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.765079228610578e-11</v>
+        <v>5.266454980445978e-11</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.133745389236829e-10</v>
+        <v>7.554087563810263e-12</v>
       </c>
       <c r="EK2" t="n">
-        <v>5.278219875060053e-11</v>
+        <v>1.140915903419248e-10</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.142152622479742e-10</v>
+        <v>8.732876227712794e-11</v>
       </c>
       <c r="EM2" t="n">
-        <v>4.150401376745716e-12</v>
+        <v>1.855302890485522e-11</v>
       </c>
       <c r="EN2" t="n">
-        <v>2.526935258262419e-11</v>
+        <v>1.232838397341451e-11</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.52951531248824e-11</v>
+        <v>6.368398863809688e-12</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.268876141993005e-11</v>
+        <v>1.871960642052528e-10</v>
       </c>
       <c r="EQ2" t="n">
-        <v>5.703865157968835e-11</v>
+        <v>2.43614226014266e-11</v>
       </c>
       <c r="ER2" t="n">
-        <v>3.638723350407602e-11</v>
+        <v>1.132133692349768e-10</v>
       </c>
       <c r="ES2" t="n">
-        <v>6.377461059248191e-12</v>
+        <v>6.493126869511201e-11</v>
       </c>
       <c r="ET2" t="n">
-        <v>4.681512989768155e-12</v>
+        <v>3.964885642027127e-10</v>
       </c>
       <c r="EU2" t="n">
-        <v>2.51270323992081e-11</v>
+        <v>1.508710656406009e-10</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.42784006840202e-10</v>
+        <v>9.496304437250913e-11</v>
       </c>
       <c r="EW2" t="n">
-        <v>3.469532994238023e-11</v>
+        <v>1.402117588700236e-10</v>
       </c>
       <c r="EX2" t="n">
-        <v>8.065891704545081e-12</v>
+        <v>4.65921190517804e-11</v>
       </c>
       <c r="EY2" t="n">
-        <v>4.23512223554634e-12</v>
+        <v>1.54479845582145e-10</v>
       </c>
       <c r="EZ2" t="n">
-        <v>9.964008784724143e-13</v>
+        <v>1.006534352393507e-11</v>
       </c>
       <c r="FA2" t="n">
-        <v>2.087491637881023e-11</v>
+        <v>8.16083034482773e-11</v>
       </c>
       <c r="FB2" t="n">
-        <v>3.90423665619366e-11</v>
+        <v>9.497895525623079e-11</v>
       </c>
       <c r="FC2" t="n">
-        <v>5.615015050142169e-11</v>
+        <v>8.311027560603534e-11</v>
       </c>
       <c r="FD2" t="n">
-        <v>4.756475768807888e-11</v>
+        <v>8.158625858234458e-11</v>
       </c>
       <c r="FE2" t="n">
-        <v>4.633920677732384e-11</v>
+        <v>1.296994282806718e-11</v>
       </c>
       <c r="FF2" t="n">
-        <v>3.966237061003852e-11</v>
+        <v>9.626780622662423e-11</v>
       </c>
       <c r="FG2" t="n">
-        <v>6.018576609312376e-11</v>
+        <v>1.287628250551398e-11</v>
       </c>
       <c r="FH2" t="n">
-        <v>3.518715874228917e-11</v>
+        <v>6.873481644964485e-11</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.382287340145893e-10</v>
+        <v>5.091300991910686e-11</v>
       </c>
       <c r="FJ2" t="n">
-        <v>3.749028865129844e-11</v>
+        <v>3.159780770367604e-11</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.160979645753457e-10</v>
+        <v>5.727971916225094e-11</v>
       </c>
       <c r="FL2" t="n">
-        <v>8.680594437704414e-11</v>
+        <v>1.480225317318506e-11</v>
       </c>
       <c r="FM2" t="n">
-        <v>3.524778732777456e-11</v>
+        <v>2.450765632100449e-11</v>
       </c>
       <c r="FN2" t="n">
-        <v>3.935869338778097e-11</v>
+        <v>1.201424983804378e-11</v>
       </c>
       <c r="FO2" t="n">
-        <v>3.136646498091977e-11</v>
+        <v>6.368756216845739e-11</v>
       </c>
       <c r="FP2" t="n">
-        <v>2.556617417770468e-11</v>
+        <v>1.563969440065982e-11</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.51698376082976e-10</v>
+        <v>2.575354929312823e-10</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.067776700391931e-10</v>
+        <v>7.13879372282733e-11</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.158406703893888e-12</v>
+        <v>1.121685036520326e-10</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.998463339258905e-10</v>
+        <v>1.858038445323729e-10</v>
       </c>
       <c r="FU2" t="n">
-        <v>9.726979638413624e-11</v>
+        <v>2.079548200306647e-10</v>
       </c>
       <c r="FV2" t="n">
-        <v>2.611066744762081e-11</v>
+        <v>1.071825891929556e-10</v>
       </c>
       <c r="FW2" t="n">
-        <v>2.099245430264851e-11</v>
+        <v>6.760718720966175e-12</v>
       </c>
       <c r="FX2" t="n">
-        <v>6.458614892901338e-11</v>
+        <v>5.962460560005045e-12</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.189842807614028e-10</v>
+        <v>9.450148996670293e-11</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.091930795256047e-11</v>
+        <v>1.39088282558042e-10</v>
       </c>
       <c r="GA2" t="n">
-        <v>7.046967176460583e-14</v>
+        <v>9.883108914587879e-11</v>
       </c>
       <c r="GB2" t="n">
-        <v>2.659966170937e-11</v>
+        <v>6.163736188113944e-12</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.21784290985083e-10</v>
+        <v>4.002293496618847e-10</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.568388474648685e-10</v>
+        <v>2.86704601032417e-11</v>
       </c>
       <c r="GE2" t="n">
-        <v>5.799169131015525e-11</v>
+        <v>1.964473861360005e-10</v>
       </c>
       <c r="GF2" t="n">
-        <v>2.457104311681668e-11</v>
+        <v>7.163111770402963e-11</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.0334386124633e-11</v>
+        <v>3.956193359022642e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.014525873368257e-08</v>
+        <v>2.061500137262584e-10</v>
       </c>
       <c r="B3" t="n">
-        <v>3.66623069680827e-08</v>
+        <v>2.498014017859873e-10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.60805484483717e-07</v>
+        <v>9.756515040315605e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>5.377835066155967e-08</v>
+        <v>3.481631094537363e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>8.36555642536041e-08</v>
+        <v>3.031407902476246e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>2.555329281506147e-08</v>
+        <v>1.612070615886196e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>2.579682067960221e-08</v>
+        <v>7.255787082272036e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>6.071388725104043e-08</v>
+        <v>1.10970573008462e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.401050664957438e-07</v>
+        <v>1.177727082524171e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>2.514329366931634e-08</v>
+        <v>1.224063489457805e-10</v>
       </c>
       <c r="K3" t="n">
-        <v>5.499328104008328e-09</v>
+        <v>4.083891558259722e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.143407004633445e-07</v>
+        <v>1.144430383792638e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>4.710819823117163e-08</v>
+        <v>2.941319063309855e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>8.359700842675011e-08</v>
+        <v>3.486906319238869e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>5.936303004716592e-09</v>
+        <v>3.979606089110632e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>9.432019609789677e-09</v>
+        <v>2.657330744337827e-10</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.464828068899806e-08</v>
+        <v>3.179151386589751e-11</v>
       </c>
       <c r="R3" t="n">
-        <v>2.34110856922598e-07</v>
+        <v>3.891582889270495e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>4.88219420446967e-08</v>
+        <v>1.128154930585268e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>4.337331560577695e-08</v>
+        <v>1.17956422407417e-10</v>
       </c>
       <c r="U3" t="n">
-        <v>3.802680481612697e-08</v>
+        <v>2.427107126390382e-10</v>
       </c>
       <c r="V3" t="n">
-        <v>5.251378709658638e-08</v>
+        <v>1.849551761745616e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>4.621587557096518e-09</v>
+        <v>2.387894326716378e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>1.041151964642495e-08</v>
+        <v>5.278354975324362e-10</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.343098787742747e-08</v>
+        <v>1.781240571707698e-10</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.125070477011832e-09</v>
+        <v>1.883099093324958e-10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.94130400643644e-09</v>
+        <v>1.581642733450295e-10</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.856072356394179e-08</v>
+        <v>5.60797588922135e-11</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.660000847891752e-08</v>
+        <v>9.145921520126166e-11</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.171051167148107e-08</v>
+        <v>3.42295747302046e-10</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.93294720627091e-08</v>
+        <v>2.613806115991935e-10</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.214091405188356e-08</v>
+        <v>1.666061177907352e-10</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.454950463030684e-10</v>
+        <v>4.47679046611249e-11</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.628859701620968e-08</v>
+        <v>1.990966280729367e-10</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.721065849366823e-08</v>
+        <v>6.117732431754064e-10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.958956895644405e-08</v>
+        <v>4.055395741442425e-10</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.302041833881276e-09</v>
+        <v>8.726908085066043e-12</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.563179510976624e-08</v>
+        <v>1.789115383621365e-11</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.24037251580944e-08</v>
+        <v>1.302434271543973e-10</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.816293528557395e-11</v>
+        <v>2.681191102471558e-10</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.09427035713361e-08</v>
+        <v>2.176491625816013e-10</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.763408156804871e-08</v>
+        <v>1.240763464194217e-10</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.547487471498243e-08</v>
+        <v>2.758308859096559e-11</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.219732486707926e-08</v>
+        <v>6.035030808426711e-11</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.897044299425943e-08</v>
+        <v>2.630858031427152e-11</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.044674994929665e-08</v>
+        <v>2.114270147846042e-10</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.704876760934894e-08</v>
+        <v>2.826392453414428e-10</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.001192799776618e-07</v>
+        <v>7.822401754120634e-11</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.347075588384541e-08</v>
+        <v>3.291275862959964e-10</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.66923432643307e-08</v>
+        <v>3.49085038653385e-10</v>
       </c>
       <c r="AY3" t="n">
-        <v>4.743122161698921e-08</v>
+        <v>1.05231295899344e-10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.622132828060785e-08</v>
+        <v>4.885101212437348e-10</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.062329886281077e-07</v>
+        <v>3.82462617132262e-10</v>
       </c>
       <c r="BB3" t="n">
-        <v>5.772661637593046e-08</v>
+        <v>1.40916861512963e-10</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.057235010648583e-08</v>
+        <v>1.356615514369608e-10</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.73149103943615e-08</v>
+        <v>3.419383387548436e-10</v>
       </c>
       <c r="BE3" t="n">
-        <v>7.936073842529368e-08</v>
+        <v>8.878184992733296e-11</v>
       </c>
       <c r="BF3" t="n">
-        <v>3.257914826804154e-08</v>
+        <v>4.496744643311956e-10</v>
       </c>
       <c r="BG3" t="n">
-        <v>6.465155077961526e-09</v>
+        <v>2.726033287991925e-10</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.127080733771436e-10</v>
+        <v>6.925692658255045e-11</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.008043959416227e-08</v>
+        <v>1.84456241947295e-10</v>
       </c>
       <c r="BJ3" t="n">
-        <v>5.679917336465223e-08</v>
+        <v>1.245711173103459e-10</v>
       </c>
       <c r="BK3" t="n">
-        <v>7.260547363330261e-08</v>
+        <v>3.555287730883094e-10</v>
       </c>
       <c r="BL3" t="n">
-        <v>8.344734681031696e-09</v>
+        <v>8.848630161928384e-11</v>
       </c>
       <c r="BM3" t="n">
-        <v>6.631374116494726e-09</v>
+        <v>1.320113462988104e-11</v>
       </c>
       <c r="BN3" t="n">
-        <v>5.079825626808088e-08</v>
+        <v>2.537667298518897e-10</v>
       </c>
       <c r="BO3" t="n">
-        <v>4.928578078988721e-08</v>
+        <v>1.430289775505855e-10</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.603328397299265e-08</v>
+        <v>5.934959745879098e-10</v>
       </c>
       <c r="BQ3" t="n">
-        <v>5.860036456084572e-09</v>
+        <v>2.055284276103464e-10</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.391906051002479e-08</v>
+        <v>4.662001340527411e-11</v>
       </c>
       <c r="BS3" t="n">
-        <v>2.255231734693552e-08</v>
+        <v>2.937075305187165e-10</v>
       </c>
       <c r="BT3" t="n">
-        <v>4.483822735323884e-08</v>
+        <v>8.157373387884803e-11</v>
       </c>
       <c r="BU3" t="n">
-        <v>2.922815411920965e-08</v>
+        <v>1.347760791858832e-10</v>
       </c>
       <c r="BV3" t="n">
-        <v>6.765721760615406e-09</v>
+        <v>1.07105657676243e-10</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.913432789990566e-08</v>
+        <v>2.715236369077445e-11</v>
       </c>
       <c r="BX3" t="n">
-        <v>3.366571732499324e-08</v>
+        <v>2.979320679052933e-10</v>
       </c>
       <c r="BY3" t="n">
-        <v>8.168139231656824e-08</v>
+        <v>6.858693474276478e-11</v>
       </c>
       <c r="BZ3" t="n">
-        <v>4.495780814295358e-08</v>
+        <v>2.917968644489122e-11</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.397449800322192e-08</v>
+        <v>2.687394751177408e-10</v>
       </c>
       <c r="CB3" t="n">
-        <v>8.280076713162998e-08</v>
+        <v>2.094701911925512e-10</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.117779220294324e-07</v>
+        <v>3.096309042494028e-10</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.557921081030145e-08</v>
+        <v>7.558244308203399e-11</v>
       </c>
       <c r="CE3" t="n">
-        <v>2.952450550708363e-08</v>
+        <v>1.595182042013477e-10</v>
       </c>
       <c r="CF3" t="n">
-        <v>2.342387617204622e-08</v>
+        <v>2.430752127358105e-11</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.57972079861679e-09</v>
+        <v>9.578193793657874e-11</v>
       </c>
       <c r="CH3" t="n">
-        <v>3.96106933919782e-08</v>
+        <v>9.212986623596819e-11</v>
       </c>
       <c r="CI3" t="n">
-        <v>2.078292871132703e-09</v>
+        <v>5.103906186576523e-11</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.351295697560317e-08</v>
+        <v>6.257859508362884e-11</v>
       </c>
       <c r="CK3" t="n">
-        <v>3.247946134266044e-09</v>
+        <v>9.427399139116943e-11</v>
       </c>
       <c r="CL3" t="n">
-        <v>3.52913289702883e-08</v>
+        <v>1.532959870154116e-10</v>
       </c>
       <c r="CM3" t="n">
-        <v>2.946272203985245e-08</v>
+        <v>1.276193317689689e-10</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.318790623372479e-07</v>
+        <v>1.528389081961734e-10</v>
       </c>
       <c r="CO3" t="n">
-        <v>5.561410532095579e-08</v>
+        <v>2.087798545158392e-10</v>
       </c>
       <c r="CP3" t="n">
-        <v>2.741842308751075e-10</v>
+        <v>2.885399419394474e-10</v>
       </c>
       <c r="CQ3" t="n">
-        <v>1.029129776952686e-07</v>
+        <v>3.862939690346678e-10</v>
       </c>
       <c r="CR3" t="n">
-        <v>3.124822356426193e-08</v>
+        <v>2.303464918806952e-10</v>
       </c>
       <c r="CS3" t="n">
-        <v>2.1880005363073e-08</v>
+        <v>7.471953611393189e-11</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.633564477605432e-08</v>
+        <v>1.073127836592747e-10</v>
       </c>
       <c r="CU3" t="n">
-        <v>3.561072858815351e-08</v>
+        <v>1.956669826164159e-10</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.671445737372323e-08</v>
+        <v>1.327005727524977e-10</v>
       </c>
       <c r="CW3" t="n">
-        <v>3.106454826706795e-08</v>
+        <v>8.493995784508712e-11</v>
       </c>
       <c r="CX3" t="n">
-        <v>3.397532566395967e-08</v>
+        <v>3.11638770345013e-11</v>
       </c>
       <c r="CY3" t="n">
-        <v>5.523122403872094e-09</v>
+        <v>1.180901904040965e-11</v>
       </c>
       <c r="CZ3" t="n">
-        <v>4.846512879908005e-08</v>
+        <v>1.033672938910435e-10</v>
       </c>
       <c r="DA3" t="n">
-        <v>3.664683223547627e-09</v>
+        <v>6.93829368958454e-11</v>
       </c>
       <c r="DB3" t="n">
-        <v>8.048217203793229e-09</v>
+        <v>7.972528887068009e-11</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.05591704269159e-08</v>
+        <v>1.085631029518197e-10</v>
       </c>
       <c r="DD3" t="n">
-        <v>3.941702431120575e-08</v>
+        <v>1.134500479671452e-10</v>
       </c>
       <c r="DE3" t="n">
-        <v>9.07217767576185e-08</v>
+        <v>1.147748562857487e-11</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.065351966644812e-07</v>
+        <v>8.233539960933456e-10</v>
       </c>
       <c r="DG3" t="n">
-        <v>6.134587948736225e-08</v>
+        <v>2.968350565346611e-11</v>
       </c>
       <c r="DH3" t="n">
-        <v>2.706447688183289e-08</v>
+        <v>1.624017031964797e-10</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.87032868584447e-08</v>
+        <v>8.676458440604051e-10</v>
       </c>
       <c r="DJ3" t="n">
-        <v>7.003478685874143e-09</v>
+        <v>3.693680916683206e-10</v>
       </c>
       <c r="DK3" t="n">
-        <v>2.91207822300521e-08</v>
+        <v>2.184218639289526e-10</v>
       </c>
       <c r="DL3" t="n">
-        <v>6.084577819365222e-08</v>
+        <v>3.352625121966213e-10</v>
       </c>
       <c r="DM3" t="n">
-        <v>3.627249611781735e-08</v>
+        <v>1.289063022991144e-10</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.050675280112046e-08</v>
+        <v>1.150218809087278e-10</v>
       </c>
       <c r="DO3" t="n">
-        <v>1.022810014461584e-08</v>
+        <v>1.04058525685069e-10</v>
       </c>
       <c r="DP3" t="n">
-        <v>3.318530339413428e-09</v>
+        <v>2.801019416409645e-10</v>
       </c>
       <c r="DQ3" t="n">
-        <v>3.353102329128888e-08</v>
+        <v>2.315597019686422e-10</v>
       </c>
       <c r="DR3" t="n">
-        <v>1.128707882713798e-08</v>
+        <v>3.322850883336059e-10</v>
       </c>
       <c r="DS3" t="n">
-        <v>2.600457449375426e-08</v>
+        <v>1.476774952324789e-10</v>
       </c>
       <c r="DT3" t="n">
-        <v>5.147855475229335e-08</v>
+        <v>3.707652934670236e-11</v>
       </c>
       <c r="DU3" t="n">
-        <v>4.710623358050725e-08</v>
+        <v>1.690584339186785e-10</v>
       </c>
       <c r="DV3" t="n">
-        <v>9.888534435731344e-09</v>
+        <v>3.530295847320453e-11</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.038893720524015e-09</v>
+        <v>1.733216903332391e-10</v>
       </c>
       <c r="DX3" t="n">
-        <v>3.650299618129793e-09</v>
+        <v>2.145314342838489e-10</v>
       </c>
       <c r="DY3" t="n">
-        <v>1.478637390306403e-08</v>
+        <v>1.546856531753349e-10</v>
       </c>
       <c r="DZ3" t="n">
-        <v>7.774193733212087e-09</v>
+        <v>3.974809370532739e-10</v>
       </c>
       <c r="EA3" t="n">
-        <v>3.450930563531074e-08</v>
+        <v>9.654975430262169e-11</v>
       </c>
       <c r="EB3" t="n">
-        <v>4.723850821619635e-08</v>
+        <v>1.122143211684801e-10</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.328127385846756e-08</v>
+        <v>6.891848203238737e-11</v>
       </c>
       <c r="ED3" t="n">
-        <v>6.361514692798664e-08</v>
+        <v>3.114434266038302e-10</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.387826475962584e-08</v>
+        <v>2.315148350806595e-10</v>
       </c>
       <c r="EF3" t="n">
-        <v>2.539209731367009e-09</v>
+        <v>1.474828315028986e-10</v>
       </c>
       <c r="EG3" t="n">
-        <v>5.4997055798367e-08</v>
+        <v>2.431779777545273e-10</v>
       </c>
       <c r="EH3" t="n">
-        <v>2.503582052781894e-08</v>
+        <v>2.126152309767093e-10</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.285460626831991e-10</v>
+        <v>3.20918236429435e-10</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.018079487380419e-08</v>
+        <v>2.02989181019575e-10</v>
       </c>
       <c r="EK3" t="n">
-        <v>2.976489454908915e-08</v>
+        <v>3.147416216542354e-10</v>
       </c>
       <c r="EL3" t="n">
-        <v>6.242425598657064e-08</v>
+        <v>6.602149382750611e-12</v>
       </c>
       <c r="EM3" t="n">
-        <v>3.034569573401313e-08</v>
+        <v>5.970802324783975e-11</v>
       </c>
       <c r="EN3" t="n">
-        <v>3.436971596215699e-08</v>
+        <v>1.465870758110555e-10</v>
       </c>
       <c r="EO3" t="n">
-        <v>3.311769525282671e-09</v>
+        <v>1.178669661872078e-10</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.176140873582199e-08</v>
+        <v>7.079148378608124e-11</v>
       </c>
       <c r="EQ3" t="n">
-        <v>2.496522988337802e-08</v>
+        <v>8.442892912574607e-11</v>
       </c>
       <c r="ER3" t="n">
-        <v>4.476651227491857e-08</v>
+        <v>5.001829506134925e-10</v>
       </c>
       <c r="ES3" t="n">
-        <v>2.261757181543089e-08</v>
+        <v>4.95102986386442e-11</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.101385738166982e-08</v>
+        <v>1.1654607834366e-10</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.316837661136105e-08</v>
+        <v>1.623757656110669e-10</v>
       </c>
       <c r="EV3" t="n">
-        <v>2.408379273788341e-08</v>
+        <v>2.319264225114637e-10</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.743814337373806e-08</v>
+        <v>8.08968794729914e-11</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.234112545489552e-08</v>
+        <v>1.677877281558438e-10</v>
       </c>
       <c r="EY3" t="n">
-        <v>2.922067565691577e-08</v>
+        <v>3.388948843774386e-12</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3.373587631472219e-08</v>
+        <v>4.4858377429291e-11</v>
       </c>
       <c r="FA3" t="n">
-        <v>1.855760523028493e-08</v>
+        <v>1.040167951771309e-11</v>
       </c>
       <c r="FB3" t="n">
-        <v>3.639353707285409e-08</v>
+        <v>1.486828993257916e-10</v>
       </c>
       <c r="FC3" t="n">
-        <v>8.333238543656307e-10</v>
+        <v>1.298434137986249e-10</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.410277050695186e-08</v>
+        <v>1.601112853411024e-10</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.132029492367792e-08</v>
+        <v>1.296436430431314e-10</v>
       </c>
       <c r="FF3" t="n">
-        <v>4.295317879154936e-08</v>
+        <v>1.005028352207837e-10</v>
       </c>
       <c r="FG3" t="n">
-        <v>3.977620366413248e-08</v>
+        <v>6.923651235668515e-11</v>
       </c>
       <c r="FH3" t="n">
-        <v>2.200055781997889e-08</v>
+        <v>6.531957613686856e-11</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.41351796933975e-09</v>
+        <v>1.173260655296104e-10</v>
       </c>
       <c r="FJ3" t="n">
-        <v>2.559074374630654e-08</v>
+        <v>3.530001291274232e-10</v>
       </c>
       <c r="FK3" t="n">
-        <v>4.094293970524632e-08</v>
+        <v>1.355148493420444e-10</v>
       </c>
       <c r="FL3" t="n">
-        <v>3.235056311723383e-08</v>
+        <v>4.888797699997838e-12</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.007454362271346e-08</v>
+        <v>1.801239990495418e-10</v>
       </c>
       <c r="FN3" t="n">
-        <v>7.562091752788547e-08</v>
+        <v>3.616724975064045e-10</v>
       </c>
       <c r="FO3" t="n">
-        <v>4.767909445035912e-08</v>
+        <v>3.397792602832794e-10</v>
       </c>
       <c r="FP3" t="n">
-        <v>2.235540108586065e-08</v>
+        <v>2.332241344493724e-10</v>
       </c>
       <c r="FQ3" t="n">
-        <v>4.268552089570221e-08</v>
+        <v>1.606507704643434e-10</v>
       </c>
       <c r="FR3" t="n">
-        <v>8.616177993303609e-09</v>
+        <v>3.778852578073533e-11</v>
       </c>
       <c r="FS3" t="n">
-        <v>4.769428940676335e-08</v>
+        <v>2.722787550979433e-10</v>
       </c>
       <c r="FT3" t="n">
-        <v>7.712222327427298e-08</v>
+        <v>1.640956259763016e-10</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.063551557933806e-08</v>
+        <v>6.58690435528797e-10</v>
       </c>
       <c r="FV3" t="n">
-        <v>2.232784090949735e-08</v>
+        <v>9.9352866211877e-11</v>
       </c>
       <c r="FW3" t="n">
-        <v>1.379389402700326e-08</v>
+        <v>9.169824621846345e-11</v>
       </c>
       <c r="FX3" t="n">
-        <v>9.106670084690904e-09</v>
+        <v>2.174371654950491e-10</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.876442609244805e-09</v>
+        <v>7.340721086546154e-11</v>
       </c>
       <c r="FZ3" t="n">
-        <v>4.260237318476356e-08</v>
+        <v>1.924586184864907e-10</v>
       </c>
       <c r="GA3" t="n">
-        <v>5.471282094049457e-08</v>
+        <v>3.151894301112179e-10</v>
       </c>
       <c r="GB3" t="n">
-        <v>2.300703627611256e-08</v>
+        <v>6.145314812577851e-11</v>
       </c>
       <c r="GC3" t="n">
-        <v>4.162841094057512e-08</v>
+        <v>2.023596984424003e-10</v>
       </c>
       <c r="GD3" t="n">
-        <v>4.220802196641671e-08</v>
+        <v>2.261970472039465e-10</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.254090697955235e-08</v>
+        <v>2.236261870125489e-11</v>
       </c>
       <c r="GF3" t="n">
-        <v>2.639887419775278e-08</v>
+        <v>3.514782076496914e-10</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.902670021536323e-08</v>
+        <v>5.165285907327011e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2711,3985 +2711,3985 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.331195774895605e-06</v>
+        <v>0.0007621853146702051</v>
       </c>
       <c r="B5" t="n">
-        <v>7.158732842071913e-06</v>
+        <v>0.003192765871062875</v>
       </c>
       <c r="C5" t="n">
-        <v>9.081843472813489e-07</v>
+        <v>0.0003321826225146651</v>
       </c>
       <c r="D5" t="n">
-        <v>2.362900522712152e-05</v>
+        <v>0.002410200890153646</v>
       </c>
       <c r="E5" t="n">
-        <v>9.995609616453294e-06</v>
+        <v>0.001351611805148423</v>
       </c>
       <c r="F5" t="n">
-        <v>1.548029285913799e-05</v>
+        <v>0.001759466249495745</v>
       </c>
       <c r="G5" t="n">
-        <v>3.356256229380961e-06</v>
+        <v>0.0004524443065747619</v>
       </c>
       <c r="H5" t="n">
-        <v>3.190370989614166e-06</v>
+        <v>0.0004467975522857159</v>
       </c>
       <c r="I5" t="n">
-        <v>1.077880915545393e-05</v>
+        <v>0.001583779347129166</v>
       </c>
       <c r="J5" t="n">
-        <v>9.041785233421251e-06</v>
+        <v>0.001027102232910693</v>
       </c>
       <c r="K5" t="n">
-        <v>1.439802872482687e-06</v>
+        <v>0.002479715505614877</v>
       </c>
       <c r="L5" t="n">
-        <v>2.313695176781039e-06</v>
+        <v>5.55837614228949e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.008870620164089e-06</v>
+        <v>0.002021747175604105</v>
       </c>
       <c r="N5" t="n">
-        <v>2.439332456560805e-05</v>
+        <v>0.0004925835528410971</v>
       </c>
       <c r="O5" t="n">
-        <v>6.120083980931668e-06</v>
+        <v>0.001771601033397019</v>
       </c>
       <c r="P5" t="n">
-        <v>2.705575298023177e-06</v>
+        <v>0.0001902164076454937</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.70959798299009e-06</v>
+        <v>0.0002295093727298081</v>
       </c>
       <c r="R5" t="n">
-        <v>1.441017684555845e-05</v>
+        <v>0.001372108701616526</v>
       </c>
       <c r="S5" t="n">
-        <v>1.663015950725821e-06</v>
+        <v>0.0001272818772122264</v>
       </c>
       <c r="T5" t="n">
-        <v>5.943464316260361e-07</v>
+        <v>4.661477214540355e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.135714112228015e-06</v>
+        <v>0.0005010304157622159</v>
       </c>
       <c r="V5" t="n">
-        <v>3.943613592127804e-06</v>
+        <v>0.001058522146195173</v>
       </c>
       <c r="W5" t="n">
-        <v>1.810257163015194e-05</v>
+        <v>0.001143610337749124</v>
       </c>
       <c r="X5" t="n">
-        <v>5.267910637485329e-06</v>
+        <v>0.0005334503948688507</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.148613930330612e-06</v>
+        <v>0.0002351955627091229</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.430665008683718e-07</v>
+        <v>0.0004666664754040539</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.363610969448928e-06</v>
+        <v>0.0003565647639334202</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.025415015959879e-06</v>
+        <v>0.0002269246033392847</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.182250333746197e-06</v>
+        <v>0.0002802932285703719</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.13470547250472e-06</v>
+        <v>7.542368985014036e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.172415512788575e-06</v>
+        <v>0.000543517991900444</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.639346560812555e-06</v>
+        <v>0.0003818197292275727</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.026450930425199e-06</v>
+        <v>0.000601740728598088</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.380186171852984e-06</v>
+        <v>0.0006170349079184234</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.585382278790348e-06</v>
+        <v>0.0001211133494507521</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.491336767387111e-06</v>
+        <v>0.0007407303783111274</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.156972525175661e-06</v>
+        <v>0.0003509477828629315</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.029433289862936e-06</v>
+        <v>0.0005438677617348731</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.260637175932061e-07</v>
+        <v>0.0003323487762827426</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.113478629122255e-05</v>
+        <v>6.495046545751393e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.889087439456489e-07</v>
+        <v>0.0002979647542815655</v>
       </c>
       <c r="AP5" t="n">
-        <v>8.763720870774705e-06</v>
+        <v>0.0002057650126516819</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4.381786766316509e-06</v>
+        <v>0.00040209642611444</v>
       </c>
       <c r="AR5" t="n">
-        <v>8.611951898274128e-07</v>
+        <v>0.0001939561770996079</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.813600298803067e-06</v>
+        <v>0.0007885415107011795</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.239551460865187e-06</v>
+        <v>4.901696229353547e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.158223312813789e-07</v>
+        <v>0.001989344600588083</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.696533329071826e-06</v>
+        <v>0.0002894852659665048</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.495646392868366e-05</v>
+        <v>0.001127176568843424</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.479595296899788e-06</v>
+        <v>0.001617291709408164</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.364057425234932e-05</v>
+        <v>0.0009553376585245132</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4.044340130349156e-06</v>
+        <v>0.001382159069180489</v>
       </c>
       <c r="BA5" t="n">
-        <v>4.552010523184435e-06</v>
+        <v>0.00166804576292634</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.079872731679643e-06</v>
+        <v>0.001034080400131643</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.544245489843888e-06</v>
+        <v>0.0004430323897395283</v>
       </c>
       <c r="BD5" t="n">
-        <v>4.144900231040083e-06</v>
+        <v>0.0003876090049743652</v>
       </c>
       <c r="BE5" t="n">
-        <v>6.984765150264138e-06</v>
+        <v>0.0003979417961090803</v>
       </c>
       <c r="BF5" t="n">
-        <v>7.946056030050386e-06</v>
+        <v>8.238256850745529e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>8.852056453179102e-06</v>
+        <v>0.0005425726412795484</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.291154032718623e-06</v>
+        <v>0.0002673508424777538</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.582567049103091e-07</v>
+        <v>0.0006511902320198715</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.138664058293216e-06</v>
+        <v>0.0001258261472685263</v>
       </c>
       <c r="BK5" t="n">
-        <v>9.034899449034128e-06</v>
+        <v>0.001463263877667487</v>
       </c>
       <c r="BL5" t="n">
-        <v>4.73543241241714e-06</v>
+        <v>0.0001122491448768415</v>
       </c>
       <c r="BM5" t="n">
-        <v>5.41187432645529e-07</v>
+        <v>4.395566793391481e-05</v>
       </c>
       <c r="BN5" t="n">
-        <v>9.869530686046346e-07</v>
+        <v>5.819159559905529e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>6.769419087504502e-06</v>
+        <v>0.0001909162965603173</v>
       </c>
       <c r="BP5" t="n">
-        <v>5.436475021269871e-06</v>
+        <v>0.000219456895138137</v>
       </c>
       <c r="BQ5" t="n">
-        <v>6.836168040535995e-07</v>
+        <v>1.081509253708646e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.666642901909654e-06</v>
+        <v>0.0005042636767029762</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.748901922837831e-06</v>
+        <v>0.0003388498444110155</v>
       </c>
       <c r="BT5" t="n">
-        <v>6.55585472486564e-06</v>
+        <v>0.0003680222143884748</v>
       </c>
       <c r="BU5" t="n">
-        <v>7.111727882147534e-07</v>
+        <v>9.261599188903347e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>3.81638130875217e-07</v>
+        <v>0.001173193799331784</v>
       </c>
       <c r="BW5" t="n">
-        <v>5.159391548659187e-06</v>
+        <v>0.0003005870385095477</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.88868107215967e-05</v>
+        <v>0.001224113395437598</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.353877678411664e-06</v>
+        <v>0.0004387912922538817</v>
       </c>
       <c r="BZ5" t="n">
-        <v>6.515337190649007e-06</v>
+        <v>0.0003480073646642268</v>
       </c>
       <c r="CA5" t="n">
-        <v>3.826898137049284e-06</v>
+        <v>0.000721234711818397</v>
       </c>
       <c r="CB5" t="n">
-        <v>5.672559950653522e-07</v>
+        <v>0.0005052694468759</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.044956479745451e-05</v>
+        <v>0.000610358314588666</v>
       </c>
       <c r="CD5" t="n">
-        <v>6.269830919336528e-06</v>
+        <v>0.0002042615378741175</v>
       </c>
       <c r="CE5" t="n">
-        <v>3.779737767217739e-08</v>
+        <v>0.0004711536748800427</v>
       </c>
       <c r="CF5" t="n">
-        <v>8.239007911470253e-07</v>
+        <v>0.0003668428980745375</v>
       </c>
       <c r="CG5" t="n">
-        <v>7.465011549356859e-06</v>
+        <v>0.0003199498169124126</v>
       </c>
       <c r="CH5" t="n">
-        <v>4.189243099972373e-06</v>
+        <v>3.437901250435971e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>3.187920128766564e-06</v>
+        <v>0.000323026004480198</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.391115574733703e-06</v>
+        <v>0.0001894240122055635</v>
       </c>
       <c r="CK5" t="n">
-        <v>4.22902394348057e-06</v>
+        <v>0.0001059308706317097</v>
       </c>
       <c r="CL5" t="n">
-        <v>5.893339221074712e-07</v>
+        <v>0.0003621600044425577</v>
       </c>
       <c r="CM5" t="n">
-        <v>4.95442782266764e-06</v>
+        <v>0.0002354577300138772</v>
       </c>
       <c r="CN5" t="n">
-        <v>5.764337061009428e-07</v>
+        <v>0.0001850103435572237</v>
       </c>
       <c r="CO5" t="n">
-        <v>3.395680550966063e-06</v>
+        <v>0.0002752436848822981</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.517329474154394e-05</v>
+        <v>0.0004131605383008718</v>
       </c>
       <c r="CQ5" t="n">
-        <v>2.141525783372344e-06</v>
+        <v>0.0002768355770967901</v>
       </c>
       <c r="CR5" t="n">
-        <v>6.547773864440387e-06</v>
+        <v>0.0001170221075881273</v>
       </c>
       <c r="CS5" t="n">
-        <v>6.211942036316032e-07</v>
+        <v>0.0008898220839910209</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.170865630228946e-06</v>
+        <v>0.0004772852989844978</v>
       </c>
       <c r="CU5" t="n">
-        <v>3.191189762219437e-06</v>
+        <v>0.0001096231426345184</v>
       </c>
       <c r="CV5" t="n">
-        <v>6.354479410219938e-06</v>
+        <v>0.000171083229361102</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.772651671672065e-06</v>
+        <v>0.0004837981832679361</v>
       </c>
       <c r="CX5" t="n">
-        <v>2.848530868959642e-07</v>
+        <v>0.0003066982899326831</v>
       </c>
       <c r="CY5" t="n">
-        <v>6.522632247651927e-06</v>
+        <v>0.0004150174208916724</v>
       </c>
       <c r="CZ5" t="n">
-        <v>5.67324013900361e-06</v>
+        <v>0.0001747217611409724</v>
       </c>
       <c r="DA5" t="n">
-        <v>9.535145863992511e-07</v>
+        <v>0.0003630522987805307</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.139017854256963e-06</v>
+        <v>0.0002475111978128552</v>
       </c>
       <c r="DC5" t="n">
-        <v>3.891665073751938e-06</v>
+        <v>0.000202369294129312</v>
       </c>
       <c r="DD5" t="n">
-        <v>4.594022300352663e-07</v>
+        <v>0.0002747215621639043</v>
       </c>
       <c r="DE5" t="n">
-        <v>1.189472095575184e-05</v>
+        <v>0.0002244877978228033</v>
       </c>
       <c r="DF5" t="n">
-        <v>5.224304459261475e-06</v>
+        <v>9.079747542273253e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>8.692620212968905e-06</v>
+        <v>3.135623774142005e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>1.15177554107504e-05</v>
+        <v>0.001339847454801202</v>
       </c>
       <c r="DI5" t="n">
-        <v>6.319061867543496e-06</v>
+        <v>0.001907444908283651</v>
       </c>
       <c r="DJ5" t="n">
-        <v>5.71102191315731e-06</v>
+        <v>0.001525387517176569</v>
       </c>
       <c r="DK5" t="n">
-        <v>5.260936632112134e-06</v>
+        <v>0.0006508053047582507</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.507747401774395e-05</v>
+        <v>0.0005861171521246433</v>
       </c>
       <c r="DM5" t="n">
-        <v>2.426265382382553e-06</v>
+        <v>0.0005827404675073922</v>
       </c>
       <c r="DN5" t="n">
-        <v>2.962133976325276e-06</v>
+        <v>0.0002695014991331846</v>
       </c>
       <c r="DO5" t="n">
-        <v>5.811976734548807e-06</v>
+        <v>0.0004385561624076217</v>
       </c>
       <c r="DP5" t="n">
-        <v>4.526245334091072e-07</v>
+        <v>6.547241355292499e-05</v>
       </c>
       <c r="DQ5" t="n">
-        <v>7.049287091831502e-07</v>
+        <v>0.0005428524455055594</v>
       </c>
       <c r="DR5" t="n">
-        <v>6.865835075586801e-06</v>
+        <v>0.0003810627968050539</v>
       </c>
       <c r="DS5" t="n">
-        <v>2.171267396988696e-06</v>
+        <v>0.0002554324164520949</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.919381702464307e-06</v>
+        <v>0.000238195774727501</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.064240223058732e-05</v>
+        <v>0.0001250579371117055</v>
       </c>
       <c r="DV5" t="n">
-        <v>3.147293227812042e-06</v>
+        <v>0.0009673198219388723</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.79493440555234e-07</v>
+        <v>0.0001261901488760486</v>
       </c>
       <c r="DX5" t="n">
-        <v>6.499103619717062e-06</v>
+        <v>0.0003228419518563896</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.367252934869612e-06</v>
+        <v>0.0007157991058193147</v>
       </c>
       <c r="DZ5" t="n">
-        <v>8.372121556021739e-06</v>
+        <v>0.0003444424946792424</v>
       </c>
       <c r="EA5" t="n">
-        <v>4.223582891427213e-06</v>
+        <v>0.0005741830100305378</v>
       </c>
       <c r="EB5" t="n">
-        <v>7.837943485355936e-06</v>
+        <v>0.0004674540250562131</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.891327087832906e-06</v>
+        <v>6.466794002335519e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>6.738101092196302e-06</v>
+        <v>0.0003380415146239102</v>
       </c>
       <c r="EE5" t="n">
-        <v>6.456510618590983e-06</v>
+        <v>7.41353869671002e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>3.666359589260537e-06</v>
+        <v>3.260286757722497e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>8.45254362502601e-07</v>
+        <v>0.0002214246487710625</v>
       </c>
       <c r="EH5" t="n">
-        <v>7.706124733886099e-07</v>
+        <v>0.0003083824994973838</v>
       </c>
       <c r="EI5" t="n">
-        <v>7.349369752773782e-06</v>
+        <v>6.115136056905612e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>1.794886088646308e-06</v>
+        <v>0.0003449560899753124</v>
       </c>
       <c r="EK5" t="n">
-        <v>3.140278067803592e-06</v>
+        <v>0.0004583342524711043</v>
       </c>
       <c r="EL5" t="n">
-        <v>5.792177489638561e-06</v>
+        <v>0.0001821763289626688</v>
       </c>
       <c r="EM5" t="n">
-        <v>2.140026964525532e-07</v>
+        <v>1.759493898134679e-06</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.377554553982918e-06</v>
+        <v>8.516992966178805e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>6.212309017428197e-06</v>
+        <v>4.209396138321608e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>1.018316993395274e-06</v>
+        <v>0.0004196684458293021</v>
       </c>
       <c r="EQ5" t="n">
-        <v>9.320775973264972e-08</v>
+        <v>0.0001365600182907656</v>
       </c>
       <c r="ER5" t="n">
-        <v>4.300441560189938e-06</v>
+        <v>0.0002427266736049205</v>
       </c>
       <c r="ES5" t="n">
-        <v>7.824146450730041e-06</v>
+        <v>0.0002550560748204589</v>
       </c>
       <c r="ET5" t="n">
-        <v>3.180370867994498e-06</v>
+        <v>0.0009215833269990981</v>
       </c>
       <c r="EU5" t="n">
-        <v>1.567660660839465e-06</v>
+        <v>0.0008246777579188347</v>
       </c>
       <c r="EV5" t="n">
-        <v>1.722490992506209e-06</v>
+        <v>0.001161356340162456</v>
       </c>
       <c r="EW5" t="n">
-        <v>1.005719241220504e-06</v>
+        <v>0.0002034742210526019</v>
       </c>
       <c r="EX5" t="n">
-        <v>4.833222192246467e-06</v>
+        <v>0.0001841334305936471</v>
       </c>
       <c r="EY5" t="n">
-        <v>7.186288542015973e-08</v>
+        <v>0.0003977841115556657</v>
       </c>
       <c r="EZ5" t="n">
-        <v>1.503341309216921e-07</v>
+        <v>0.0002051276969723403</v>
       </c>
       <c r="FA5" t="n">
-        <v>4.347459253040142e-06</v>
+        <v>0.0005081715062260628</v>
       </c>
       <c r="FB5" t="n">
-        <v>5.634212357108481e-06</v>
+        <v>7.652687781956047e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.825900312724116e-06</v>
+        <v>0.0003710280579980463</v>
       </c>
       <c r="FD5" t="n">
-        <v>1.572802375449101e-06</v>
+        <v>0.0003842470759991556</v>
       </c>
       <c r="FE5" t="n">
-        <v>2.919392954936484e-06</v>
+        <v>0.000149971543578431</v>
       </c>
       <c r="FF5" t="n">
-        <v>2.378845238126814e-06</v>
+        <v>0.0004246035241521895</v>
       </c>
       <c r="FG5" t="n">
-        <v>5.347939804778434e-06</v>
+        <v>7.489595736842602e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>1.199418306896405e-07</v>
+        <v>0.0003468047652859241</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.102164560506935e-06</v>
+        <v>0.0002850878809113055</v>
       </c>
       <c r="FJ5" t="n">
-        <v>8.172921752702678e-07</v>
+        <v>0.0004616778460331261</v>
       </c>
       <c r="FK5" t="n">
-        <v>8.70610438141739e-06</v>
+        <v>0.0006370030459947884</v>
       </c>
       <c r="FL5" t="n">
-        <v>1.03455740827485e-05</v>
+        <v>0.0001809844252420589</v>
       </c>
       <c r="FM5" t="n">
-        <v>5.741835593653377e-07</v>
+        <v>8.118644473142922e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>7.135621672205161e-06</v>
+        <v>0.0006942555191926658</v>
       </c>
       <c r="FO5" t="n">
-        <v>7.673036748201412e-07</v>
+        <v>7.283974809979554e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>8.117312972899526e-06</v>
+        <v>0.0001704194146441296</v>
       </c>
       <c r="FQ5" t="n">
-        <v>6.088857276154158e-07</v>
+        <v>0.0002227848599432036</v>
       </c>
       <c r="FR5" t="n">
-        <v>8.15914427221287e-06</v>
+        <v>0.0002436402282910421</v>
       </c>
       <c r="FS5" t="n">
-        <v>5.30058332515182e-06</v>
+        <v>0.0003259321674704552</v>
       </c>
       <c r="FT5" t="n">
-        <v>8.051699296629522e-06</v>
+        <v>0.0009569905232638121</v>
       </c>
       <c r="FU5" t="n">
-        <v>2.932984898507129e-06</v>
+        <v>0.0008877174695953727</v>
       </c>
       <c r="FV5" t="n">
-        <v>1.423789854015922e-06</v>
+        <v>0.001012574415653944</v>
       </c>
       <c r="FW5" t="n">
-        <v>1.930197186084115e-06</v>
+        <v>6.106711953179911e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>2.182383695981116e-06</v>
+        <v>0.0003344828437548131</v>
       </c>
       <c r="FY5" t="n">
-        <v>6.327496066660387e-06</v>
+        <v>0.0002986147883348167</v>
       </c>
       <c r="FZ5" t="n">
-        <v>2.397842763457447e-06</v>
+        <v>5.558574775932357e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>7.389253937617468e-07</v>
+        <v>0.0005188646027818322</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.854116817412432e-06</v>
+        <v>0.0001742602617014199</v>
       </c>
       <c r="GC5" t="n">
-        <v>9.213810017172364e-07</v>
+        <v>0.0009333251509815454</v>
       </c>
       <c r="GD5" t="n">
-        <v>4.269063538231421e-06</v>
+        <v>0.0001995826751226559</v>
       </c>
       <c r="GE5" t="n">
-        <v>2.892985321523156e-06</v>
+        <v>0.001428575487807393</v>
       </c>
       <c r="GF5" t="n">
-        <v>1.357087171527382e-06</v>
+        <v>0.000796644773799926</v>
       </c>
       <c r="GG5" t="n">
-        <v>9.183158908854239e-06</v>
+        <v>7.986182026797906e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.851863923249766e-05</v>
+        <v>0.04056696221232414</v>
       </c>
       <c r="B6" t="n">
-        <v>5.107782999402843e-05</v>
+        <v>0.08051758259534836</v>
       </c>
       <c r="C6" t="n">
-        <v>1.365265507047297e-05</v>
+        <v>0.00629636412486434</v>
       </c>
       <c r="D6" t="n">
-        <v>7.022051431704313e-05</v>
+        <v>0.017839714884758</v>
       </c>
       <c r="E6" t="n">
-        <v>5.214000702835619e-05</v>
+        <v>0.05405119061470032</v>
       </c>
       <c r="F6" t="n">
-        <v>5.07908989675343e-05</v>
+        <v>0.02528710290789604</v>
       </c>
       <c r="G6" t="n">
-        <v>4.699611963587813e-06</v>
+        <v>0.005093182437121868</v>
       </c>
       <c r="H6" t="n">
-        <v>2.980128192575648e-05</v>
+        <v>0.01012969948351383</v>
       </c>
       <c r="I6" t="n">
-        <v>3.900577667081961e-06</v>
+        <v>0.02861353568732738</v>
       </c>
       <c r="J6" t="n">
-        <v>1.940207584993914e-05</v>
+        <v>0.03661021590232849</v>
       </c>
       <c r="K6" t="n">
-        <v>1.912728293973487e-05</v>
+        <v>0.08499186486005783</v>
       </c>
       <c r="L6" t="n">
-        <v>1.727592643874232e-05</v>
+        <v>0.02011789940297604</v>
       </c>
       <c r="M6" t="n">
-        <v>5.621247692033648e-05</v>
+        <v>0.00113458838313818</v>
       </c>
       <c r="N6" t="n">
-        <v>1.909124148369301e-05</v>
+        <v>0.02689390070736408</v>
       </c>
       <c r="O6" t="n">
-        <v>9.146067895926535e-06</v>
+        <v>0.004644363187253475</v>
       </c>
       <c r="P6" t="n">
-        <v>3.186503818142228e-06</v>
+        <v>0.003610909217968583</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.526692125888076e-06</v>
+        <v>0.002246816642582417</v>
       </c>
       <c r="R6" t="n">
-        <v>2.034969384112628e-06</v>
+        <v>0.01896023936569691</v>
       </c>
       <c r="S6" t="n">
-        <v>2.463114287820645e-05</v>
+        <v>0.006484736688435078</v>
       </c>
       <c r="T6" t="n">
-        <v>9.478555512032472e-06</v>
+        <v>0.009863981977105141</v>
       </c>
       <c r="U6" t="n">
-        <v>1.24160014820518e-05</v>
+        <v>0.02611654438078403</v>
       </c>
       <c r="V6" t="n">
-        <v>2.915840013884008e-08</v>
+        <v>0.02571039833128452</v>
       </c>
       <c r="W6" t="n">
-        <v>4.647473542718217e-05</v>
+        <v>0.03091612458229065</v>
       </c>
       <c r="X6" t="n">
-        <v>1.43072429636959e-05</v>
+        <v>0.02201184630393982</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.091839294531383e-06</v>
+        <v>0.004044205415993929</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.78376412804937e-05</v>
+        <v>0.006774672772735357</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.664858695628936e-06</v>
+        <v>0.004412955604493618</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.36830385599751e-05</v>
+        <v>0.02399885468184948</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.03933811665047e-05</v>
+        <v>0.02251199632883072</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.209441415994661e-05</v>
+        <v>0.01583565957844257</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.042134681483731e-05</v>
+        <v>0.02774599194526672</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.81002685369458e-05</v>
+        <v>0.020273108035326</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.220006015500985e-05</v>
+        <v>0.03164748474955559</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.929395673680119e-06</v>
+        <v>0.02615112438797951</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.044593955157325e-05</v>
+        <v>0.03760571032762527</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.153425485739717e-06</v>
+        <v>0.02304750867187977</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.270055796951056e-06</v>
+        <v>0.00771423103287816</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.306517313234508e-06</v>
+        <v>0.003303424455225468</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.115388815582264e-05</v>
+        <v>0.01010614447295666</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.038992715824861e-05</v>
+        <v>0.007564525119960308</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.210367190651596e-05</v>
+        <v>0.00977411400526762</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.503460200387053e-05</v>
+        <v>0.01237846910953522</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.891657681582728e-06</v>
+        <v>0.002347238129004836</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.226304892858025e-06</v>
+        <v>0.01467137038707733</v>
       </c>
       <c r="AS6" t="n">
-        <v>7.205489055195358e-06</v>
+        <v>0.01655031368136406</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.233139639429282e-05</v>
+        <v>0.01222121994942427</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.534449802420568e-05</v>
+        <v>0.02849731035530567</v>
       </c>
       <c r="AV6" t="n">
-        <v>6.763052624592092e-07</v>
+        <v>0.002058596583083272</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.482049967511557e-05</v>
+        <v>0.06012840569019318</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.628294820780866e-05</v>
+        <v>0.03451589122414589</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.43311182607431e-05</v>
+        <v>0.02339235693216324</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.827945379773155e-05</v>
+        <v>0.01685486920177937</v>
       </c>
       <c r="BA6" t="n">
-        <v>6.651764124399051e-06</v>
+        <v>0.02221652306616306</v>
       </c>
       <c r="BB6" t="n">
-        <v>8.925924703362398e-06</v>
+        <v>0.009838017635047436</v>
       </c>
       <c r="BC6" t="n">
-        <v>9.525418136036023e-06</v>
+        <v>0.0462656058371067</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.9083052140777e-05</v>
+        <v>0.002168704057112336</v>
       </c>
       <c r="BE6" t="n">
-        <v>5.741530912928283e-07</v>
+        <v>0.01009400002658367</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.20795807056129e-05</v>
+        <v>0.01690640673041344</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.939519956475124e-05</v>
+        <v>0.07347490638494492</v>
       </c>
       <c r="BH6" t="n">
-        <v>4.608744802681031e-06</v>
+        <v>0.002745958510786295</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.211896025983151e-05</v>
+        <v>0.003908894490450621</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4.12876033806242e-05</v>
+        <v>0.0192161425948143</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.569548112456687e-05</v>
+        <v>0.01678447797894478</v>
       </c>
       <c r="BL6" t="n">
-        <v>3.187159791195882e-06</v>
+        <v>0.01433683279901743</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.295435777137754e-05</v>
+        <v>0.02698271162807941</v>
       </c>
       <c r="BN6" t="n">
-        <v>7.349059160333127e-06</v>
+        <v>0.01625813171267509</v>
       </c>
       <c r="BO6" t="n">
-        <v>5.268657787382836e-06</v>
+        <v>0.03988189250230789</v>
       </c>
       <c r="BP6" t="n">
-        <v>3.972958438680507e-06</v>
+        <v>0.006572038866579533</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.14228293771157e-06</v>
+        <v>0.003143681678920984</v>
       </c>
       <c r="BR6" t="n">
-        <v>3.639361921159434e-06</v>
+        <v>0.02130692824721336</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.116154089686461e-05</v>
+        <v>0.008409867063164711</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.697975312708877e-05</v>
+        <v>0.003155452199280262</v>
       </c>
       <c r="BU6" t="n">
-        <v>6.447075975302141e-06</v>
+        <v>0.01190879940986633</v>
       </c>
       <c r="BV6" t="n">
-        <v>8.162539415934589e-06</v>
+        <v>0.02564819343388081</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.658830296946689e-05</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="BX6" t="n">
-        <v>5.644289194606245e-05</v>
+        <v>0.005248809698969126</v>
       </c>
       <c r="BY6" t="n">
-        <v>4.681839709519409e-05</v>
+        <v>0.02243968099355698</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.84414293471491e-05</v>
+        <v>0.02518996223807335</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.37827998969442e-06</v>
+        <v>0.004974318668246269</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.551970626678667e-06</v>
+        <v>0.01219468005001545</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.273277641506866e-05</v>
+        <v>0.006760057061910629</v>
       </c>
       <c r="CD6" t="n">
-        <v>7.02921124684508e-06</v>
+        <v>0.003929699305444956</v>
       </c>
       <c r="CE6" t="n">
-        <v>4.452521352504846e-06</v>
+        <v>0.01965291425585747</v>
       </c>
       <c r="CF6" t="n">
-        <v>3.086310925937141e-06</v>
+        <v>0.004148701671510935</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.500164853496244e-05</v>
+        <v>0.003201107494533062</v>
       </c>
       <c r="CH6" t="n">
-        <v>8.947098422140698e-07</v>
+        <v>0.0007149364100769162</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.280559354199795e-05</v>
+        <v>0.004388770088553429</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.228229393746005e-07</v>
+        <v>0.01650969311594963</v>
       </c>
       <c r="CK6" t="n">
-        <v>9.622695870348252e-06</v>
+        <v>0.01153267920017242</v>
       </c>
       <c r="CL6" t="n">
-        <v>6.141550557003939e-07</v>
+        <v>0.00817052461206913</v>
       </c>
       <c r="CM6" t="n">
-        <v>8.396387784159742e-06</v>
+        <v>0.000841932836920023</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.73787702806294e-05</v>
+        <v>0.01477646082639694</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.240706180600682e-07</v>
+        <v>0.004327301867306232</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.251295856898651e-05</v>
+        <v>0.033378966152668</v>
       </c>
       <c r="CQ6" t="n">
-        <v>4.038689803564921e-05</v>
+        <v>0.001302274875342846</v>
       </c>
       <c r="CR6" t="n">
-        <v>6.338801085803425e-06</v>
+        <v>0.01092292461544275</v>
       </c>
       <c r="CS6" t="n">
-        <v>4.510682174441172e-06</v>
+        <v>0.007429013960063457</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.918320594995748e-05</v>
+        <v>0.002382196485996246</v>
       </c>
       <c r="CU6" t="n">
-        <v>6.28694033366628e-06</v>
+        <v>0.009549876675009727</v>
       </c>
       <c r="CV6" t="n">
-        <v>6.449442025768803e-06</v>
+        <v>0.008570626378059387</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.575407168274978e-06</v>
+        <v>0.01720303297042847</v>
       </c>
       <c r="CX6" t="n">
-        <v>3.577860070436145e-06</v>
+        <v>0.006183474790304899</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.237788274011109e-05</v>
+        <v>0.007460074964910746</v>
       </c>
       <c r="CZ6" t="n">
-        <v>5.52310552848212e-08</v>
+        <v>0.004541631788015366</v>
       </c>
       <c r="DA6" t="n">
-        <v>4.249525773047935e-06</v>
+        <v>0.01086283009499311</v>
       </c>
       <c r="DB6" t="n">
-        <v>3.71259147868841e-07</v>
+        <v>0.02042962610721588</v>
       </c>
       <c r="DC6" t="n">
-        <v>6.833745828771498e-06</v>
+        <v>0.004918640479445457</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.827357548085274e-06</v>
+        <v>0.008640570566058159</v>
       </c>
       <c r="DE6" t="n">
-        <v>3.298256706329994e-05</v>
+        <v>0.0004545352421700954</v>
       </c>
       <c r="DF6" t="n">
-        <v>9.879105164145585e-06</v>
+        <v>0.02769108489155769</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.394327904970851e-06</v>
+        <v>0.03911939635872841</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.644786971155554e-05</v>
+        <v>0.006068333983421326</v>
       </c>
       <c r="DI6" t="n">
-        <v>4.332597018219531e-05</v>
+        <v>0.05494233965873718</v>
       </c>
       <c r="DJ6" t="n">
-        <v>4.076760887983255e-05</v>
+        <v>0.05130128562450409</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.29041154650622e-05</v>
+        <v>0.02141506038606167</v>
       </c>
       <c r="DL6" t="n">
-        <v>3.064989141421393e-05</v>
+        <v>0.01281477510929108</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.754036247803015e-06</v>
+        <v>0.007526649627834558</v>
       </c>
       <c r="DN6" t="n">
-        <v>5.258411874820013e-07</v>
+        <v>0.01186898350715637</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.754747427185066e-05</v>
+        <v>0.00308276666328311</v>
       </c>
       <c r="DP6" t="n">
-        <v>8.307922144012991e-06</v>
+        <v>0.01754061691462994</v>
       </c>
       <c r="DQ6" t="n">
-        <v>5.907817467232235e-06</v>
+        <v>0.005283340811729431</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.15891662062495e-05</v>
+        <v>0.02472353726625443</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.550398155814037e-05</v>
+        <v>0.03159420937299728</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.734802365012001e-06</v>
+        <v>0.004144700244069099</v>
       </c>
       <c r="DU6" t="n">
-        <v>7.369335435214452e-06</v>
+        <v>0.006216718815267086</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.044849068421172e-05</v>
+        <v>0.01695129089057446</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.813146923268505e-06</v>
+        <v>0.007950389757752419</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.098083157557994e-05</v>
+        <v>0.00418535340577364</v>
       </c>
       <c r="DY6" t="n">
-        <v>3.95047572965268e-06</v>
+        <v>0.006583466194570065</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.549136686662678e-05</v>
+        <v>0.001110989600419998</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.737114416755503e-06</v>
+        <v>0.03265997022390366</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.547199644846842e-05</v>
+        <v>0.01116511877626181</v>
       </c>
       <c r="EC6" t="n">
-        <v>7.873682989156805e-06</v>
+        <v>0.01225301902741194</v>
       </c>
       <c r="ED6" t="n">
-        <v>8.882120710040908e-06</v>
+        <v>0.005432385951280594</v>
       </c>
       <c r="EE6" t="n">
-        <v>7.35816138330847e-06</v>
+        <v>0.004629045724868774</v>
       </c>
       <c r="EF6" t="n">
-        <v>3.064717475353973e-06</v>
+        <v>0.01095570344477892</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.281052158854436e-07</v>
+        <v>0.01174854673445225</v>
       </c>
       <c r="EH6" t="n">
-        <v>2.354969637963222e-06</v>
+        <v>0.002726363483816385</v>
       </c>
       <c r="EI6" t="n">
-        <v>2.563320595072582e-05</v>
+        <v>0.02109090983867645</v>
       </c>
       <c r="EJ6" t="n">
-        <v>4.172834906057687e-06</v>
+        <v>0.004161954857409</v>
       </c>
       <c r="EK6" t="n">
-        <v>9.027007195072656e-07</v>
+        <v>0.008995137177407742</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.760850500431843e-05</v>
+        <v>0.009763590060174465</v>
       </c>
       <c r="EM6" t="n">
-        <v>6.078474143578205e-06</v>
+        <v>0.01902851089835167</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.316473844781285e-05</v>
+        <v>0.01739979162812233</v>
       </c>
       <c r="EO6" t="n">
-        <v>4.730894715976319e-07</v>
+        <v>0.01660945080220699</v>
       </c>
       <c r="EP6" t="n">
-        <v>2.252301328553585e-06</v>
+        <v>0.0275750532746315</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1.782669278327376e-05</v>
+        <v>0.02796152047812939</v>
       </c>
       <c r="ER6" t="n">
-        <v>7.197942522907397e-06</v>
+        <v>0.001266798935830593</v>
       </c>
       <c r="ES6" t="n">
-        <v>8.910405995266046e-06</v>
+        <v>0.02422014251351357</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.234366482094629e-05</v>
+        <v>0.04328569397330284</v>
       </c>
       <c r="EU6" t="n">
-        <v>6.914678579050815e-06</v>
+        <v>0.03007199987769127</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.832222369557712e-05</v>
+        <v>0.01821992918848991</v>
       </c>
       <c r="EW6" t="n">
-        <v>2.746968903011293e-06</v>
+        <v>0.007855456322431564</v>
       </c>
       <c r="EX6" t="n">
-        <v>4.161393462709384e-06</v>
+        <v>0.001806401181966066</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.548262500567944e-06</v>
+        <v>0.02058093622326851</v>
       </c>
       <c r="EZ6" t="n">
-        <v>3.443176865403075e-06</v>
+        <v>0.009528930298984051</v>
       </c>
       <c r="FA6" t="n">
-        <v>8.738084943615831e-06</v>
+        <v>0.005492471624165773</v>
       </c>
       <c r="FB6" t="n">
-        <v>8.720226105651818e-07</v>
+        <v>0.005263881757855415</v>
       </c>
       <c r="FC6" t="n">
-        <v>3.368685383975389e-06</v>
+        <v>0.01129472069442272</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.228723133157473e-06</v>
+        <v>0.01292243599891663</v>
       </c>
       <c r="FE6" t="n">
-        <v>7.80913069320377e-06</v>
+        <v>0.002604929730296135</v>
       </c>
       <c r="FF6" t="n">
-        <v>2.761463292699773e-06</v>
+        <v>0.01174393482506275</v>
       </c>
       <c r="FG6" t="n">
-        <v>1.730537042021751e-05</v>
+        <v>0.001606279285624623</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.642185452510603e-06</v>
+        <v>0.005506291054189205</v>
       </c>
       <c r="FI6" t="n">
-        <v>2.083927938656416e-05</v>
+        <v>0.000540941720828414</v>
       </c>
       <c r="FJ6" t="n">
-        <v>4.072574938618345e-06</v>
+        <v>0.0340520478785038</v>
       </c>
       <c r="FK6" t="n">
-        <v>5.413712642621249e-06</v>
+        <v>0.03132985532283783</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.196766697830753e-05</v>
+        <v>0.005106275901198387</v>
       </c>
       <c r="FM6" t="n">
-        <v>9.880606739898212e-06</v>
+        <v>0.001238692551851273</v>
       </c>
       <c r="FN6" t="n">
-        <v>1.159510611614678e-05</v>
+        <v>0.01723599061369896</v>
       </c>
       <c r="FO6" t="n">
-        <v>7.466783699783264e-06</v>
+        <v>0.01260379515588284</v>
       </c>
       <c r="FP6" t="n">
-        <v>5.191759555600584e-08</v>
+        <v>0.009577217511832714</v>
       </c>
       <c r="FQ6" t="n">
-        <v>6.217292138899211e-06</v>
+        <v>0.06049118191003799</v>
       </c>
       <c r="FR6" t="n">
-        <v>4.814873136638198e-06</v>
+        <v>0.03764831274747849</v>
       </c>
       <c r="FS6" t="n">
-        <v>7.334743713727221e-06</v>
+        <v>0.04350897669792175</v>
       </c>
       <c r="FT6" t="n">
-        <v>3.045941957680043e-05</v>
+        <v>0.07492902874946594</v>
       </c>
       <c r="FU6" t="n">
-        <v>3.723084955709055e-05</v>
+        <v>0.007685105782002211</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.028564020089107e-05</v>
+        <v>0.03998517990112305</v>
       </c>
       <c r="FW6" t="n">
-        <v>6.625427886319812e-06</v>
+        <v>0.0166197344660759</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.330815666733542e-05</v>
+        <v>0.01256953831762075</v>
       </c>
       <c r="FY6" t="n">
-        <v>7.279767032741802e-06</v>
+        <v>0.03625530004501343</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.081958271242911e-05</v>
+        <v>0.00518626207485795</v>
       </c>
       <c r="GA6" t="n">
-        <v>2.4272640075651e-06</v>
+        <v>0.01926572434604168</v>
       </c>
       <c r="GB6" t="n">
-        <v>2.401984420430381e-05</v>
+        <v>0.01359886303544044</v>
       </c>
       <c r="GC6" t="n">
-        <v>3.252946771681309e-05</v>
+        <v>0.00508161773905158</v>
       </c>
       <c r="GD6" t="n">
-        <v>7.249429927469464e-06</v>
+        <v>0.02754123695194721</v>
       </c>
       <c r="GE6" t="n">
-        <v>8.59660417518171e-07</v>
+        <v>0.02882258594036102</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.194881133415038e-05</v>
+        <v>0.00917263887822628</v>
       </c>
       <c r="GG6" t="n">
-        <v>6.731675966875628e-06</v>
+        <v>0.02142645232379436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.361391294835146e-11</v>
+        <v>5.839740424562478e-08</v>
       </c>
       <c r="B7" t="n">
-        <v>1.781934669264906e-11</v>
+        <v>5.552201969294401e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>1.69247081627244e-11</v>
+        <v>1.778236935479072e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>1.791271644902004e-11</v>
+        <v>2.892074633109587e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>5.046615209058913e-11</v>
+        <v>8.951963081926806e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>5.559371366037347e-11</v>
+        <v>1.571602751937462e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>2.934434639723094e-11</v>
+        <v>1.070837470251718e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>2.642584762124756e-11</v>
+        <v>9.629018222767627e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>4.430116343212553e-11</v>
+        <v>1.712734160719265e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.186457876389824e-11</v>
+        <v>2.568198169683455e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>5.037769507110212e-11</v>
+        <v>3.321417523238779e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>2.289297917901223e-11</v>
+        <v>2.723148782024509e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>7.315804212426613e-12</v>
+        <v>2.401881005198447e-08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.482724525438741e-11</v>
+        <v>1.254988092114218e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>5.609096520586832e-12</v>
+        <v>9.871941983874422e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>2.938377666183989e-11</v>
+        <v>2.974314554649027e-07</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.359581016160185e-11</v>
+        <v>9.156606211035978e-07</v>
       </c>
       <c r="R7" t="n">
-        <v>2.158913325889245e-11</v>
+        <v>5.724812695007131e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>1.924006787223931e-11</v>
+        <v>2.63737803152253e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>4.40153642700114e-12</v>
+        <v>1.544057965929824e-07</v>
       </c>
       <c r="U7" t="n">
-        <v>3.135325332692673e-11</v>
+        <v>3.068536784667231e-07</v>
       </c>
       <c r="V7" t="n">
-        <v>1.462891092984808e-11</v>
+        <v>8.94801246431598e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>6.412386593934727e-11</v>
+        <v>1.351563469143002e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>1.210268083667865e-11</v>
+        <v>5.311779318617482e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.465351971707829e-11</v>
+        <v>1.27860971588234e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.310717573509983e-12</v>
+        <v>3.839085707113554e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.940084783581881e-12</v>
+        <v>7.926379907985392e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.923094669620262e-11</v>
+        <v>2.024001304334888e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.585326050463799e-11</v>
+        <v>1.00217516774137e-06</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.309757412057635e-12</v>
+        <v>5.694611218132195e-07</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.421288520903063e-11</v>
+        <v>5.176632384973345e-07</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.632115094798216e-11</v>
+        <v>1.309936919824395e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.445098794938264e-12</v>
+        <v>6.117262785210187e-08</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.5756043959001e-11</v>
+        <v>8.542343721273937e-07</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.563979410730166e-12</v>
+        <v>8.810891358734807e-07</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.76591683584515e-13</v>
+        <v>5.404841658673831e-07</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.621487666358945e-11</v>
+        <v>1.823986934823552e-07</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.656486579848515e-12</v>
+        <v>4.908416713078623e-07</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.132311779061812e-11</v>
+        <v>2.17225519349995e-07</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.553325689242826e-11</v>
+        <v>4.799049406756239e-07</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.474678712476418e-11</v>
+        <v>1.215177462654538e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.19589095570749e-11</v>
+        <v>3.996938175987452e-07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.428358993582624e-11</v>
+        <v>1.829977236411651e-07</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.107532381777743e-11</v>
+        <v>1.032646537169057e-06</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.976107645573766e-12</v>
+        <v>4.303326761601056e-08</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.604939957657649e-11</v>
+        <v>3.224923261768708e-07</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.403548788973644e-11</v>
+        <v>9.818152193474816e-07</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.668202034843524e-11</v>
+        <v>2.434307475596142e-07</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.183269174453443e-11</v>
+        <v>6.126120410954172e-07</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.148878017337879e-11</v>
+        <v>1.089367515305639e-06</v>
       </c>
       <c r="AY7" t="n">
-        <v>6.636444171981282e-11</v>
+        <v>1.643691689423576e-06</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.681956211616267e-12</v>
+        <v>6.70111433009879e-07</v>
       </c>
       <c r="BA7" t="n">
-        <v>6.084159651781329e-12</v>
+        <v>1.306439571635565e-06</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.377942023319314e-11</v>
+        <v>6.087776682761614e-08</v>
       </c>
       <c r="BC7" t="n">
-        <v>3.808140261463144e-11</v>
+        <v>2.256608553352635e-07</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.819023230653638e-12</v>
+        <v>6.961524832149735e-07</v>
       </c>
       <c r="BE7" t="n">
-        <v>3.22802201635497e-12</v>
+        <v>5.84905478717701e-07</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.861719806095508e-11</v>
+        <v>1.876898920727399e-07</v>
       </c>
       <c r="BG7" t="n">
-        <v>6.387752739950292e-12</v>
+        <v>1.442013285668509e-06</v>
       </c>
       <c r="BH7" t="n">
-        <v>4.67462735187496e-11</v>
+        <v>1.46296088132658e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.995126980292028e-11</v>
+        <v>1.303513244010901e-07</v>
       </c>
       <c r="BJ7" t="n">
-        <v>4.308377873213365e-12</v>
+        <v>2.266817489271489e-07</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.601459958568141e-12</v>
+        <v>3.170227103055367e-07</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.96242579078676e-11</v>
+        <v>5.355090593184286e-08</v>
       </c>
       <c r="BM7" t="n">
-        <v>2.632781839762011e-11</v>
+        <v>9.181131304103474e-07</v>
       </c>
       <c r="BN7" t="n">
-        <v>4.606187653521943e-11</v>
+        <v>7.394076817490713e-08</v>
       </c>
       <c r="BO7" t="n">
-        <v>2.060413124838067e-11</v>
+        <v>1.300409593341101e-07</v>
       </c>
       <c r="BP7" t="n">
-        <v>8.918582886097148e-12</v>
+        <v>1.43652840733921e-08</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.913083316236076e-11</v>
+        <v>4.165446512160997e-07</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.088961039397152e-11</v>
+        <v>5.345102636056254e-07</v>
       </c>
       <c r="BS7" t="n">
-        <v>8.13294917523244e-12</v>
+        <v>2.717656286677084e-07</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.184061008963067e-11</v>
+        <v>1.126391907746438e-06</v>
       </c>
       <c r="BU7" t="n">
-        <v>2.241128636837342e-11</v>
+        <v>3.457429329500883e-07</v>
       </c>
       <c r="BV7" t="n">
-        <v>1.438839672407433e-11</v>
+        <v>1.630885861914066e-07</v>
       </c>
       <c r="BW7" t="n">
-        <v>7.825740055977803e-12</v>
+        <v>1.621054082079354e-07</v>
       </c>
       <c r="BX7" t="n">
-        <v>4.217144342066881e-11</v>
+        <v>1.297219114348991e-07</v>
       </c>
       <c r="BY7" t="n">
-        <v>2.492585998714603e-11</v>
+        <v>5.594256435870193e-07</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4.230465977528297e-11</v>
+        <v>4.357149521183601e-07</v>
       </c>
       <c r="CA7" t="n">
-        <v>5.752419482592253e-13</v>
+        <v>2.229534317166326e-07</v>
       </c>
       <c r="CB7" t="n">
-        <v>3.206347687356725e-11</v>
+        <v>5.516659484783304e-07</v>
       </c>
       <c r="CC7" t="n">
-        <v>3.808659290727157e-11</v>
+        <v>7.31560987787816e-07</v>
       </c>
       <c r="CD7" t="n">
-        <v>9.852207591420914e-12</v>
+        <v>1.348523710476002e-07</v>
       </c>
       <c r="CE7" t="n">
-        <v>9.896800393094374e-12</v>
+        <v>1.82144319182953e-07</v>
       </c>
       <c r="CF7" t="n">
-        <v>3.893486661549206e-12</v>
+        <v>1.431090979053806e-08</v>
       </c>
       <c r="CG7" t="n">
-        <v>4.94723879918002e-12</v>
+        <v>1.23982545119361e-07</v>
       </c>
       <c r="CH7" t="n">
-        <v>6.577136404950501e-12</v>
+        <v>6.352803438858245e-08</v>
       </c>
       <c r="CI7" t="n">
-        <v>1.081439538613838e-11</v>
+        <v>3.001186712481285e-07</v>
       </c>
       <c r="CJ7" t="n">
-        <v>5.935248386518266e-12</v>
+        <v>9.071430895346566e-08</v>
       </c>
       <c r="CK7" t="n">
-        <v>3.474513157655096e-13</v>
+        <v>1.357098966536796e-08</v>
       </c>
       <c r="CL7" t="n">
-        <v>6.091361139451412e-13</v>
+        <v>3.422288159526943e-07</v>
       </c>
       <c r="CM7" t="n">
-        <v>1.79125169558203e-11</v>
+        <v>1.519731824828341e-07</v>
       </c>
       <c r="CN7" t="n">
-        <v>2.425215930856872e-11</v>
+        <v>4.814716021428467e-07</v>
       </c>
       <c r="CO7" t="n">
-        <v>4.697998066960363e-12</v>
+        <v>3.644402113422984e-09</v>
       </c>
       <c r="CP7" t="n">
-        <v>7.242178211297468e-12</v>
+        <v>4.840729843635927e-07</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.564418213029217e-11</v>
+        <v>1.148469891631976e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>1.939892170510493e-11</v>
+        <v>1.177689227915835e-06</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.364644421769645e-11</v>
+        <v>5.854110440850491e-07</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.797851277574036e-11</v>
+        <v>3.112098170277022e-07</v>
       </c>
       <c r="CU7" t="n">
-        <v>2.117355769881701e-11</v>
+        <v>1.42777582823328e-06</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.143463448927129e-11</v>
+        <v>9.190529226543731e-08</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.27033262381504e-11</v>
+        <v>3.749709165390414e-08</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.584354605317252e-12</v>
+        <v>1.040154700149287e-07</v>
       </c>
       <c r="CY7" t="n">
-        <v>6.714661378998121e-12</v>
+        <v>9.810803192067397e-08</v>
       </c>
       <c r="CZ7" t="n">
-        <v>8.968852136664873e-13</v>
+        <v>3.816505511622381e-08</v>
       </c>
       <c r="DA7" t="n">
-        <v>9.633370490202964e-12</v>
+        <v>1.090946426529626e-07</v>
       </c>
       <c r="DB7" t="n">
-        <v>3.471204226834779e-12</v>
+        <v>5.895057597626874e-08</v>
       </c>
       <c r="DC7" t="n">
-        <v>4.3277872605052e-12</v>
+        <v>2.291852041480524e-08</v>
       </c>
       <c r="DD7" t="n">
-        <v>2.216882276709353e-13</v>
+        <v>2.664413614184014e-07</v>
       </c>
       <c r="DE7" t="n">
-        <v>2.305253904433258e-11</v>
+        <v>1.77700854919749e-07</v>
       </c>
       <c r="DF7" t="n">
-        <v>2.879594479532344e-11</v>
+        <v>2.595332375676662e-07</v>
       </c>
       <c r="DG7" t="n">
-        <v>3.899380818239706e-13</v>
+        <v>1.607710942153062e-08</v>
       </c>
       <c r="DH7" t="n">
-        <v>3.493780958985226e-11</v>
+        <v>2.745986193986028e-07</v>
       </c>
       <c r="DI7" t="n">
-        <v>4.130734643226219e-11</v>
+        <v>1.923242507473333e-07</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.642949921416449e-11</v>
+        <v>9.192772267851979e-07</v>
       </c>
       <c r="DK7" t="n">
-        <v>4.003516702183463e-12</v>
+        <v>3.932771619474806e-07</v>
       </c>
       <c r="DL7" t="n">
-        <v>2.830273515552761e-11</v>
+        <v>8.079037456809601e-07</v>
       </c>
       <c r="DM7" t="n">
-        <v>2.081215408344939e-11</v>
+        <v>2.442567392790806e-08</v>
       </c>
       <c r="DN7" t="n">
-        <v>9.218893877449563e-12</v>
+        <v>2.117245543331592e-07</v>
       </c>
       <c r="DO7" t="n">
-        <v>2.107502367065806e-11</v>
+        <v>4.06094898153242e-07</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.464558856134612e-11</v>
+        <v>7.684550382691668e-07</v>
       </c>
       <c r="DQ7" t="n">
-        <v>2.289799426458128e-12</v>
+        <v>1.530913777969545e-07</v>
       </c>
       <c r="DR7" t="n">
-        <v>5.276289474775986e-11</v>
+        <v>1.196156404148496e-06</v>
       </c>
       <c r="DS7" t="n">
-        <v>4.856457250235202e-11</v>
+        <v>7.137267630241695e-07</v>
       </c>
       <c r="DT7" t="n">
-        <v>5.288388650603881e-12</v>
+        <v>1.28312194647151e-07</v>
       </c>
       <c r="DU7" t="n">
-        <v>8.348890155607247e-12</v>
+        <v>5.230309625403606e-07</v>
       </c>
       <c r="DV7" t="n">
-        <v>8.615780831833231e-12</v>
+        <v>3.388177276519855e-07</v>
       </c>
       <c r="DW7" t="n">
-        <v>5.331911561573532e-12</v>
+        <v>4.122822190311126e-07</v>
       </c>
       <c r="DX7" t="n">
-        <v>7.977274223136543e-12</v>
+        <v>2.134615044724342e-07</v>
       </c>
       <c r="DY7" t="n">
-        <v>2.450756785010721e-11</v>
+        <v>3.142492630558991e-07</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2.936131893171989e-11</v>
+        <v>2.151485887225135e-07</v>
       </c>
       <c r="EA7" t="n">
-        <v>5.634661140452302e-12</v>
+        <v>5.278207595438289e-07</v>
       </c>
       <c r="EB7" t="n">
-        <v>1.882991852719673e-11</v>
+        <v>6.168037316456321e-07</v>
       </c>
       <c r="EC7" t="n">
-        <v>1.497192452480645e-12</v>
+        <v>1.217273108977679e-07</v>
       </c>
       <c r="ED7" t="n">
-        <v>6.295249477955567e-12</v>
+        <v>3.549470193320303e-07</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.701311834467756e-12</v>
+        <v>5.085341285848699e-07</v>
       </c>
       <c r="EF7" t="n">
-        <v>1.487502655772577e-11</v>
+        <v>1.935508180395118e-07</v>
       </c>
       <c r="EG7" t="n">
-        <v>9.68640315526792e-13</v>
+        <v>1.496850217108658e-07</v>
       </c>
       <c r="EH7" t="n">
-        <v>4.120976129784459e-12</v>
+        <v>2.830265088960005e-08</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.025057295989118e-11</v>
+        <v>9.433619538867788e-07</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.665824249375003e-11</v>
+        <v>1.010700287906729e-07</v>
       </c>
       <c r="EK7" t="n">
-        <v>2.33751368955426e-11</v>
+        <v>1.93755340660573e-08</v>
       </c>
       <c r="EL7" t="n">
-        <v>2.079265752630288e-11</v>
+        <v>3.877925678352767e-07</v>
       </c>
       <c r="EM7" t="n">
-        <v>1.067969671031399e-11</v>
+        <v>1.185013331905793e-07</v>
       </c>
       <c r="EN7" t="n">
-        <v>2.429903847578352e-11</v>
+        <v>2.035567945313232e-07</v>
       </c>
       <c r="EO7" t="n">
-        <v>1.49958535172745e-11</v>
+        <v>3.926880935978261e-07</v>
       </c>
       <c r="EP7" t="n">
-        <v>3.956809879746004e-11</v>
+        <v>7.491494784517272e-07</v>
       </c>
       <c r="EQ7" t="n">
-        <v>2.556955949056805e-12</v>
+        <v>3.877367475979554e-07</v>
       </c>
       <c r="ER7" t="n">
-        <v>6.419397131918192e-12</v>
+        <v>1.383847916258674e-07</v>
       </c>
       <c r="ES7" t="n">
-        <v>3.057500086445231e-11</v>
+        <v>4.381360270144796e-07</v>
       </c>
       <c r="ET7" t="n">
-        <v>2.187706613088203e-11</v>
+        <v>5.748566422880685e-07</v>
       </c>
       <c r="EU7" t="n">
-        <v>8.981636615001953e-12</v>
+        <v>8.391289441078698e-08</v>
       </c>
       <c r="EV7" t="n">
-        <v>3.086163269383491e-11</v>
+        <v>5.545656449612579e-07</v>
       </c>
       <c r="EW7" t="n">
-        <v>3.567317014702143e-12</v>
+        <v>3.255712499594665e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>8.406782214809283e-12</v>
+        <v>1.758995153977594e-07</v>
       </c>
       <c r="EY7" t="n">
-        <v>1.347171072613174e-11</v>
+        <v>8.995838385317256e-08</v>
       </c>
       <c r="EZ7" t="n">
-        <v>1.424184555010033e-12</v>
+        <v>1.066688426476503e-07</v>
       </c>
       <c r="FA7" t="n">
-        <v>4.455455969443189e-12</v>
+        <v>1.078462190662322e-07</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.583958658679663e-13</v>
+        <v>1.233799729050133e-08</v>
       </c>
       <c r="FC7" t="n">
-        <v>6.575078155546255e-12</v>
+        <v>3.625136173468491e-07</v>
       </c>
       <c r="FD7" t="n">
-        <v>3.684147605043098e-12</v>
+        <v>4.332574121690413e-08</v>
       </c>
       <c r="FE7" t="n">
-        <v>2.061479025677881e-12</v>
+        <v>7.60230989271804e-08</v>
       </c>
       <c r="FF7" t="n">
-        <v>5.595760400184391e-12</v>
+        <v>1.969781635580148e-07</v>
       </c>
       <c r="FG7" t="n">
-        <v>2.486507007237737e-11</v>
+        <v>1.832780469612771e-07</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.191609484696432e-11</v>
+        <v>6.377255772349599e-07</v>
       </c>
       <c r="FI7" t="n">
-        <v>2.042091322429496e-12</v>
+        <v>3.514278148486483e-07</v>
       </c>
       <c r="FJ7" t="n">
-        <v>3.396275448375174e-12</v>
+        <v>2.171910011838918e-07</v>
       </c>
       <c r="FK7" t="n">
-        <v>3.592618823961002e-12</v>
+        <v>8.299456339955213e-07</v>
       </c>
       <c r="FL7" t="n">
-        <v>3.74696107474648e-12</v>
+        <v>2.126733420482196e-07</v>
       </c>
       <c r="FM7" t="n">
-        <v>5.431201061806279e-12</v>
+        <v>6.323516998918421e-08</v>
       </c>
       <c r="FN7" t="n">
-        <v>3.232536460728852e-11</v>
+        <v>3.460465904936427e-07</v>
       </c>
       <c r="FO7" t="n">
-        <v>1.150334081462256e-11</v>
+        <v>1.873548995945384e-07</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.317953472051991e-11</v>
+        <v>4.484599003262701e-07</v>
       </c>
       <c r="FQ7" t="n">
-        <v>9.957278924999091e-12</v>
+        <v>1.550883013123894e-07</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.597377785600429e-11</v>
+        <v>4.386071168482886e-07</v>
       </c>
       <c r="FS7" t="n">
-        <v>8.572139525986344e-12</v>
+        <v>3.342823333696288e-07</v>
       </c>
       <c r="FT7" t="n">
-        <v>4.117958057880955e-11</v>
+        <v>6.171304107738251e-07</v>
       </c>
       <c r="FU7" t="n">
-        <v>4.004418671654797e-11</v>
+        <v>7.0270476726364e-07</v>
       </c>
       <c r="FV7" t="n">
-        <v>1.068943197846117e-11</v>
+        <v>6.028419647918781e-07</v>
       </c>
       <c r="FW7" t="n">
-        <v>9.620835378365555e-12</v>
+        <v>3.792548852743494e-07</v>
       </c>
       <c r="FX7" t="n">
-        <v>3.072603369652649e-12</v>
+        <v>4.497812255976896e-08</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.403450706344289e-12</v>
+        <v>5.49816945749626e-07</v>
       </c>
       <c r="FZ7" t="n">
-        <v>7.037444411939209e-12</v>
+        <v>6.493682462860306e-07</v>
       </c>
       <c r="GA7" t="n">
-        <v>1.301391720082146e-11</v>
+        <v>7.032672328932676e-07</v>
       </c>
       <c r="GB7" t="n">
-        <v>1.638236248047154e-11</v>
+        <v>2.039448077084671e-08</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.041365951803819e-11</v>
+        <v>7.222834597087058e-08</v>
       </c>
       <c r="GD7" t="n">
-        <v>1.091952049614431e-13</v>
+        <v>2.895441184591618e-07</v>
       </c>
       <c r="GE7" t="n">
-        <v>4.833184200081497e-12</v>
+        <v>1.44373370858375e-06</v>
       </c>
       <c r="GF7" t="n">
-        <v>6.920517110764468e-12</v>
+        <v>9.018857554110582e-07</v>
       </c>
       <c r="GG7" t="n">
-        <v>1.820508587629943e-12</v>
+        <v>1.237230549122614e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.586809467989951e-05</v>
+        <v>8.046745278988965e-06</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0003341838892083615</v>
+        <v>3.559796459740028e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>2.179470538976602e-05</v>
+        <v>2.774772156044492e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0007768860668875277</v>
+        <v>1.843367317633238e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001112195386667736</v>
+        <v>4.840079327550484e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000328719470417127</v>
+        <v>1.133055957325269e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>1.908358899527229e-05</v>
+        <v>7.402339861073415e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>5.38660169695504e-05</v>
+        <v>3.914803073712392e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002382262755418196</v>
+        <v>3.830296918749809e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001314845576416701</v>
+        <v>9.721334208734334e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003959905880037695</v>
+        <v>2.206859244324733e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001024904486257583</v>
+        <v>8.811416023490892e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0005342137883417308</v>
+        <v>2.101296740875114e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0001785337226465344</v>
+        <v>1.138713378168177e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001386600633850321</v>
+        <v>1.673896804277319e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>1.63677195814671e-05</v>
+        <v>6.125987965788227e-07</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0002741439966484904</v>
+        <v>7.145463314373046e-07</v>
       </c>
       <c r="R8" t="n">
-        <v>0.000238923224969767</v>
+        <v>5.539928679354489e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>1.669924677116796e-05</v>
+        <v>2.673747303560958e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>9.182412031805143e-05</v>
+        <v>3.682361011669855e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>7.356411515502259e-05</v>
+        <v>4.348089532868471e-07</v>
       </c>
       <c r="V8" t="n">
-        <v>6.39616628177464e-05</v>
+        <v>5.05848265675013e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0005008043954148889</v>
+        <v>3.15333500111592e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>8.718274330021814e-05</v>
+        <v>3.976581865572371e-06</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.62629359390121e-05</v>
+        <v>4.249530320521444e-06</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.734546099731233e-06</v>
+        <v>1.103743670682888e-06</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.158230462460779e-06</v>
+        <v>2.761099949566415e-06</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0002086437016259879</v>
+        <v>1.134156264015473e-06</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.59849979961291e-05</v>
+        <v>4.146303581364919e-06</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.405401942785829e-05</v>
+        <v>1.391328282807081e-06</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0001931953156599775</v>
+        <v>2.059088046735269e-06</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.17310288362205e-05</v>
+        <v>5.002565558243077e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0001220441481564194</v>
+        <v>3.683655904751504e-06</v>
       </c>
       <c r="AH8" t="n">
-        <v>4.023322253488004e-05</v>
+        <v>2.927565674326615e-07</v>
       </c>
       <c r="AI8" t="n">
-        <v>7.877299503888935e-05</v>
+        <v>1.376483510284743e-06</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.18022817838937e-05</v>
+        <v>4.265888833288045e-07</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0001844330399762839</v>
+        <v>2.051814817605191e-06</v>
       </c>
       <c r="AL8" t="n">
-        <v>3.457096681813709e-05</v>
+        <v>3.046632627956569e-06</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.142883749911562e-05</v>
+        <v>3.22530041785285e-07</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0001715009711915627</v>
+        <v>7.192292059698957e-07</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.328991392161697e-05</v>
+        <v>4.823111794394208e-06</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0001852849673014134</v>
+        <v>3.922423275071196e-06</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.233757524867542e-05</v>
+        <v>1.383038807034609e-06</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.653202616580529e-06</v>
+        <v>2.266605179102044e-07</v>
       </c>
       <c r="AS8" t="n">
-        <v>7.757460116408765e-05</v>
+        <v>2.209982312706416e-06</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0001139094893005677</v>
+        <v>9.482158134233032e-07</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0002027637819992378</v>
+        <v>2.331069117644802e-05</v>
       </c>
       <c r="AV8" t="n">
-        <v>6.567552190972492e-06</v>
+        <v>1.165337948805245e-06</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0002910748880822212</v>
+        <v>3.490129529382102e-06</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.457903974573128e-05</v>
+        <v>1.280974970541138e-06</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0001546479325043038</v>
+        <v>1.094820163416443e-06</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.756491474225186e-05</v>
+        <v>5.72283079236513e-06</v>
       </c>
       <c r="BA8" t="n">
-        <v>4.279012864571996e-05</v>
+        <v>2.903299673562287e-06</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0001377122825942934</v>
+        <v>1.164227114713867e-06</v>
       </c>
       <c r="BC8" t="n">
-        <v>8.553943189326674e-05</v>
+        <v>4.530363639787538e-06</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0001414205034961924</v>
+        <v>7.50110075387056e-06</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.000118075986392796</v>
+        <v>5.740613232774194e-06</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.000312615797156468</v>
+        <v>4.732501565740677e-06</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0001114488550228998</v>
+        <v>7.559529421996558e-06</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0001066903059836477</v>
+        <v>7.029869721009163e-06</v>
       </c>
       <c r="BI8" t="n">
-        <v>8.091575000435114e-05</v>
+        <v>3.569512728063273e-06</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.582926597620826e-05</v>
+        <v>6.91718469170155e-08</v>
       </c>
       <c r="BK8" t="n">
-        <v>9.883191523840651e-05</v>
+        <v>5.158301974006463e-06</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0001261350407730788</v>
+        <v>2.785484412015649e-06</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0001237768738064915</v>
+        <v>3.852576810459141e-06</v>
       </c>
       <c r="BN8" t="n">
-        <v>2.133058296749368e-05</v>
+        <v>1.690246449470578e-06</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0001506671687820926</v>
+        <v>1.068596247932874e-06</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0001009369007078931</v>
+        <v>3.621124051278457e-06</v>
       </c>
       <c r="BQ8" t="n">
-        <v>3.973614366259426e-05</v>
+        <v>2.728933850448811e-06</v>
       </c>
       <c r="BR8" t="n">
-        <v>7.530702714575455e-05</v>
+        <v>2.550083081587218e-06</v>
       </c>
       <c r="BS8" t="n">
-        <v>7.473925506928936e-05</v>
+        <v>8.629967851447873e-09</v>
       </c>
       <c r="BT8" t="n">
-        <v>9.907394996844232e-05</v>
+        <v>1.823418870117166e-06</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.0002041710686171427</v>
+        <v>7.227185960800853e-07</v>
       </c>
       <c r="BV8" t="n">
-        <v>4.781235838891007e-05</v>
+        <v>1.157839778898051e-05</v>
       </c>
       <c r="BW8" t="n">
-        <v>7.589356391690671e-05</v>
+        <v>1.726764594423003e-06</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0003827655455097556</v>
+        <v>5.107870947540505e-06</v>
       </c>
       <c r="BY8" t="n">
-        <v>3.459555955487303e-06</v>
+        <v>3.134578719254932e-06</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0001349263620795682</v>
+        <v>5.462886747409357e-06</v>
       </c>
       <c r="CA8" t="n">
-        <v>1.124974005506374e-06</v>
+        <v>1.088031467588735e-06</v>
       </c>
       <c r="CB8" t="n">
-        <v>7.561414531664923e-05</v>
+        <v>1.265339960809797e-06</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.00023301960027311</v>
+        <v>2.648305780894589e-06</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0002141407458111644</v>
+        <v>2.340012088097865e-06</v>
       </c>
       <c r="CE8" t="n">
-        <v>8.083957800408825e-05</v>
+        <v>5.514675649465062e-06</v>
       </c>
       <c r="CF8" t="n">
-        <v>2.567937917774543e-05</v>
+        <v>2.031824578807573e-06</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0001639167894609272</v>
+        <v>1.495190872446983e-06</v>
       </c>
       <c r="CH8" t="n">
-        <v>5.133801823831163e-05</v>
+        <v>9.482207588007441e-07</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0001118441141443327</v>
+        <v>2.791675797197968e-06</v>
       </c>
       <c r="CJ8" t="n">
-        <v>2.955172385554761e-05</v>
+        <v>8.203325023714569e-07</v>
       </c>
       <c r="CK8" t="n">
-        <v>2.014216261159163e-05</v>
+        <v>2.116013320119237e-07</v>
       </c>
       <c r="CL8" t="n">
-        <v>5.106210210215067e-06</v>
+        <v>3.495888449833728e-07</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.000120761658763513</v>
+        <v>1.70170744695497e-06</v>
       </c>
       <c r="CN8" t="n">
-        <v>9.836262324824929e-05</v>
+        <v>7.393162491098337e-07</v>
       </c>
       <c r="CO8" t="n">
-        <v>9.511734242551029e-05</v>
+        <v>2.448914528940804e-06</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0002785834949463606</v>
+        <v>4.06720619139378e-06</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0001363004266750067</v>
+        <v>1.176437081085169e-06</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0002585263282526284</v>
+        <v>5.117785349284532e-06</v>
       </c>
       <c r="CS8" t="n">
-        <v>5.465486901812255e-05</v>
+        <v>3.823036877292907e-06</v>
       </c>
       <c r="CT8" t="n">
-        <v>5.995985702611506e-06</v>
+        <v>7.979697329574265e-06</v>
       </c>
       <c r="CU8" t="n">
-        <v>5.491949923452921e-05</v>
+        <v>1.048203216669208e-06</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0002129550412064418</v>
+        <v>1.931106226038537e-06</v>
       </c>
       <c r="CW8" t="n">
-        <v>9.745829447638243e-05</v>
+        <v>4.093068582733395e-06</v>
       </c>
       <c r="CX8" t="n">
-        <v>1.371421876683598e-05</v>
+        <v>1.843041331994755e-06</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0001597613882040605</v>
+        <v>2.549290229580947e-06</v>
       </c>
       <c r="CZ8" t="n">
-        <v>5.150499418959953e-05</v>
+        <v>5.031562295698677e-07</v>
       </c>
       <c r="DA8" t="n">
-        <v>8.817037451080978e-05</v>
+        <v>2.827570369845489e-06</v>
       </c>
       <c r="DB8" t="n">
-        <v>8.463995072816033e-06</v>
+        <v>1.168072344626125e-06</v>
       </c>
       <c r="DC8" t="n">
-        <v>1.758096186676994e-05</v>
+        <v>7.796694490025402e-07</v>
       </c>
       <c r="DD8" t="n">
-        <v>1.721675289445557e-06</v>
+        <v>1.19812170851219e-07</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0003062771575059742</v>
+        <v>2.215557969975634e-06</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.000197861241758801</v>
+        <v>6.881063200125936e-06</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.000217695880564861</v>
+        <v>1.208442313327396e-06</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0001296512637054548</v>
+        <v>7.436100531776901e-06</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.000240198933170177</v>
+        <v>3.83173892259947e-06</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0001942033995874226</v>
+        <v>1.865076683316147e-06</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0001673370425123721</v>
+        <v>1.55086127051618e-06</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0003137744497507811</v>
+        <v>6.362763542711036e-07</v>
       </c>
       <c r="DM8" t="n">
-        <v>2.346385372220539e-05</v>
+        <v>5.589752163359663e-07</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0001314475084654987</v>
+        <v>4.658759280573577e-06</v>
       </c>
       <c r="DO8" t="n">
-        <v>5.259940371615812e-05</v>
+        <v>3.032672339031706e-06</v>
       </c>
       <c r="DP8" t="n">
-        <v>7.554847979918122e-05</v>
+        <v>2.640734010128654e-06</v>
       </c>
       <c r="DQ8" t="n">
-        <v>2.137091905751731e-05</v>
+        <v>4.2359133658465e-06</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0002026843576459214</v>
+        <v>1.985921244340716e-06</v>
       </c>
       <c r="DS8" t="n">
-        <v>3.449721043580212e-05</v>
+        <v>4.086436092620715e-06</v>
       </c>
       <c r="DT8" t="n">
-        <v>9.017834963742644e-05</v>
+        <v>1.388948930980405e-06</v>
       </c>
       <c r="DU8" t="n">
-        <v>5.415833220467903e-05</v>
+        <v>7.217869324449566e-08</v>
       </c>
       <c r="DV8" t="n">
-        <v>7.57469460950233e-05</v>
+        <v>1.737294496706454e-06</v>
       </c>
       <c r="DW8" t="n">
-        <v>1.213952145917574e-05</v>
+        <v>1.631255031497858e-06</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.000118499192467425</v>
+        <v>4.128318096263683e-07</v>
       </c>
       <c r="DY8" t="n">
-        <v>1.759641963872127e-05</v>
+        <v>4.127622560190503e-06</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.000117230236355681</v>
+        <v>3.240219484723639e-06</v>
       </c>
       <c r="EA8" t="n">
-        <v>8.35657847346738e-05</v>
+        <v>2.754735305643408e-06</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0002044800785370171</v>
+        <v>1.090810997084191e-06</v>
       </c>
       <c r="EC8" t="n">
-        <v>9.784124813450035e-06</v>
+        <v>9.580439552792086e-08</v>
       </c>
       <c r="ED8" t="n">
-        <v>2.991718247358222e-05</v>
+        <v>1.876951728263521e-06</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0001070161451934837</v>
+        <v>6.70690099013882e-07</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0002021337422775105</v>
+        <v>2.678561941138469e-07</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.0001154783967649564</v>
+        <v>2.680126954146544e-06</v>
       </c>
       <c r="EH8" t="n">
-        <v>4.792836989508942e-06</v>
+        <v>8.307100074489426e-08</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0002636435674503446</v>
+        <v>6.733647524015396e-07</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0002101737482007593</v>
+        <v>1.329226279267459e-06</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0001781863247742876</v>
+        <v>2.488808604539372e-06</v>
       </c>
       <c r="EL8" t="n">
-        <v>6.053809920558706e-05</v>
+        <v>2.540083187341224e-06</v>
       </c>
       <c r="EM8" t="n">
-        <v>9.265127300750464e-05</v>
+        <v>1.867514129116898e-06</v>
       </c>
       <c r="EN8" t="n">
-        <v>3.946659126086161e-05</v>
+        <v>9.331098453913e-07</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0001716807892080396</v>
+        <v>2.499397851352114e-06</v>
       </c>
       <c r="EP8" t="n">
-        <v>3.274317350587808e-05</v>
+        <v>3.899647708749399e-06</v>
       </c>
       <c r="EQ8" t="n">
-        <v>6.116897566244006e-06</v>
+        <v>3.063420308535569e-07</v>
       </c>
       <c r="ER8" t="n">
-        <v>9.675811452325433e-05</v>
+        <v>3.386548996786587e-06</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.000111994449980557</v>
+        <v>2.97892847811454e-06</v>
       </c>
       <c r="ET8" t="n">
-        <v>9.375059744343162e-05</v>
+        <v>1.219104251504177e-05</v>
       </c>
       <c r="EU8" t="n">
-        <v>4.992277172277682e-05</v>
+        <v>4.41200245404616e-06</v>
       </c>
       <c r="EV8" t="n">
-        <v>3.504798951325938e-05</v>
+        <v>1.786479515430983e-06</v>
       </c>
       <c r="EW8" t="n">
-        <v>5.731261262553744e-05</v>
+        <v>8.144070307025686e-09</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0001845296064857394</v>
+        <v>1.555431481392588e-06</v>
       </c>
       <c r="EY8" t="n">
-        <v>7.640912372153252e-05</v>
+        <v>4.572208581521409e-06</v>
       </c>
       <c r="EZ8" t="n">
-        <v>1.345982582279248e-05</v>
+        <v>6.360373845382128e-07</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.000126974395243451</v>
+        <v>2.268848220410291e-06</v>
       </c>
       <c r="FB8" t="n">
-        <v>7.520415238104761e-05</v>
+        <v>6.022140723871416e-07</v>
       </c>
       <c r="FC8" t="n">
-        <v>9.416120155947283e-05</v>
+        <v>4.013588295492809e-06</v>
       </c>
       <c r="FD8" t="n">
-        <v>2.019705425482243e-05</v>
+        <v>1.836609499150654e-06</v>
       </c>
       <c r="FE8" t="n">
-        <v>6.354938705044333e-06</v>
+        <v>2.526421667425893e-07</v>
       </c>
       <c r="FF8" t="n">
-        <v>3.213619493180886e-05</v>
+        <v>6.152162086436874e-07</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0001236878742929548</v>
+        <v>1.31516947021737e-06</v>
       </c>
       <c r="FH8" t="n">
-        <v>2.791355655062944e-05</v>
+        <v>1.315265421908407e-06</v>
       </c>
       <c r="FI8" t="n">
-        <v>6.491789827123284e-05</v>
+        <v>5.530778253159951e-07</v>
       </c>
       <c r="FJ8" t="n">
-        <v>5.868179869139567e-05</v>
+        <v>2.002027713388088e-06</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.0001371301914332435</v>
+        <v>8.269925046988646e-07</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0002945957239717245</v>
+        <v>1.043876522999199e-06</v>
       </c>
       <c r="FM8" t="n">
-        <v>5.29587414348498e-05</v>
+        <v>2.485139248165069e-06</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0001060972208506428</v>
+        <v>2.271302719236701e-07</v>
       </c>
       <c r="FO8" t="n">
-        <v>3.374574953340925e-05</v>
+        <v>1.574996758790803e-06</v>
       </c>
       <c r="FP8" t="n">
-        <v>3.816379103227518e-05</v>
+        <v>2.249606723125908e-08</v>
       </c>
       <c r="FQ8" t="n">
-        <v>3.094949352089316e-05</v>
+        <v>4.704762886831304e-06</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0002061286650132388</v>
+        <v>4.076122195328935e-07</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.000168235128512606</v>
+        <v>2.521421947676572e-06</v>
       </c>
       <c r="FT8" t="n">
-        <v>9.901585872285068e-05</v>
+        <v>6.500878043880221e-06</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0001751287345541641</v>
+        <v>2.527275910324533e-06</v>
       </c>
       <c r="FV8" t="n">
-        <v>1.476799934607698e-05</v>
+        <v>2.515839923944441e-06</v>
       </c>
       <c r="FW8" t="n">
-        <v>1.23654717754107e-06</v>
+        <v>1.403686383127933e-06</v>
       </c>
       <c r="FX8" t="n">
-        <v>9.750085155246779e-05</v>
+        <v>2.977980329887941e-06</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0002129707427229732</v>
+        <v>3.034724841199932e-06</v>
       </c>
       <c r="FZ8" t="n">
-        <v>3.753396595129743e-05</v>
+        <v>2.18178320210427e-06</v>
       </c>
       <c r="GA8" t="n">
-        <v>1.186197914648801e-05</v>
+        <v>1.693715603323653e-07</v>
       </c>
       <c r="GB8" t="n">
-        <v>5.90980562265031e-06</v>
+        <v>1.95672123481927e-06</v>
       </c>
       <c r="GC8" t="n">
-        <v>5.304202204570174e-05</v>
+        <v>2.487720848876052e-06</v>
       </c>
       <c r="GD8" t="n">
-        <v>9.818899343372323e-06</v>
+        <v>3.12850625050487e-06</v>
       </c>
       <c r="GE8" t="n">
-        <v>5.623373363050632e-05</v>
+        <v>5.336494723451324e-06</v>
       </c>
       <c r="GF8" t="n">
-        <v>4.030308991787024e-05</v>
+        <v>1.532459691588883e-06</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0001345011114608496</v>
+        <v>4.657825911635882e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.080257220564818e-06</v>
+        <v>0.0003403050941415131</v>
       </c>
       <c r="B9" t="n">
-        <v>1.733553835947532e-05</v>
+        <v>0.001885386998765171</v>
       </c>
       <c r="C9" t="n">
-        <v>1.032150294122403e-06</v>
+        <v>3.781990380957723e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>3.031211235793307e-05</v>
+        <v>0.001506710657849908</v>
       </c>
       <c r="E9" t="n">
-        <v>3.278799795225495e-06</v>
+        <v>0.0003848642809316516</v>
       </c>
       <c r="F9" t="n">
-        <v>4.34971025242703e-06</v>
+        <v>0.001921448041684926</v>
       </c>
       <c r="G9" t="n">
-        <v>3.353202373546083e-06</v>
+        <v>0.000617417914327234</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0776226392627e-06</v>
+        <v>0.0002999726566486061</v>
       </c>
       <c r="I9" t="n">
-        <v>4.835254458157578e-06</v>
+        <v>0.001092658727429807</v>
       </c>
       <c r="J9" t="n">
-        <v>7.643126082257368e-06</v>
+        <v>0.0005724237998947501</v>
       </c>
       <c r="K9" t="n">
-        <v>1.490105387347285e-05</v>
+        <v>0.0009520540479570627</v>
       </c>
       <c r="L9" t="n">
-        <v>6.081160108806216e-07</v>
+        <v>0.0001176024743472226</v>
       </c>
       <c r="M9" t="n">
-        <v>2.306313399458304e-05</v>
+        <v>0.00191292236559093</v>
       </c>
       <c r="N9" t="n">
-        <v>1.921304829011206e-06</v>
+        <v>0.0009245725814253092</v>
       </c>
       <c r="O9" t="n">
-        <v>1.074778901966056e-05</v>
+        <v>0.002368380082771182</v>
       </c>
       <c r="P9" t="n">
-        <v>6.516881967399968e-06</v>
+        <v>0.0006750879110768437</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.828693598326936e-06</v>
+        <v>6.45105610601604e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>7.706993528699968e-06</v>
+        <v>0.0005836784839630127</v>
       </c>
       <c r="S9" t="n">
-        <v>3.010027285199612e-07</v>
+        <v>0.0002381287922617048</v>
       </c>
       <c r="T9" t="n">
-        <v>3.588445451896405e-06</v>
+        <v>0.000471544306492433</v>
       </c>
       <c r="U9" t="n">
-        <v>5.811216396978125e-09</v>
+        <v>0.0003731734468601644</v>
       </c>
       <c r="V9" t="n">
-        <v>5.421784408099484e-06</v>
+        <v>9.488288196735084e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>8.341270586242899e-06</v>
+        <v>1.680845343798865e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>3.098233037235332e-06</v>
+        <v>0.0001925076066982001</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.900195669208188e-06</v>
+        <v>0.0002901561965700239</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.532639544166159e-06</v>
+        <v>0.0001551762397866696</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.055588427334442e-06</v>
+        <v>7.942664524307474e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.931035735149635e-06</v>
+        <v>0.0001830596011132002</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.931568476720713e-06</v>
+        <v>0.0008561419090256095</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.73413933327538e-06</v>
+        <v>0.0003227863053325564</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.467006409773603e-06</v>
+        <v>0.0007512578740715981</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.734779501333833e-06</v>
+        <v>0.00110023352317512</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.821699584070302e-06</v>
+        <v>0.0003564113867469132</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.910702162102098e-07</v>
+        <v>0.0001116837811423466</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.200601440767059e-06</v>
+        <v>3.717051004059613e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.929468637257742e-08</v>
+        <v>0.0001461541978642344</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.801326551591046e-06</v>
+        <v>0.000113470436190255</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.19849118568527e-06</v>
+        <v>0.0004200726107228547</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.133752895540965e-07</v>
+        <v>0.0001445641828468069</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.348575086827623e-06</v>
+        <v>0.0002589579380583018</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.338212427981489e-06</v>
+        <v>3.892323729814962e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.787738705796073e-06</v>
+        <v>0.0001587562292115763</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.29328134082607e-06</v>
+        <v>0.0002747491525951773</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.586358277767431e-06</v>
+        <v>0.0003987367963418365</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.162539539720456e-07</v>
+        <v>0.0002471460320521146</v>
       </c>
       <c r="AT9" t="n">
-        <v>9.550066351948772e-06</v>
+        <v>0.0005347876576706767</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.582931872690096e-05</v>
+        <v>0.0014150949427858</v>
       </c>
       <c r="AV9" t="n">
-        <v>6.496267360489583e-06</v>
+        <v>0.0001644075382500887</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.278863328479929e-05</v>
+        <v>0.0006680744700133801</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.349324846472882e-07</v>
+        <v>0.0002891898038797081</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.93520087224897e-06</v>
+        <v>0.001031802617944777</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2.263650458189659e-06</v>
+        <v>0.0007684134179726243</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.011623908198089e-06</v>
+        <v>0.0003038614231627434</v>
       </c>
       <c r="BB9" t="n">
-        <v>3.620036181928299e-07</v>
+        <v>0.0009064939222298563</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.788004621834261e-06</v>
+        <v>0.0004171372856944799</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.580939846870024e-06</v>
+        <v>0.0004569037701003253</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.958820459753042e-07</v>
+        <v>0.0003361979324836284</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.172754673461895e-05</v>
+        <v>0.0004477423499338329</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.231732085216208e-07</v>
+        <v>0.001146671012975276</v>
       </c>
       <c r="BH9" t="n">
-        <v>7.992315659066662e-06</v>
+        <v>0.0006558887544088066</v>
       </c>
       <c r="BI9" t="n">
-        <v>7.547987479483709e-06</v>
+        <v>0.0002848323783837259</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.738885541475611e-06</v>
+        <v>0.0003523411287460476</v>
       </c>
       <c r="BK9" t="n">
-        <v>4.611817985278321e-07</v>
+        <v>0.0002340550563530996</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.766723926266422e-06</v>
+        <v>0.0002369523281231523</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.019385672407225e-05</v>
+        <v>5.494127253768966e-05</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.222389809958258e-07</v>
+        <v>0.0001203869178425521</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.027429220812337e-06</v>
+        <v>0.0002229836100013927</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.965830961125903e-06</v>
+        <v>0.0001677718391874805</v>
       </c>
       <c r="BQ9" t="n">
-        <v>8.616850095677364e-07</v>
+        <v>0.0001650210178922862</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.487794063199544e-06</v>
+        <v>0.0008350933203473687</v>
       </c>
       <c r="BS9" t="n">
-        <v>4.291666755307233e-06</v>
+        <v>0.0002383514074608684</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.03619015590084e-06</v>
+        <v>0.0004818371380679309</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.188050868629944e-06</v>
+        <v>0.0002522882132325321</v>
       </c>
       <c r="BV9" t="n">
-        <v>5.931581199547509e-07</v>
+        <v>0.0006265246192924678</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.506330818301649e-06</v>
+        <v>0.0003568860120140016</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.026531572279055e-05</v>
+        <v>0.0003319057868793607</v>
       </c>
       <c r="BY9" t="n">
-        <v>2.023625256697414e-06</v>
+        <v>0.0005907734157517552</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.612638698134106e-06</v>
+        <v>0.0004271622165106237</v>
       </c>
       <c r="CA9" t="n">
-        <v>4.851392077398486e-06</v>
+        <v>0.0001448244147468358</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.797292436047428e-07</v>
+        <v>7.661017298232764e-05</v>
       </c>
       <c r="CC9" t="n">
-        <v>3.420185748836957e-06</v>
+        <v>0.0004108841239940375</v>
       </c>
       <c r="CD9" t="n">
-        <v>6.572887286893092e-06</v>
+        <v>5.504226646735333e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.576944436645135e-06</v>
+        <v>0.0004453689907677472</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.646633904783812e-07</v>
+        <v>0.0002685417712200433</v>
       </c>
       <c r="CG9" t="n">
-        <v>7.175475730036851e-06</v>
+        <v>0.0002705190563574433</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.117261376748502e-06</v>
+        <v>0.0001169682000181638</v>
       </c>
       <c r="CI9" t="n">
-        <v>6.064418585083331e-07</v>
+        <v>0.0002681766054593027</v>
       </c>
       <c r="CJ9" t="n">
-        <v>9.292307368014008e-09</v>
+        <v>0.0002707985113374889</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.073799239748041e-06</v>
+        <v>1.570695894770324e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.287583811266813e-06</v>
+        <v>0.0001176623918581754</v>
       </c>
       <c r="CM9" t="n">
-        <v>2.930528808064992e-06</v>
+        <v>0.0002435861097183079</v>
       </c>
       <c r="CN9" t="n">
-        <v>2.230751306342427e-06</v>
+        <v>0.0005748490802943707</v>
       </c>
       <c r="CO9" t="n">
-        <v>2.647552037160494e-06</v>
+        <v>7.230224582599476e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>5.824203981319442e-06</v>
+        <v>0.0001813459675759077</v>
       </c>
       <c r="CQ9" t="n">
-        <v>5.552622042159783e-06</v>
+        <v>0.0005866249557584524</v>
       </c>
       <c r="CR9" t="n">
-        <v>7.843518687877804e-06</v>
+        <v>6.792444764869288e-06</v>
       </c>
       <c r="CS9" t="n">
-        <v>5.301066721585812e-06</v>
+        <v>0.0002013605699175969</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.402318594045937e-05</v>
+        <v>0.0003888905339408666</v>
       </c>
       <c r="CU9" t="n">
-        <v>4.860389253735775e-06</v>
+        <v>0.0006290734745562077</v>
       </c>
       <c r="CV9" t="n">
-        <v>5.610459083982278e-06</v>
+        <v>1.459966733818874e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>5.075916305941064e-06</v>
+        <v>0.0003213884774595499</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.266695107915439e-06</v>
+        <v>0.0003538175951689482</v>
       </c>
       <c r="CY9" t="n">
-        <v>6.929868959559826e-06</v>
+        <v>0.0003686961717903614</v>
       </c>
       <c r="CZ9" t="n">
-        <v>5.380398988563684e-07</v>
+        <v>0.0001660231209825724</v>
       </c>
       <c r="DA9" t="n">
-        <v>3.816016658220178e-07</v>
+        <v>0.0002565516333561391</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.194756691802468e-06</v>
+        <v>0.0002394986222498119</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.091314061341109e-06</v>
+        <v>0.0002482349518686533</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.758873168000719e-06</v>
+        <v>2.1307456336217e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>7.6547876233235e-06</v>
+        <v>3.468681097729132e-05</v>
       </c>
       <c r="DF9" t="n">
-        <v>8.511270834787865e-07</v>
+        <v>0.0005467048031277955</v>
       </c>
       <c r="DG9" t="n">
-        <v>9.377114110975526e-06</v>
+        <v>3.733371704583988e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.898658976846491e-06</v>
+        <v>1.896091271191835e-05</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.049955972121097e-05</v>
+        <v>0.0005764492088928819</v>
       </c>
       <c r="DJ9" t="n">
-        <v>8.142282240442e-06</v>
+        <v>0.0003612030413933098</v>
       </c>
       <c r="DK9" t="n">
-        <v>2.549310920585413e-06</v>
+        <v>0.0005482901469804347</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.436484762962209e-05</v>
+        <v>0.0003005493199452758</v>
       </c>
       <c r="DM9" t="n">
-        <v>3.718284006026806e-06</v>
+        <v>0.0004671316419262439</v>
       </c>
       <c r="DN9" t="n">
-        <v>8.062232154770754e-06</v>
+        <v>0.0001831027620937675</v>
       </c>
       <c r="DO9" t="n">
-        <v>6.874836344650248e-07</v>
+        <v>0.0001267476473003626</v>
       </c>
       <c r="DP9" t="n">
-        <v>3.778384325414663e-06</v>
+        <v>0.0003652409941423684</v>
       </c>
       <c r="DQ9" t="n">
-        <v>8.783092653175117e-08</v>
+        <v>0.0005733948783017695</v>
       </c>
       <c r="DR9" t="n">
-        <v>7.576359166705515e-06</v>
+        <v>0.0002178933355025947</v>
       </c>
       <c r="DS9" t="n">
-        <v>8.83495602010953e-07</v>
+        <v>1.394757782691158e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.907767106487881e-06</v>
+        <v>5.312722350936383e-05</v>
       </c>
       <c r="DU9" t="n">
-        <v>9.22205686038069e-07</v>
+        <v>0.0001072992599802092</v>
       </c>
       <c r="DV9" t="n">
-        <v>5.911552307225065e-06</v>
+        <v>0.0002309177070856094</v>
       </c>
       <c r="DW9" t="n">
-        <v>8.850415156302915e-07</v>
+        <v>2.055462391581386e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.645263978389266e-06</v>
+        <v>1.258277916349471e-05</v>
       </c>
       <c r="DY9" t="n">
-        <v>3.974418177676853e-06</v>
+        <v>0.0004979156074114144</v>
       </c>
       <c r="DZ9" t="n">
-        <v>6.942633262951858e-06</v>
+        <v>0.0001764546614140272</v>
       </c>
       <c r="EA9" t="n">
-        <v>3.238636963942554e-06</v>
+        <v>0.000166743848240003</v>
       </c>
       <c r="EB9" t="n">
-        <v>7.778486178722233e-06</v>
+        <v>0.0004672141221817583</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.424123411197797e-06</v>
+        <v>0.0001027023317874409</v>
       </c>
       <c r="ED9" t="n">
-        <v>2.231000280517037e-06</v>
+        <v>0.0003711707540787756</v>
       </c>
       <c r="EE9" t="n">
-        <v>6.514655979117379e-06</v>
+        <v>0.0002210829552495852</v>
       </c>
       <c r="EF9" t="n">
-        <v>6.756181392120197e-06</v>
+        <v>0.0002310081908944994</v>
       </c>
       <c r="EG9" t="n">
-        <v>3.000831384269986e-06</v>
+        <v>2.559293352533132e-05</v>
       </c>
       <c r="EH9" t="n">
-        <v>3.278583562860149e-06</v>
+        <v>0.0002052127238130197</v>
       </c>
       <c r="EI9" t="n">
-        <v>9.214145393343642e-06</v>
+        <v>0.0002985514292959124</v>
       </c>
       <c r="EJ9" t="n">
-        <v>6.521988325403072e-06</v>
+        <v>0.0001936733024194837</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.074295937542047e-06</v>
+        <v>5.515493103303015e-05</v>
       </c>
       <c r="EL9" t="n">
-        <v>6.330401447485201e-08</v>
+        <v>0.0005732674617320299</v>
       </c>
       <c r="EM9" t="n">
-        <v>1.356806478725048e-06</v>
+        <v>4.952503877575509e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.367971094623499e-06</v>
+        <v>0.0001152846089098603</v>
       </c>
       <c r="EO9" t="n">
-        <v>4.128039563511265e-06</v>
+        <v>0.0001955691259354353</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.809800664887007e-06</v>
+        <v>0.0003114739956799895</v>
       </c>
       <c r="EQ9" t="n">
-        <v>2.765051704045618e-06</v>
+        <v>0.0002187935606343672</v>
       </c>
       <c r="ER9" t="n">
-        <v>2.314649691470549e-06</v>
+        <v>0.0003128906537313014</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.249531464964093e-06</v>
+        <v>6.129065877757967e-05</v>
       </c>
       <c r="ET9" t="n">
-        <v>3.997333237748535e-07</v>
+        <v>0.0005453614867292345</v>
       </c>
       <c r="EU9" t="n">
-        <v>7.87449607742019e-06</v>
+        <v>0.0004358316364232451</v>
       </c>
       <c r="EV9" t="n">
-        <v>5.927657866777736e-07</v>
+        <v>0.0003754481149371713</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.090314412977023e-06</v>
+        <v>0.0001651203056098893</v>
       </c>
       <c r="EX9" t="n">
-        <v>5.103009243612178e-06</v>
+        <v>3.636645487858914e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>4.922704192722449e-06</v>
+        <v>0.0003338862734381109</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.160352439910639e-06</v>
+        <v>0.0002476769732311368</v>
       </c>
       <c r="FA9" t="n">
-        <v>6.112324626883492e-06</v>
+        <v>0.0003032478562090546</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.74492708993057e-06</v>
+        <v>0.00025808738428168</v>
       </c>
       <c r="FC9" t="n">
-        <v>6.098127869336167e-07</v>
+        <v>0.0002784511598292738</v>
       </c>
       <c r="FD9" t="n">
-        <v>5.267542064757436e-07</v>
+        <v>0.0003115687577519566</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.917733015943668e-06</v>
+        <v>0.0001394061837345362</v>
       </c>
       <c r="FF9" t="n">
-        <v>1.195455297420267e-06</v>
+        <v>0.0001519034412922338</v>
       </c>
       <c r="FG9" t="n">
-        <v>2.689516804821324e-06</v>
+        <v>0.000223872295464389</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.022603737510508e-05</v>
+        <v>0.0003694984770845622</v>
       </c>
       <c r="FI9" t="n">
-        <v>3.58639340447553e-08</v>
+        <v>0.0003153825819026679</v>
       </c>
       <c r="FJ9" t="n">
-        <v>7.606482540722936e-06</v>
+        <v>0.0004523724201135337</v>
       </c>
       <c r="FK9" t="n">
-        <v>7.252646355482284e-06</v>
+        <v>9.496771963313222e-05</v>
       </c>
       <c r="FL9" t="n">
-        <v>7.983205250639003e-06</v>
+        <v>0.0002413955517113209</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.202880866912892e-06</v>
+        <v>0.0001408437092322856</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.550390263422742e-06</v>
+        <v>0.0002914867945946753</v>
       </c>
       <c r="FO9" t="n">
-        <v>3.478189455563552e-06</v>
+        <v>0.0005077803507447243</v>
       </c>
       <c r="FP9" t="n">
-        <v>4.839290568270371e-07</v>
+        <v>0.0001683361042523757</v>
       </c>
       <c r="FQ9" t="n">
-        <v>2.089302142849192e-06</v>
+        <v>0.000192208171938546</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.189925387734547e-05</v>
+        <v>0.0001831417321227491</v>
       </c>
       <c r="FS9" t="n">
-        <v>5.363764557841932e-06</v>
+        <v>0.0005265784566290677</v>
       </c>
       <c r="FT9" t="n">
-        <v>7.090886356309056e-06</v>
+        <v>0.0003693524631671607</v>
       </c>
       <c r="FU9" t="n">
-        <v>6.723101705574663e-06</v>
+        <v>0.000944059866014868</v>
       </c>
       <c r="FV9" t="n">
-        <v>1.848061174314353e-06</v>
+        <v>0.0002149786159861833</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.310857896896778e-06</v>
+        <v>0.0004996191128157079</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.742818199090834e-06</v>
+        <v>5.06140204379335e-05</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.050174068950582e-05</v>
+        <v>0.0002532447397243232</v>
       </c>
       <c r="FZ9" t="n">
-        <v>3.854784154100344e-06</v>
+        <v>0.0003019542782567441</v>
       </c>
       <c r="GA9" t="n">
-        <v>2.687778305698885e-06</v>
+        <v>0.0004278480191715062</v>
       </c>
       <c r="GB9" t="n">
-        <v>5.031153023082879e-07</v>
+        <v>0.0002123992308042943</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.322556494822493e-06</v>
+        <v>0.0001711417135084048</v>
       </c>
       <c r="GD9" t="n">
-        <v>2.575365215307102e-06</v>
+        <v>5.152818630449474e-05</v>
       </c>
       <c r="GE9" t="n">
-        <v>4.376012441298371e-07</v>
+        <v>0.0003667504934128374</v>
       </c>
       <c r="GF9" t="n">
-        <v>2.914888455052278e-06</v>
+        <v>0.0004134703194722533</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.442722234263783e-06</v>
+        <v>0.0003912736137863249</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.801847474780516e-06</v>
+        <v>0.004676879849284887</v>
       </c>
       <c r="B10" t="n">
-        <v>2.59917760558892e-06</v>
+        <v>0.0632065013051033</v>
       </c>
       <c r="C10" t="n">
-        <v>3.457870661804918e-06</v>
+        <v>0.007693402003496885</v>
       </c>
       <c r="D10" t="n">
-        <v>1.120961769629503e-05</v>
+        <v>0.02661138959228992</v>
       </c>
       <c r="E10" t="n">
-        <v>1.340378048553248e-06</v>
+        <v>0.005920668132603168</v>
       </c>
       <c r="F10" t="n">
-        <v>1.057489384947985e-06</v>
+        <v>0.01363929267972708</v>
       </c>
       <c r="G10" t="n">
-        <v>1.305438445342588e-06</v>
+        <v>0.001824340783059597</v>
       </c>
       <c r="H10" t="n">
-        <v>3.259209734096657e-06</v>
+        <v>0.002740276278927922</v>
       </c>
       <c r="I10" t="n">
-        <v>2.018689428950893e-06</v>
+        <v>0.003913332242518663</v>
       </c>
       <c r="J10" t="n">
-        <v>3.189013114024419e-06</v>
+        <v>0.008990667760372162</v>
       </c>
       <c r="K10" t="n">
-        <v>2.780994918794022e-06</v>
+        <v>0.04708258807659149</v>
       </c>
       <c r="L10" t="n">
-        <v>1.852464720286662e-06</v>
+        <v>0.000197465211385861</v>
       </c>
       <c r="M10" t="n">
-        <v>9.380060873809271e-06</v>
+        <v>0.02541756816208363</v>
       </c>
       <c r="N10" t="n">
-        <v>1.263215267499618e-06</v>
+        <v>0.00983918271958828</v>
       </c>
       <c r="O10" t="n">
-        <v>3.39372218149947e-06</v>
+        <v>0.0107008283957839</v>
       </c>
       <c r="P10" t="n">
-        <v>7.448753649441642e-07</v>
+        <v>0.000918146688491106</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.508308277057949e-06</v>
+        <v>0.003844799939543009</v>
       </c>
       <c r="R10" t="n">
-        <v>8.528366493010253e-07</v>
+        <v>0.007448895368725061</v>
       </c>
       <c r="S10" t="n">
-        <v>1.361837462354742e-06</v>
+        <v>0.001929353922605515</v>
       </c>
       <c r="T10" t="n">
-        <v>1.308225364482496e-06</v>
+        <v>0.007864914834499359</v>
       </c>
       <c r="U10" t="n">
-        <v>7.181553201007773e-07</v>
+        <v>0.001861663535237312</v>
       </c>
       <c r="V10" t="n">
-        <v>1.349850720089307e-07</v>
+        <v>0.005859401077032089</v>
       </c>
       <c r="W10" t="n">
-        <v>4.917294972983655e-06</v>
+        <v>0.006962759420275688</v>
       </c>
       <c r="X10" t="n">
-        <v>1.39798271447944e-06</v>
+        <v>0.008195423521101475</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.988342076714616e-07</v>
+        <v>0.003228398505598307</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.831280821486871e-07</v>
+        <v>0.00275943917222321</v>
       </c>
       <c r="AA10" t="n">
-        <v>4.952083259013307e-07</v>
+        <v>0.00503175426274538</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.259827624584432e-06</v>
+        <v>0.001479440368711948</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2276975515706e-09</v>
+        <v>0.008865604177117348</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.109620484385232e-06</v>
+        <v>0.001352104940451682</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.188039616157766e-06</v>
+        <v>0.001803932711482048</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.714341450082429e-07</v>
+        <v>0.002673776121810079</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.787954589526635e-07</v>
+        <v>0.003487406298518181</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.507608981744852e-07</v>
+        <v>0.002989210886880755</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.811223561773659e-07</v>
+        <v>0.002669925801455975</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.581303195052897e-07</v>
+        <v>0.002556013409048319</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.250994387191895e-06</v>
+        <v>0.003261894918978214</v>
       </c>
       <c r="AL10" t="n">
-        <v>3.356199727022613e-07</v>
+        <v>0.006785473320633173</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.49945628891146e-06</v>
+        <v>0.001597344991751015</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.321697820661939e-06</v>
+        <v>0.002455791691318154</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.657210522258538e-07</v>
+        <v>0.004020069725811481</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.279586740565719e-06</v>
+        <v>0.008952880278229713</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.516112829198391e-07</v>
+        <v>0.0001894510933198035</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.485499971451645e-07</v>
+        <v>0.004574586637318134</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.606569751151255e-07</v>
+        <v>0.004259679466485977</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.854586445115274e-07</v>
+        <v>0.002093054354190826</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.155012225557584e-06</v>
+        <v>0.0352950319647789</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.052404397545615e-07</v>
+        <v>0.003246586071327329</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.477440936374478e-06</v>
+        <v>0.004637250676751137</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.016598265683569e-07</v>
+        <v>0.003224065992981195</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.190534461187781e-07</v>
+        <v>0.006209144368767738</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.826414518291131e-06</v>
+        <v>0.0007518563652411103</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.825116098392755e-06</v>
+        <v>0.003849164582788944</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.611683501323569e-06</v>
+        <v>0.004136314149945974</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.599457164047635e-06</v>
+        <v>0.002596406731754541</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.57247109200398e-06</v>
+        <v>0.01191825047135353</v>
       </c>
       <c r="BE10" t="n">
-        <v>3.258342644585355e-07</v>
+        <v>0.008483314886689186</v>
       </c>
       <c r="BF10" t="n">
-        <v>4.456442184164189e-06</v>
+        <v>0.007060142233967781</v>
       </c>
       <c r="BG10" t="n">
-        <v>5.708315029551159e-07</v>
+        <v>0.01685231178998947</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.12631596493884e-06</v>
+        <v>0.003415205515921116</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.369303618048434e-06</v>
+        <v>0.00763542577624321</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.03468573797727e-06</v>
+        <v>0.005523978732526302</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.657658981775057e-08</v>
+        <v>0.003330386476591229</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.030340285979037e-06</v>
+        <v>0.002101629273965955</v>
       </c>
       <c r="BM10" t="n">
-        <v>6.315796241551652e-08</v>
+        <v>0.00245221983641386</v>
       </c>
       <c r="BN10" t="n">
-        <v>4.60431238025194e-07</v>
+        <v>0.003273896872997284</v>
       </c>
       <c r="BO10" t="n">
-        <v>4.125070063309977e-09</v>
+        <v>0.002665526466444135</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.90574240832575e-07</v>
+        <v>0.003074945649132133</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.566735704727762e-06</v>
+        <v>0.004847696051001549</v>
       </c>
       <c r="BR10" t="n">
-        <v>3.720767836057348e-07</v>
+        <v>0.005357209593057632</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.047465389092395e-06</v>
+        <v>0.0007849142421036959</v>
       </c>
       <c r="BT10" t="n">
-        <v>5.133009608471184e-07</v>
+        <v>0.003919238690286875</v>
       </c>
       <c r="BU10" t="n">
-        <v>3.954502290071105e-07</v>
+        <v>0.003052007406949997</v>
       </c>
       <c r="BV10" t="n">
-        <v>7.986241001844974e-08</v>
+        <v>0.01909718103706837</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.29055877096107e-06</v>
+        <v>0.004587883129715919</v>
       </c>
       <c r="BX10" t="n">
-        <v>4.78017045679735e-06</v>
+        <v>0.005622787866741419</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.512245262347278e-07</v>
+        <v>0.0003099950845353305</v>
       </c>
       <c r="BZ10" t="n">
-        <v>3.45883961472282e-07</v>
+        <v>0.006161611527204514</v>
       </c>
       <c r="CA10" t="n">
-        <v>8.669870226185594e-07</v>
+        <v>0.0004556957865133882</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.677486011431029e-06</v>
+        <v>0.00179066916462034</v>
       </c>
       <c r="CC10" t="n">
-        <v>2.034284534602193e-06</v>
+        <v>0.004455645103007555</v>
       </c>
       <c r="CD10" t="n">
-        <v>2.279132559124264e-06</v>
+        <v>0.001219990313984454</v>
       </c>
       <c r="CE10" t="n">
-        <v>3.518921971590316e-07</v>
+        <v>0.0108889127150178</v>
       </c>
       <c r="CF10" t="n">
-        <v>3.980235305789392e-07</v>
+        <v>0.003261613892391324</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.550591489125509e-06</v>
+        <v>0.003507489571347833</v>
       </c>
       <c r="CH10" t="n">
-        <v>5.98357189574017e-07</v>
+        <v>0.003484040033072233</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.031457145472814e-06</v>
+        <v>0.002293928526341915</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2.662331723968236e-07</v>
+        <v>0.003636182751506567</v>
       </c>
       <c r="CK10" t="n">
-        <v>4.365469976619352e-07</v>
+        <v>0.0009598432807251811</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.526394584061563e-07</v>
+        <v>0.001439340179786086</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.220721742356545e-06</v>
+        <v>0.007258256897330284</v>
       </c>
       <c r="CN10" t="n">
-        <v>6.840949708930566e-07</v>
+        <v>0.0004021673812530935</v>
       </c>
       <c r="CO10" t="n">
-        <v>2.377973487455165e-06</v>
+        <v>0.002285030670464039</v>
       </c>
       <c r="CP10" t="n">
-        <v>3.701156856550369e-06</v>
+        <v>0.004506899975240231</v>
       </c>
       <c r="CQ10" t="n">
-        <v>4.21300865127705e-06</v>
+        <v>0.007141952402889729</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.583060449978802e-06</v>
+        <v>0.009273610077798367</v>
       </c>
       <c r="CS10" t="n">
-        <v>7.511002877436113e-07</v>
+        <v>0.003801882034167647</v>
       </c>
       <c r="CT10" t="n">
-        <v>8.388811920667649e-07</v>
+        <v>0.004723203368484974</v>
       </c>
       <c r="CU10" t="n">
-        <v>2.42114850834696e-07</v>
+        <v>0.001909706392325461</v>
       </c>
       <c r="CV10" t="n">
-        <v>2.279989075759659e-06</v>
+        <v>0.00101744884159416</v>
       </c>
       <c r="CW10" t="n">
-        <v>6.580706326531072e-07</v>
+        <v>0.01047760434448719</v>
       </c>
       <c r="CX10" t="n">
-        <v>3.536840722517809e-07</v>
+        <v>0.003937339875847101</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.42362693825271e-06</v>
+        <v>0.004818746820092201</v>
       </c>
       <c r="CZ10" t="n">
-        <v>7.89760633779224e-07</v>
+        <v>0.003570682369172573</v>
       </c>
       <c r="DA10" t="n">
-        <v>6.965685201976157e-07</v>
+        <v>0.003313098335638642</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.244168667038139e-08</v>
+        <v>0.003535362426191568</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.58776529701754e-07</v>
+        <v>0.001582208671607077</v>
       </c>
       <c r="DD10" t="n">
-        <v>2.228206597010285e-07</v>
+        <v>0.0003561903722584248</v>
       </c>
       <c r="DE10" t="n">
-        <v>2.842481535481056e-06</v>
+        <v>0.005891067441552877</v>
       </c>
       <c r="DF10" t="n">
-        <v>9.950265393854352e-07</v>
+        <v>0.01607639715075493</v>
       </c>
       <c r="DG10" t="n">
-        <v>2.46076501753123e-06</v>
+        <v>0.00649682991206646</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.156974576588254e-06</v>
+        <v>0.01351922936737537</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.245940777356736e-06</v>
+        <v>0.00159292749594897</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1.333368402356427e-07</v>
+        <v>0.001627626363188028</v>
       </c>
       <c r="DK10" t="n">
-        <v>6.65085451601044e-07</v>
+        <v>0.002924995962530375</v>
       </c>
       <c r="DL10" t="n">
-        <v>2.504458961993805e-06</v>
+        <v>0.00664944015443325</v>
       </c>
       <c r="DM10" t="n">
-        <v>3.358697426847357e-07</v>
+        <v>0.00105234410148114</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.719362444418948e-06</v>
+        <v>0.003947167657315731</v>
       </c>
       <c r="DO10" t="n">
-        <v>3.973078719354817e-07</v>
+        <v>0.005694376770406961</v>
       </c>
       <c r="DP10" t="n">
-        <v>3.636195629042049e-07</v>
+        <v>0.0001399429747834802</v>
       </c>
       <c r="DQ10" t="n">
-        <v>5.298749101712019e-07</v>
+        <v>0.001325033488683403</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.886869881673192e-06</v>
+        <v>0.006397195160388947</v>
       </c>
       <c r="DS10" t="n">
-        <v>8.894057828001678e-07</v>
+        <v>0.002479106886312366</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.029116219797288e-06</v>
+        <v>0.002051603514701128</v>
       </c>
       <c r="DU10" t="n">
-        <v>9.456160228182853e-07</v>
+        <v>0.0009106856305152178</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.246833107870771e-06</v>
+        <v>0.0005329407285898924</v>
       </c>
       <c r="DW10" t="n">
-        <v>6.990944712015335e-07</v>
+        <v>0.001324369106441736</v>
       </c>
       <c r="DX10" t="n">
-        <v>8.187100775103318e-07</v>
+        <v>0.00206666742451489</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.228625023941277e-07</v>
+        <v>0.003969496581703424</v>
       </c>
       <c r="DZ10" t="n">
-        <v>2.327882157260319e-06</v>
+        <v>0.001115650404244661</v>
       </c>
       <c r="EA10" t="n">
-        <v>7.308858585020062e-07</v>
+        <v>0.006413428578525782</v>
       </c>
       <c r="EB10" t="n">
-        <v>1.460298562960816e-06</v>
+        <v>0.004643936641514301</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.10208446812976e-08</v>
+        <v>0.0008745337254367769</v>
       </c>
       <c r="ED10" t="n">
-        <v>9.84630446509982e-07</v>
+        <v>0.0006449339562095702</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.348256091660005e-06</v>
+        <v>0.001392765319906175</v>
       </c>
       <c r="EF10" t="n">
-        <v>7.003382620496268e-07</v>
+        <v>0.002078250516206026</v>
       </c>
       <c r="EG10" t="n">
-        <v>7.098375931491319e-08</v>
+        <v>0.005545870400965214</v>
       </c>
       <c r="EH10" t="n">
-        <v>2.54711153502285e-07</v>
+        <v>0.004475496243685484</v>
       </c>
       <c r="EI10" t="n">
-        <v>3.387223387107952e-06</v>
+        <v>0.001751615200191736</v>
       </c>
       <c r="EJ10" t="n">
-        <v>9.603193120710785e-07</v>
+        <v>0.001498371129855514</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.64445248174161e-06</v>
+        <v>0.001825494691729546</v>
       </c>
       <c r="EL10" t="n">
-        <v>1.497241157721874e-07</v>
+        <v>0.003376473439857364</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.019429987536569e-06</v>
+        <v>0.001313287764787674</v>
       </c>
       <c r="EN10" t="n">
-        <v>2.126314484485192e-07</v>
+        <v>0.0004548575961962342</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.961560883501079e-06</v>
+        <v>0.001874505891464651</v>
       </c>
       <c r="EP10" t="n">
-        <v>2.826606646522123e-07</v>
+        <v>0.01044645439833403</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.58457032739534e-06</v>
+        <v>0.001832117675803602</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.958937900781166e-09</v>
+        <v>0.005837826058268547</v>
       </c>
       <c r="ES10" t="n">
-        <v>1.140065478466568e-06</v>
+        <v>0.006748198065906763</v>
       </c>
       <c r="ET10" t="n">
-        <v>7.306311999855097e-08</v>
+        <v>0.01033670734614134</v>
       </c>
       <c r="EU10" t="n">
-        <v>3.037775400116516e-07</v>
+        <v>0.006631731521338224</v>
       </c>
       <c r="EV10" t="n">
-        <v>6.061584372218931e-07</v>
+        <v>0.003486301517114043</v>
       </c>
       <c r="EW10" t="n">
-        <v>4.599631608925847e-07</v>
+        <v>0.0003092076512984931</v>
       </c>
       <c r="EX10" t="n">
-        <v>1.604284875611484e-06</v>
+        <v>0.0001219054174725898</v>
       </c>
       <c r="EY10" t="n">
-        <v>4.57222597560758e-07</v>
+        <v>0.01050810888409615</v>
       </c>
       <c r="EZ10" t="n">
-        <v>7.435314159920381e-07</v>
+        <v>0.001463828724808991</v>
       </c>
       <c r="FA10" t="n">
-        <v>2.163334784199833e-06</v>
+        <v>0.004862574860453606</v>
       </c>
       <c r="FB10" t="n">
-        <v>9.537226333122817e-07</v>
+        <v>0.003952600993216038</v>
       </c>
       <c r="FC10" t="n">
-        <v>9.410653092345456e-07</v>
+        <v>0.002898440696299076</v>
       </c>
       <c r="FD10" t="n">
-        <v>3.70287658313373e-08</v>
+        <v>0.004617250058799982</v>
       </c>
       <c r="FE10" t="n">
-        <v>4.222956988542137e-07</v>
+        <v>0.002201383234933019</v>
       </c>
       <c r="FF10" t="n">
-        <v>7.69979067172244e-08</v>
+        <v>0.002117384225130081</v>
       </c>
       <c r="FG10" t="n">
-        <v>1.11987810669234e-06</v>
+        <v>0.0003687965800054371</v>
       </c>
       <c r="FH10" t="n">
-        <v>7.575685572192015e-07</v>
+        <v>0.002791496925055981</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.794475537053586e-07</v>
+        <v>6.660709186689928e-05</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.928977326315362e-06</v>
+        <v>0.004276526160538197</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.037232323142234e-06</v>
+        <v>0.002001999411731958</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.047418092843145e-06</v>
+        <v>0.002420612145215273</v>
       </c>
       <c r="FM10" t="n">
-        <v>5.182570248507545e-07</v>
+        <v>0.001141052809543908</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.578766557486233e-07</v>
+        <v>0.001595306443050504</v>
       </c>
       <c r="FO10" t="n">
-        <v>4.761889726978552e-07</v>
+        <v>0.003355273045599461</v>
       </c>
       <c r="FP10" t="n">
-        <v>1.458956830902025e-06</v>
+        <v>0.003918735776096582</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1.479964311101867e-07</v>
+        <v>0.003968678414821625</v>
       </c>
       <c r="FR10" t="n">
-        <v>2.665576175786555e-06</v>
+        <v>0.004885123111307621</v>
       </c>
       <c r="FS10" t="n">
-        <v>1.863106717792107e-07</v>
+        <v>0.001181246829219162</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.691785882940167e-06</v>
+        <v>0.004154475405812263</v>
       </c>
       <c r="FU10" t="n">
-        <v>1.635905050534348e-06</v>
+        <v>0.001479245023801923</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.492975229666627e-06</v>
+        <v>0.001008672174066305</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.884936409624061e-06</v>
+        <v>0.003343112766742706</v>
       </c>
       <c r="FX10" t="n">
-        <v>4.81537199448212e-07</v>
+        <v>0.004789459519088268</v>
       </c>
       <c r="FY10" t="n">
-        <v>2.973454684251919e-06</v>
+        <v>0.003595056012272835</v>
       </c>
       <c r="FZ10" t="n">
-        <v>2.312784090463538e-06</v>
+        <v>0.004583399742841721</v>
       </c>
       <c r="GA10" t="n">
-        <v>4.552833559046121e-07</v>
+        <v>7.712165825068951e-06</v>
       </c>
       <c r="GB10" t="n">
-        <v>9.095798532143817e-07</v>
+        <v>0.0005226210341788828</v>
       </c>
       <c r="GC10" t="n">
-        <v>6.10263953149115e-07</v>
+        <v>0.01337885390967131</v>
       </c>
       <c r="GD10" t="n">
-        <v>1.346896397080855e-06</v>
+        <v>0.005115482956171036</v>
       </c>
       <c r="GE10" t="n">
-        <v>4.824991037821746e-07</v>
+        <v>0.01403980422765017</v>
       </c>
       <c r="GF10" t="n">
-        <v>3.873964828926546e-07</v>
+        <v>0.002980181016027927</v>
       </c>
       <c r="GG10" t="n">
-        <v>3.101715719822096e-07</v>
+        <v>0.000604941975325346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0005081501440145075</v>
+        <v>0.007168769370764494</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0003185176756232977</v>
+        <v>0.08400869369506836</v>
       </c>
       <c r="C11" t="n">
-        <v>4.921271829516627e-05</v>
+        <v>0.01514997705817223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001803969964385033</v>
+        <v>0.03835845738649368</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003359053516760468</v>
+        <v>0.01671245135366917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002949011977761984</v>
+        <v>0.02282984182238579</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003598780313041061</v>
+        <v>0.005217849276959896</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002577692503109574</v>
+        <v>0.001589244930073619</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00119285739492625</v>
+        <v>0.01229265332221985</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0004140454111620784</v>
+        <v>0.007891359739005566</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003725075512193143</v>
+        <v>0.06923197209835052</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001223650324391201</v>
+        <v>0.006324692629277706</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001096514286473393</v>
+        <v>0.04343052580952644</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0007255717646330595</v>
+        <v>0.02282565832138062</v>
       </c>
       <c r="O11" t="n">
-        <v>7.489597192034125e-05</v>
+        <v>0.02280501648783684</v>
       </c>
       <c r="P11" t="n">
-        <v>1.602893462404609e-07</v>
+        <v>0.002433150075376034</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0002053809439530596</v>
+        <v>0.01150477677583694</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001374643994495273</v>
+        <v>0.01991237886250019</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0001340054732281715</v>
+        <v>0.002175789326429367</v>
       </c>
       <c r="T11" t="n">
-        <v>0.000126938713947311</v>
+        <v>0.01646007224917412</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0001353039551759139</v>
+        <v>0.004029097966849804</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0001813513954402879</v>
+        <v>0.00686568534001708</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001246132072992623</v>
+        <v>0.00600510323420167</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0001427960814908147</v>
+        <v>0.01371177937835455</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.17748878034763e-05</v>
+        <v>0.008617294020950794</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0004875847662333399</v>
+        <v>0.000619049184024334</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0001397302694385871</v>
+        <v>0.005736030638217926</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0003634199383668602</v>
+        <v>0.008499878458678722</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0003100119065493345</v>
+        <v>0.01216092985123396</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0003010645741596818</v>
+        <v>0.001176318037323654</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.000157465212396346</v>
+        <v>0.001204777276143432</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0004582580295391381</v>
+        <v>0.0005975330714136362</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.224528649705462e-05</v>
+        <v>0.001263311598449945</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0001353234401904047</v>
+        <v>0.003389801364392042</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0001788584049791098</v>
+        <v>0.001748283393681049</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0002431082539260387</v>
+        <v>0.004766212310642004</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0005127551266923547</v>
+        <v>0.00039886892773211</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0001461278443457559</v>
+        <v>0.01355666294693947</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.764772191061638e-05</v>
+        <v>0.00181340763811022</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0001681944413576275</v>
+        <v>0.001007337588816881</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0001996113132918254</v>
+        <v>0.00396815175190568</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0003415877581574023</v>
+        <v>0.009346594102680683</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.143895785091445e-05</v>
+        <v>0.002216050866991282</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0002102970174746588</v>
+        <v>0.001768440473824739</v>
       </c>
       <c r="AS11" t="n">
-        <v>9.302829130319878e-05</v>
+        <v>0.003349442966282368</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.559947046800517e-05</v>
+        <v>0.01894150488078594</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0002096642565447837</v>
+        <v>0.05117499828338623</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.611489076633006e-05</v>
+        <v>0.004235835280269384</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.001009761239401996</v>
+        <v>0.01422409433871508</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0004495478933677077</v>
+        <v>0.0006149836117401719</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0003959742025472224</v>
+        <v>0.002493135631084442</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0001265131577383727</v>
+        <v>0.004475251771509647</v>
       </c>
       <c r="BA11" t="n">
-        <v>6.38678902760148e-05</v>
+        <v>0.004957276396453381</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0002664616622496396</v>
+        <v>9.289913577958941e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0001444866065867245</v>
+        <v>0.003900050418451428</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.929070175625384e-05</v>
+        <v>0.01419290620833635</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.0002547059557400644</v>
+        <v>0.01498660817742348</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0003432941739447415</v>
+        <v>0.00987621396780014</v>
       </c>
       <c r="BG11" t="n">
-        <v>9.058074647327885e-05</v>
+        <v>0.03041865304112434</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0002303304354427382</v>
+        <v>0.0114520862698555</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0001451080897822976</v>
+        <v>0.005769550334662199</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.000305449910229072</v>
+        <v>0.009007807821035385</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0006351370830088854</v>
+        <v>0.01371551956981421</v>
       </c>
       <c r="BL11" t="n">
-        <v>7.95945234131068e-05</v>
+        <v>0.005319294985383749</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0004262497241143137</v>
+        <v>0.001678012893535197</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0002309495030203834</v>
+        <v>0.00421602139249444</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0002662909973878413</v>
+        <v>0.001197386300191283</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0001736939593683928</v>
+        <v>0.002668196801096201</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0003197298792656511</v>
+        <v>0.007391213439404964</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0002250499674119055</v>
+        <v>0.003704114118590951</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0003270860761404037</v>
+        <v>0.004745723679661751</v>
       </c>
       <c r="BT11" t="n">
-        <v>9.767193114385009e-05</v>
+        <v>0.00354213360697031</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0003878384595736861</v>
+        <v>0.0123633174225688</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0001568055158713832</v>
+        <v>0.03226429596543312</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0001862957142293453</v>
+        <v>0.008964402601122856</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0007351600215770304</v>
+        <v>0.01466293819248676</v>
       </c>
       <c r="BY11" t="n">
-        <v>5.396740743890405e-05</v>
+        <v>0.007255834992974997</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0002613496326375753</v>
+        <v>0.004909671377390623</v>
       </c>
       <c r="CA11" t="n">
-        <v>2.541919093346223e-05</v>
+        <v>0.0013060187920928</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0001129923621192575</v>
+        <v>0.003628767095506191</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0005250836838968098</v>
+        <v>0.004666110966354609</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0004429749969858676</v>
+        <v>7.24883284419775e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>9.048580977832898e-05</v>
+        <v>0.01429480034857988</v>
       </c>
       <c r="CF11" t="n">
-        <v>5.074764703749679e-05</v>
+        <v>0.003446143120527267</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0003326772712171078</v>
+        <v>0.005361473653465509</v>
       </c>
       <c r="CH11" t="n">
-        <v>2.050522198260296e-05</v>
+        <v>0.003208813956007361</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0002312960277777165</v>
+        <v>0.003456777427345514</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.215988049807493e-05</v>
+        <v>0.003390894504263997</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.410709683113964e-05</v>
+        <v>0.001868662191554904</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0001706893963273615</v>
+        <v>0.001375643769279122</v>
       </c>
       <c r="CM11" t="n">
-        <v>9.744801354827359e-05</v>
+        <v>0.01034243311733007</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0001001322525553405</v>
+        <v>0.005344661418348551</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0003595144080463797</v>
+        <v>0.0008646337082609534</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0002682896447367966</v>
+        <v>0.004536115564405918</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.542763857287355e-05</v>
+        <v>0.00704663060605526</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.000857112871017307</v>
+        <v>0.005221457220613956</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.0001641235285205767</v>
+        <v>0.003766468027606606</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0001144024790846743</v>
+        <v>0.01022507529705763</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0002622998144943267</v>
+        <v>0.002147860126569867</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0003759535029530525</v>
+        <v>0.0003004360478371382</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0001426011731382459</v>
+        <v>0.01262617576867342</v>
       </c>
       <c r="CX11" t="n">
-        <v>2.646190478117205e-05</v>
+        <v>0.004188364837318659</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0003519313759170473</v>
+        <v>0.006465325597673655</v>
       </c>
       <c r="CZ11" t="n">
-        <v>4.88937585032545e-05</v>
+        <v>0.001250472385436296</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0001833353016991168</v>
+        <v>0.006638104561716318</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.096956111723557e-06</v>
+        <v>0.003537885379046202</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.407295258104568e-05</v>
+        <v>0.001353365718387067</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0001592534536030143</v>
+        <v>0.0009615187300369143</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.0004153364570811391</v>
+        <v>0.00292835128493607</v>
       </c>
       <c r="DF11" t="n">
-        <v>9.920915181282908e-05</v>
+        <v>0.02382145635783672</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.000544360838830471</v>
+        <v>0.005392674822360277</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0005438610096462071</v>
+        <v>0.02531644143164158</v>
       </c>
       <c r="DI11" t="n">
-        <v>8.593252277933061e-05</v>
+        <v>0.005150152370333672</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0002718384494073689</v>
+        <v>0.01864339411258698</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0003663526731543243</v>
+        <v>0.0004273103550076485</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0002325267414562404</v>
+        <v>0.003845891682431102</v>
       </c>
       <c r="DM11" t="n">
-        <v>5.384476389735937e-05</v>
+        <v>0.001914603868499398</v>
       </c>
       <c r="DN11" t="n">
-        <v>9.521120955469087e-05</v>
+        <v>0.003806686960160732</v>
       </c>
       <c r="DO11" t="n">
-        <v>7.151940371841192e-05</v>
+        <v>0.005472778342664242</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0001042837684508413</v>
+        <v>0.006142724305391312</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0004565877607092261</v>
+        <v>0.001318346243351698</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0003152537974528968</v>
+        <v>0.01607578434050083</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0003885947517119348</v>
+        <v>0.006666045635938644</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0001129013762692921</v>
+        <v>0.007697063032537699</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0003097605658695102</v>
+        <v>0.0004038852639496326</v>
       </c>
       <c r="DV11" t="n">
-        <v>8.473970228806138e-05</v>
+        <v>0.006299121305346489</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.0001047664627549239</v>
+        <v>0.001753120799548924</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0001153527846327052</v>
+        <v>0.00940307043492794</v>
       </c>
       <c r="DY11" t="n">
-        <v>6.213202141225338e-05</v>
+        <v>0.008727769367396832</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0003640609211288393</v>
+        <v>0.0109854806214571</v>
       </c>
       <c r="EA11" t="n">
-        <v>9.797417442314327e-05</v>
+        <v>0.008455118164420128</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.0007875777664594352</v>
+        <v>0.008394621312618256</v>
       </c>
       <c r="EC11" t="n">
-        <v>5.698893801309168e-05</v>
+        <v>0.0005422791000455618</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0002065795270027593</v>
+        <v>0.005415942054241896</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0002512767678126693</v>
+        <v>0.008885478600859642</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0002847948053386062</v>
+        <v>0.0009667454869486392</v>
       </c>
       <c r="EG11" t="n">
-        <v>7.775569247314706e-05</v>
+        <v>0.00673741614446044</v>
       </c>
       <c r="EH11" t="n">
-        <v>6.100756581872702e-05</v>
+        <v>0.004196364898234606</v>
       </c>
       <c r="EI11" t="n">
-        <v>7.477369217667729e-05</v>
+        <v>0.004941251128911972</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.0004992164904251695</v>
+        <v>0.005822556558996439</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.0004102624661754817</v>
+        <v>0.01200977806001902</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0001075364052667283</v>
+        <v>0.002387115731835365</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0001885365345515311</v>
+        <v>0.002615044824779034</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0001962511450983584</v>
+        <v>0.001126967486925423</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0004391887050587684</v>
+        <v>0.002820771420374513</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.0002055890508927405</v>
+        <v>0.006307987496256828</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0003394773229956627</v>
+        <v>0.00712327565997839</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0003017995040863752</v>
+        <v>0.002478004200384021</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0003782385610975325</v>
+        <v>0.003606909886002541</v>
       </c>
       <c r="ET11" t="n">
-        <v>6.167285755509511e-05</v>
+        <v>0.01243461389094591</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0001800579630071297</v>
+        <v>0.002290689619258046</v>
       </c>
       <c r="EV11" t="n">
-        <v>4.854297731071711e-05</v>
+        <v>0.0047786352224648</v>
       </c>
       <c r="EW11" t="n">
-        <v>5.182451423024759e-05</v>
+        <v>0.001136377453804016</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0002852776960935444</v>
+        <v>0.001670385361649096</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.0001699289859971032</v>
+        <v>0.01336706522852182</v>
       </c>
       <c r="EZ11" t="n">
-        <v>4.080076178070158e-05</v>
+        <v>0.001094749895855784</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0002474461798556149</v>
+        <v>0.00825103372335434</v>
       </c>
       <c r="FB11" t="n">
-        <v>9.217903425451368e-05</v>
+        <v>0.002256658626720309</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0002634813718032092</v>
+        <v>0.006631257012486458</v>
       </c>
       <c r="FD11" t="n">
-        <v>1.630747465242166e-05</v>
+        <v>0.003920706454664469</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0001215707379742526</v>
+        <v>0.002112931804731488</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0001575776550453156</v>
+        <v>0.0008997987606562674</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0002970413479488343</v>
+        <v>0.0004424115759320557</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0003899230796378106</v>
+        <v>0.006782719399780035</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.0001995534694287926</v>
+        <v>0.002183118602260947</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.0003070039674639702</v>
+        <v>0.003272326430305839</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0001717655977699906</v>
+        <v>0.002600597916170955</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0006129983812570572</v>
+        <v>0.006029484327882528</v>
       </c>
       <c r="FM11" t="n">
-        <v>8.608924690634012e-05</v>
+        <v>0.002688414882868528</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0001025796082103625</v>
+        <v>0.002219535876065493</v>
       </c>
       <c r="FO11" t="n">
-        <v>1.152536515292013e-05</v>
+        <v>0.002664494328200817</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.074100146070123e-05</v>
+        <v>0.01555230654776096</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.0006487438222393394</v>
+        <v>0.02489249780774117</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0002758506743703038</v>
+        <v>0.00623836787417531</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.0006043835310265422</v>
+        <v>0.03338128700852394</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0003559580945875496</v>
+        <v>0.001923635601997375</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.0004010670818388462</v>
+        <v>0.003685546340420842</v>
       </c>
       <c r="FV11" t="n">
-        <v>4.739099676953629e-05</v>
+        <v>0.003319485578685999</v>
       </c>
       <c r="FW11" t="n">
-        <v>2.076726195809897e-05</v>
+        <v>0.003855146002024412</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.0003470713854767382</v>
+        <v>0.001607406651601195</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0006620584172196686</v>
+        <v>0.01070744916796684</v>
       </c>
       <c r="FZ11" t="n">
-        <v>1.313621032750234e-05</v>
+        <v>0.00641935970634222</v>
       </c>
       <c r="GA11" t="n">
-        <v>1.930237340275198e-05</v>
+        <v>0.002937021898105741</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0002881631080526859</v>
+        <v>0.002430598717182875</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0002712465939112008</v>
+        <v>0.01323564257472754</v>
       </c>
       <c r="GD11" t="n">
-        <v>8.375744801014662e-05</v>
+        <v>0.005114351399242878</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0001856468734331429</v>
+        <v>0.01468470133841038</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0001139261512435041</v>
+        <v>0.001472985721193254</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0001434268488083035</v>
+        <v>0.002848708536475897</v>
       </c>
     </row>
     <row r="12">
@@ -7263,1140 +7263,1140 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.00426174933090806</v>
+        <v>2.362468876526691e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0003969171666540205</v>
+        <v>0.0006537125445902348</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003206893103197217</v>
+        <v>8.722946222405881e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000986426486633718</v>
+        <v>0.0002359287609579042</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002627117501106113</v>
+        <v>0.0002788411220535636</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0001134112972067669</v>
+        <v>0.0003073039988521487</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003370966878719628</v>
+        <v>2.786457480397075e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001260226126760244</v>
+        <v>0.0001144204434240237</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007135631749406457</v>
+        <v>8.789294224698097e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004093331750482321</v>
+        <v>6.37409721093718e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000487021665321663</v>
+        <v>0.0006373744690790772</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003137200139462948</v>
+        <v>8.636270649731159e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0008030920871533453</v>
+        <v>0.0003034668625332415</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001523104961961508</v>
+        <v>0.0002640743623487651</v>
       </c>
       <c r="O13" t="n">
-        <v>3.757982631213963e-05</v>
+        <v>0.0003983533242717385</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001012453576549888</v>
+        <v>0.0001803771738195792</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0007008252432569861</v>
+        <v>8.736921881791204e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001122202025726438</v>
+        <v>0.000146789345308207</v>
       </c>
       <c r="S13" t="n">
-        <v>6.011891673551872e-05</v>
+        <v>6.429673521779478e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00129051657859236</v>
+        <v>0.0001259085111087188</v>
       </c>
       <c r="U13" t="n">
-        <v>9.221951040672138e-05</v>
+        <v>8.845623597153462e-06</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001270068169105798</v>
+        <v>4.022431312478147e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0007998537039384246</v>
+        <v>5.871621033293195e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.00015775125939399</v>
+        <v>9.033869719132781e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0003066562348976731</v>
+        <v>1.411536231898936e-06</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0008553647785447538</v>
+        <v>4.91110586153809e-06</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0003055142296943814</v>
+        <v>5.072740532341413e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001316915004281327</v>
+        <v>7.199033279903233e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.998561831191182e-05</v>
+        <v>0.0001047152181854472</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0001067120028892532</v>
+        <v>0.0001735396945150569</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001874646550277248</v>
+        <v>0.0001190644688904285</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.996891559334472e-05</v>
+        <v>0.0001360938767902553</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0005640925955958664</v>
+        <v>8.261276889243163e-06</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.000699239200912416</v>
+        <v>7.77818204369396e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0007461184286512434</v>
+        <v>1.02306130429497e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0002561806177254766</v>
+        <v>0.0001372069382341579</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0006958512822166085</v>
+        <v>2.640679304022342e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.001040851697325706</v>
+        <v>0.0001971861638594419</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0002430083259241655</v>
+        <v>3.18508900818415e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0007663271971978247</v>
+        <v>1.540279481559992e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0002863921399693936</v>
+        <v>5.488319584401324e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0007071029394865036</v>
+        <v>4.771209569298662e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0001159806633950211</v>
+        <v>3.038609065697528e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.604898564750329e-05</v>
+        <v>1.504642932559364e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>6.953941192477942e-05</v>
+        <v>1.68186888913624e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.001741011627018452</v>
+        <v>0.0001014204608509317</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0008515877998434007</v>
+        <v>0.0004861050983890891</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.001719328109174967</v>
+        <v>6.804072472732514e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0001401260960847139</v>
+        <v>0.0001184393840958364</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0002544282760936767</v>
+        <v>8.589984645368531e-06</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0005703179049305618</v>
+        <v>2.274745929753408e-05</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0005306307575665414</v>
+        <v>0.0001850129920057952</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0006399549311026931</v>
+        <v>0.0001084419200196862</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0006044442998245358</v>
+        <v>7.910713975434192e-06</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.00114209414459765</v>
+        <v>1.852051354944706e-05</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0006275156047195196</v>
+        <v>0.0001180186591227539</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0009760037646628916</v>
+        <v>9.362040145788342e-05</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0001201259874505922</v>
+        <v>1.557745235913899e-06</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.192184572573751e-05</v>
+        <v>0.0002663775521796197</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0002497786481399089</v>
+        <v>0.0002207486977567896</v>
       </c>
       <c r="BI13" t="n">
-        <v>9.358490933664143e-05</v>
+        <v>0.000103194142866414</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0007891071727499366</v>
+        <v>3.195261342625599e-06</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0003428086638450623</v>
+        <v>8.796567999524996e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0004350258968770504</v>
+        <v>7.386918150587007e-05</v>
       </c>
       <c r="BM13" t="n">
-        <v>7.556600030511618e-05</v>
+        <v>7.900067430455238e-05</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0007224052678793669</v>
+        <v>3.915813431376591e-05</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0002612060052342713</v>
+        <v>5.871198663953692e-05</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001248330576345325</v>
+        <v>4.955306940246373e-05</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0001601785043021664</v>
+        <v>3.485261549940333e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0004056326579302549</v>
+        <v>8.221218013204634e-05</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0003616828471422195</v>
+        <v>2.666329055500682e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0003337892121635377</v>
+        <v>2.16309999814257e-05</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.001504242070950568</v>
+        <v>7.354770787060261e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0004194705397821963</v>
+        <v>0.0002782572410069406</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0006913686520420015</v>
+        <v>6.19569982518442e-05</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.000910454080440104</v>
+        <v>9.901632438413799e-05</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0002106439205817878</v>
+        <v>4.278272172086872e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0007390312966890633</v>
+        <v>7.365398050751537e-05</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0001490128342993557</v>
+        <v>0.0001139395753853023</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0007031009299680591</v>
+        <v>2.314010998816229e-06</v>
       </c>
       <c r="CC13" t="n">
-        <v>4.932830779580399e-05</v>
+        <v>4.537656786851585e-05</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0008680823957547545</v>
+        <v>1.605629586265422e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0006624117377214134</v>
+        <v>0.0001120239321608096</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0006499879527837038</v>
+        <v>2.164314736319284e-07</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0002259201864944771</v>
+        <v>5.518261968973093e-05</v>
       </c>
       <c r="CH13" t="n">
-        <v>1.026989775709808e-05</v>
+        <v>1.05938606793643e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.368806599406525e-05</v>
+        <v>3.746717993635684e-05</v>
       </c>
       <c r="CJ13" t="n">
-        <v>7.395424472633749e-05</v>
+        <v>7.203793211374432e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0003752537304535508</v>
+        <v>1.311057530983817e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0001249845081474632</v>
+        <v>1.203071042255033e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0001064596872311085</v>
+        <v>5.575796240009367e-05</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0007773531251586974</v>
+        <v>9.023317397804931e-05</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.000104282982647419</v>
+        <v>2.602700078568887e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>8.641781460028142e-05</v>
+        <v>3.172046854160726e-05</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0009380021947436035</v>
+        <v>7.545807602582499e-05</v>
       </c>
       <c r="CR13" t="n">
-        <v>3.679566725622863e-05</v>
+        <v>8.054803765844554e-05</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0007103501702658832</v>
+        <v>0.0001558643707539886</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0004121603560633957</v>
+        <v>0.0001887972321128473</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0007828595698811114</v>
+        <v>5.527815665118396e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.000803725270088762</v>
+        <v>1.431997225154191e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0005000386736355722</v>
+        <v>9.672377200331539e-05</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.0006908491486683488</v>
+        <v>2.18420427700039e-05</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.000152012100443244</v>
+        <v>5.527075700229034e-05</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0004974345793016255</v>
+        <v>9.981727998820134e-06</v>
       </c>
       <c r="DA13" t="n">
-        <v>6.564796785824001e-05</v>
+        <v>5.772678559878841e-05</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0001221064885612577</v>
+        <v>5.134956518304534e-05</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0003159182379022241</v>
+        <v>1.989937845792156e-05</v>
       </c>
       <c r="DD13" t="n">
-        <v>8.436116331722587e-05</v>
+        <v>1.534254352009157e-06</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0001512782619101927</v>
+        <v>5.878490628674626e-05</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.001733837416395545</v>
+        <v>0.0001443789078621194</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0006753815105184913</v>
+        <v>0.0001564725098432973</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.000123277772217989</v>
+        <v>3.993441350758076e-05</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0007025175727903843</v>
+        <v>6.198462506290525e-05</v>
       </c>
       <c r="DJ13" t="n">
-        <v>3.158132312819362e-05</v>
+        <v>0.0001363044138997793</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0003335106594022363</v>
+        <v>0.0001083280803868547</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0007237904355861247</v>
+        <v>0.0001012512220768258</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0005385390250012279</v>
+        <v>7.787383219692856e-05</v>
       </c>
       <c r="DN13" t="n">
-        <v>9.628498446545564e-06</v>
+        <v>9.293053153669462e-06</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0009500813321210444</v>
+        <v>6.236802437342703e-05</v>
       </c>
       <c r="DP13" t="n">
-        <v>1.160862302640453e-05</v>
+        <v>5.293543654261157e-05</v>
       </c>
       <c r="DQ13" t="n">
-        <v>3.658238347270526e-05</v>
+        <v>0.0002134438836947083</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0001676703104749322</v>
+        <v>2.80618951364886e-05</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.000579710234887898</v>
+        <v>0.0001191929040942341</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0006022481247782707</v>
+        <v>3.163125438732095e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0002361375518376008</v>
+        <v>8.26949835754931e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0002049548929790035</v>
+        <v>4.753796383738518e-05</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0001598426606506109</v>
+        <v>5.096373570268042e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0002109920023940504</v>
+        <v>2.106113242916763e-05</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0001336094865109771</v>
+        <v>3.477793143247254e-05</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0001888692495413125</v>
+        <v>0.0001369327655993402</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.000596865953411907</v>
+        <v>1.004597015707986e-05</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.000230073113925755</v>
+        <v>8.58979910844937e-05</v>
       </c>
       <c r="EC13" t="n">
-        <v>3.529912646627054e-05</v>
+        <v>8.501535194227472e-05</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0006578812608495355</v>
+        <v>0.0001820118486648425</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0003569882246665657</v>
+        <v>3.23367421515286e-05</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.001312025357037783</v>
+        <v>4.678710683947429e-05</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0007436607265844941</v>
+        <v>9.790588228497654e-05</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0006789240287616849</v>
+        <v>2.633419853736996e-06</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0003548132954165339</v>
+        <v>6.741705874446779e-05</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0002157538256142288</v>
+        <v>4.505593824433163e-05</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0004966000560671091</v>
+        <v>5.24223069078289e-05</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0004630071925930679</v>
+        <v>9.603885700926185e-05</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0006037491839379072</v>
+        <v>1.564013018651167e-06</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.000364452280336991</v>
+        <v>2.475193468853831e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0002109238266712055</v>
+        <v>2.073068026220426e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0006323949783109128</v>
+        <v>5.423601760412566e-05</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0002829328295774758</v>
+        <v>0.0001031678184517659</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.000731868261937052</v>
+        <v>3.484855551505461e-05</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0002389632281847298</v>
+        <v>0.0001287634368054569</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.000843533780425787</v>
+        <v>0.0001273887028219178</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0007349899969995022</v>
+        <v>8.25670940685086e-06</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0002474831708241254</v>
+        <v>5.56548111489974e-05</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0003527345543261617</v>
+        <v>2.663740451680496e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0008045487920753658</v>
+        <v>7.652402928215452e-06</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0003875856637023389</v>
+        <v>0.0001054444728652015</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0006895334227010608</v>
+        <v>7.092974101396976e-06</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0001460322964703664</v>
+        <v>5.404465991887264e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0001558502262923867</v>
+        <v>2.371140908508096e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0001542285754112527</v>
+        <v>4.830291800317355e-05</v>
       </c>
       <c r="FD13" t="n">
-        <v>9.183751535601914e-05</v>
+        <v>5.999162385705858e-05</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0003614939632825553</v>
+        <v>2.082526407320984e-06</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0001612503983778879</v>
+        <v>2.412499270576518e-06</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0005525338929146528</v>
+        <v>2.995231989189051e-05</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.000647946959361434</v>
+        <v>2.80014664895134e-05</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0003315684734843671</v>
+        <v>6.715128984069452e-05</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0006545428768731654</v>
+        <v>0.0001382529444526881</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0002608003560453653</v>
+        <v>5.884820711798966e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0004574416670948267</v>
+        <v>8.315445302287117e-05</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0005443577538244426</v>
+        <v>6.89022199367173e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0008062103297561407</v>
+        <v>7.094733155099675e-05</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.000679588585626334</v>
+        <v>4.790259845321998e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0003619409981183708</v>
+        <v>6.21903600404039e-05</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.001797341858036816</v>
+        <v>0.0002702029305510223</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.0001615976652828977</v>
+        <v>3.33621574100107e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0002915394143201411</v>
+        <v>0.0001397436572005972</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.000376664160285145</v>
+        <v>0.0001844321086537093</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0004315336409490556</v>
+        <v>5.052139385952614e-05</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0001675529638305306</v>
+        <v>0.0001997930958168581</v>
       </c>
       <c r="FW13" t="n">
-        <v>4.303095920477062e-05</v>
+        <v>2.893502369261114e-06</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0005313910078257322</v>
+        <v>8.330723358085379e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.000199017726117745</v>
+        <v>5.661652539856732e-05</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0007039688061922789</v>
+        <v>0.0001082293456420302</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.000133473367895931</v>
+        <v>0.0001427535753464326</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.000776828033849597</v>
+        <v>6.071677489671856e-07</v>
       </c>
       <c r="GC13" t="n">
-        <v>4.482884833123535e-05</v>
+        <v>1.178123784484342e-05</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.001134003396145999</v>
+        <v>2.229841084044892e-05</v>
       </c>
       <c r="GE13" t="n">
-        <v>2.791899896692485e-05</v>
+        <v>6.958498124731705e-05</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0003942723269574344</v>
+        <v>3.918195216101594e-05</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0002747194666881114</v>
+        <v>1.572974724695086e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001099784567486495</v>
+        <v>0.0001283310120925307</v>
       </c>
       <c r="B14" t="n">
-        <v>1.309738763666246e-05</v>
+        <v>0.001384068047627807</v>
       </c>
       <c r="C14" t="n">
-        <v>8.41163273435086e-05</v>
+        <v>0.0002000303938984871</v>
       </c>
       <c r="D14" t="n">
-        <v>3.286308492533863e-05</v>
+        <v>0.0006055764970369637</v>
       </c>
       <c r="E14" t="n">
-        <v>2.684617811610224e-06</v>
+        <v>0.001120878150686622</v>
       </c>
       <c r="F14" t="n">
-        <v>5.263892035145545e-06</v>
+        <v>0.0004562905814964324</v>
       </c>
       <c r="G14" t="n">
-        <v>2.106255124090239e-05</v>
+        <v>0.0001716330734780058</v>
       </c>
       <c r="H14" t="n">
-        <v>2.260138171550352e-05</v>
+        <v>0.0002372929448029026</v>
       </c>
       <c r="I14" t="n">
-        <v>1.92424649867462e-05</v>
+        <v>0.0001110057710320689</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000100741432106588</v>
+        <v>0.0002909993345383555</v>
       </c>
       <c r="K14" t="n">
-        <v>1.187848283734638e-05</v>
+        <v>0.001182552194222808</v>
       </c>
       <c r="L14" t="n">
-        <v>8.135485404636711e-05</v>
+        <v>0.0002616197452880442</v>
       </c>
       <c r="M14" t="n">
-        <v>1.948319186340086e-05</v>
+        <v>0.0004238318069837987</v>
       </c>
       <c r="N14" t="n">
-        <v>4.078137862961739e-05</v>
+        <v>0.0008232941036112607</v>
       </c>
       <c r="O14" t="n">
-        <v>3.97176472688443e-06</v>
+        <v>0.0004770507221110165</v>
       </c>
       <c r="P14" t="n">
-        <v>2.640573256940115e-05</v>
+        <v>8.908077143132687e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9411856555962e-05</v>
+        <v>5.992141086608171e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>2.682416197785642e-05</v>
+        <v>0.0001345522759947926</v>
       </c>
       <c r="S14" t="n">
-        <v>4.258775334164966e-06</v>
+        <v>4.207906022202224e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>3.327493323013186e-05</v>
+        <v>0.0003502019389998168</v>
       </c>
       <c r="U14" t="n">
-        <v>1.802273118300945e-06</v>
+        <v>0.0001682625006651506</v>
       </c>
       <c r="V14" t="n">
-        <v>4.313917543186108e-07</v>
+        <v>0.0001643310824874789</v>
       </c>
       <c r="W14" t="n">
-        <v>9.071168278751429e-06</v>
+        <v>7.06999417161569e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>2.392161604802823e-06</v>
+        <v>0.0002673647541087121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.592718490428524e-06</v>
+        <v>4.903199442196637e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.808885255944915e-05</v>
+        <v>0.0001281514560105279</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.978895387670491e-07</v>
+        <v>7.969636499183252e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.448916918889154e-06</v>
+        <v>2.243962808279321e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.236620043229777e-06</v>
+        <v>0.0001689051714492962</v>
       </c>
       <c r="AD14" t="n">
-        <v>4.55521376352408e-06</v>
+        <v>0.0002712284913286567</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.088214594346937e-05</v>
+        <v>1.623828939045779e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.738270490634022e-06</v>
+        <v>0.0001081108348444104</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.641267772356514e-05</v>
+        <v>9.821826097322628e-06</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.729997347865719e-05</v>
+        <v>0.0002210704260505736</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.930527650984004e-05</v>
+        <v>0.0001448656403226778</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.183096446766285e-05</v>
+        <v>0.0001216519813169725</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.224669540533796e-05</v>
+        <v>5.760229396400973e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>2.370046058786102e-05</v>
+        <v>0.0004499848000705242</v>
       </c>
       <c r="AM14" t="n">
-        <v>8.740963494346943e-06</v>
+        <v>0.0001905467797769234</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.042687083303463e-05</v>
+        <v>2.340607170481235e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.016601896088105e-06</v>
+        <v>1.107572643377353e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.543306279927492e-05</v>
+        <v>0.0001629798789508641</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3.828220542345662e-06</v>
+        <v>0.000124394049635157</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.053836735489313e-06</v>
+        <v>4.488929334911518e-06</v>
       </c>
       <c r="AS14" t="n">
-        <v>4.584256203088444e-06</v>
+        <v>0.0001109498407458887</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.698900011135265e-05</v>
+        <v>0.0002674241550266743</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.712442099233158e-05</v>
+        <v>0.001241233432665467</v>
       </c>
       <c r="AV14" t="n">
-        <v>4.431347770150751e-05</v>
+        <v>1.669861012487672e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.457338839827571e-06</v>
+        <v>2.903766289819032e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.819760296319146e-06</v>
+        <v>0.0002355469187023118</v>
       </c>
       <c r="AY14" t="n">
-        <v>9.247153684555087e-06</v>
+        <v>2.952719660243019e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1.014051485981327e-05</v>
+        <v>0.0002837244537658989</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.337438490940258e-05</v>
+        <v>1.207908644573763e-05</v>
       </c>
       <c r="BB14" t="n">
-        <v>3.830839432339417e-06</v>
+        <v>0.0001902713265735656</v>
       </c>
       <c r="BC14" t="n">
-        <v>2.920592669397593e-05</v>
+        <v>4.736156188300811e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.619319639052264e-05</v>
+        <v>4.746713602798991e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.697044328670017e-05</v>
+        <v>7.637438557139831e-07</v>
       </c>
       <c r="BF14" t="n">
-        <v>3.925096734747058e-06</v>
+        <v>0.0002844493428710848</v>
       </c>
       <c r="BG14" t="n">
-        <v>6.115491487435065e-06</v>
+        <v>0.0008216357091441751</v>
       </c>
       <c r="BH14" t="n">
-        <v>6.585287792404415e-06</v>
+        <v>0.0003049129445571452</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.084611994883744e-05</v>
+        <v>0.0004203994758427143</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1.806218097044621e-05</v>
+        <v>0.0001047820042003877</v>
       </c>
       <c r="BK14" t="n">
-        <v>9.770503311301582e-06</v>
+        <v>0.0002161597076337785</v>
       </c>
       <c r="BL14" t="n">
-        <v>1.286828683078056e-05</v>
+        <v>0.0001910929568111897</v>
       </c>
       <c r="BM14" t="n">
-        <v>7.841716978873592e-06</v>
+        <v>8.255366992671043e-05</v>
       </c>
       <c r="BN14" t="n">
-        <v>1.846409213612787e-05</v>
+        <v>5.743705332861282e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>9.874260285869241e-06</v>
+        <v>6.90043016220443e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>2.864376619982067e-05</v>
+        <v>0.0001220749691128731</v>
       </c>
       <c r="BQ14" t="n">
-        <v>6.28817929282377e-07</v>
+        <v>0.0001842811907408759</v>
       </c>
       <c r="BR14" t="n">
-        <v>9.689474609331228e-06</v>
+        <v>0.0001578608062118292</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.173415694211144e-05</v>
+        <v>0.0001009397747111507</v>
       </c>
       <c r="BT14" t="n">
-        <v>2.027373966484447e-06</v>
+        <v>1.783066909410991e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>3.483811087789945e-05</v>
+        <v>0.0002299016778124496</v>
       </c>
       <c r="BV14" t="n">
-        <v>7.630311301909387e-06</v>
+        <v>0.0007862353813834488</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.796288597688545e-05</v>
+        <v>0.0002470333129167557</v>
       </c>
       <c r="BX14" t="n">
-        <v>3.08457892970182e-05</v>
+        <v>7.551360613433644e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>6.13287920714356e-06</v>
+        <v>5.058032184024341e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>2.069773472612724e-05</v>
+        <v>0.0002563529415056109</v>
       </c>
       <c r="CA14" t="n">
-        <v>2.569036951172166e-06</v>
+        <v>0.0001374090934405103</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.128263920691097e-05</v>
+        <v>2.703298014239408e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>6.639191951762768e-07</v>
+        <v>2.971670255647041e-06</v>
       </c>
       <c r="CD14" t="n">
-        <v>2.182673961215187e-05</v>
+        <v>1.480227365391329e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.620299190108199e-05</v>
+        <v>0.0002249443205073476</v>
       </c>
       <c r="CF14" t="n">
-        <v>1.923858326335903e-05</v>
+        <v>5.264060018816963e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>9.36045398702845e-06</v>
+        <v>0.0001273872767342255</v>
       </c>
       <c r="CH14" t="n">
-        <v>2.91018795905984e-06</v>
+        <v>9.881591540761292e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.564581111779262e-06</v>
+        <v>0.0001180034669232555</v>
       </c>
       <c r="CJ14" t="n">
-        <v>4.839293069380801e-06</v>
+        <v>0.0001291388471145183</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.001492091745604e-05</v>
+        <v>3.34826618200168e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>1.414146026945673e-06</v>
+        <v>1.564936610520817e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>4.387081276036042e-07</v>
+        <v>0.0001803829363780096</v>
       </c>
       <c r="CN14" t="n">
-        <v>3.155911690555513e-05</v>
+        <v>0.0001714175741653889</v>
       </c>
       <c r="CO14" t="n">
-        <v>7.790493327775039e-06</v>
+        <v>2.139351636287756e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>5.803490239486564e-06</v>
+        <v>3.789025504374877e-05</v>
       </c>
       <c r="CQ14" t="n">
-        <v>3.007256236742251e-05</v>
+        <v>4.3070140236523e-05</v>
       </c>
       <c r="CR14" t="n">
-        <v>3.908919097739272e-06</v>
+        <v>9.006159962154925e-05</v>
       </c>
       <c r="CS14" t="n">
-        <v>1.267636071133893e-05</v>
+        <v>0.0002702077617868781</v>
       </c>
       <c r="CT14" t="n">
-        <v>3.310736929051927e-06</v>
+        <v>0.0003373978252056986</v>
       </c>
       <c r="CU14" t="n">
-        <v>1.695469291007612e-05</v>
+        <v>5.523204526980408e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>2.1377836674219e-05</v>
+        <v>1.830587279982865e-06</v>
       </c>
       <c r="CW14" t="n">
-        <v>1.175123816210544e-05</v>
+        <v>0.0001574330672156066</v>
       </c>
       <c r="CX14" t="n">
-        <v>1.86880788533017e-05</v>
+        <v>2.294676278324914e-06</v>
       </c>
       <c r="CY14" t="n">
-        <v>5.334667093848111e-06</v>
+        <v>0.0001531709858682007</v>
       </c>
       <c r="CZ14" t="n">
-        <v>1.081824757420691e-05</v>
+        <v>0.0001193353382404894</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.292090246352018e-06</v>
+        <v>0.0001925125980051234</v>
       </c>
       <c r="DB14" t="n">
-        <v>4.550041467155097e-06</v>
+        <v>9.939837036654353e-05</v>
       </c>
       <c r="DC14" t="n">
-        <v>6.266428044909844e-06</v>
+        <v>1.457381040381733e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>2.135609747710987e-06</v>
+        <v>2.421187309664674e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>4.05500759370625e-06</v>
+        <v>6.985255458857864e-05</v>
       </c>
       <c r="DF14" t="n">
-        <v>3.255436240579002e-05</v>
+        <v>0.000324512307997793</v>
       </c>
       <c r="DG14" t="n">
-        <v>5.059282102592988e-06</v>
+        <v>0.0001066046461346559</v>
       </c>
       <c r="DH14" t="n">
-        <v>4.556187832349679e-06</v>
+        <v>0.0002176561392843723</v>
       </c>
       <c r="DI14" t="n">
-        <v>2.08939354706672e-06</v>
+        <v>0.0003616406465880573</v>
       </c>
       <c r="DJ14" t="n">
-        <v>9.153619657809031e-07</v>
+        <v>0.0001416091399732977</v>
       </c>
       <c r="DK14" t="n">
-        <v>1.392550075252075e-05</v>
+        <v>0.0003199028724338859</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.235783838637872e-05</v>
+        <v>5.082532152300701e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>5.525203050638083e-06</v>
+        <v>0.0001751603558659554</v>
       </c>
       <c r="DN14" t="n">
-        <v>7.729877324891277e-07</v>
+        <v>5.745814996771514e-05</v>
       </c>
       <c r="DO14" t="n">
-        <v>2.612348725961056e-05</v>
+        <v>1.676812644291203e-07</v>
       </c>
       <c r="DP14" t="n">
-        <v>9.611953828425612e-06</v>
+        <v>0.0001184039138024673</v>
       </c>
       <c r="DQ14" t="n">
-        <v>3.852301233564503e-06</v>
+        <v>0.0004146515857428312</v>
       </c>
       <c r="DR14" t="n">
-        <v>2.376835254835896e-06</v>
+        <v>8.852566679706797e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.230692305398406e-05</v>
+        <v>0.0004694777890108526</v>
       </c>
       <c r="DT14" t="n">
-        <v>7.907079634605907e-06</v>
+        <v>1.091982994694263e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.203730789711699e-05</v>
+        <v>2.933448195108213e-05</v>
       </c>
       <c r="DV14" t="n">
-        <v>1.643415635044221e-05</v>
+        <v>6.089181988500059e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>6.597522769880015e-06</v>
+        <v>4.907105903839692e-06</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.290394993702648e-05</v>
+        <v>2.503696487110574e-05</v>
       </c>
       <c r="DY14" t="n">
-        <v>3.826492047664942e-06</v>
+        <v>6.328686140477657e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>6.34735033600009e-06</v>
+        <v>0.0001626526500331238</v>
       </c>
       <c r="EA14" t="n">
-        <v>1.264653383259429e-05</v>
+        <v>0.000140504096634686</v>
       </c>
       <c r="EB14" t="n">
-        <v>1.780028287612367e-05</v>
+        <v>0.0002250083634862676</v>
       </c>
       <c r="EC14" t="n">
-        <v>2.36998607761052e-06</v>
+        <v>0.0001180762264993973</v>
       </c>
       <c r="ED14" t="n">
-        <v>2.240104186057579e-05</v>
+        <v>9.354737267130986e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>2.175092731704353e-06</v>
+        <v>3.841397119686007e-05</v>
       </c>
       <c r="EF14" t="n">
-        <v>2.981954821734689e-05</v>
+        <v>0.000138139323098585</v>
       </c>
       <c r="EG14" t="n">
-        <v>1.892988439067267e-05</v>
+        <v>0.0002189378865296021</v>
       </c>
       <c r="EH14" t="n">
-        <v>1.727300150378142e-05</v>
+        <v>1.019776027533226e-05</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.417860221408773e-05</v>
+        <v>0.0001037688634824008</v>
       </c>
       <c r="EJ14" t="n">
-        <v>3.924968950741459e-06</v>
+        <v>0.0002125711180269718</v>
       </c>
       <c r="EK14" t="n">
-        <v>1.0978501450154e-05</v>
+        <v>4.88130099256523e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>9.794601282919757e-06</v>
+        <v>0.0001647954777581617</v>
       </c>
       <c r="EM14" t="n">
-        <v>1.417615567333996e-05</v>
+        <v>9.59271528699901e-06</v>
       </c>
       <c r="EN14" t="n">
-        <v>8.900786269805394e-06</v>
+        <v>4.0073868149193e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>3.030269226655946e-06</v>
+        <v>5.984349991194904e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>1.575294481881429e-05</v>
+        <v>4.710055509349331e-05</v>
       </c>
       <c r="EQ14" t="n">
-        <v>1.622292302272399e-06</v>
+        <v>0.0001742053718771785</v>
       </c>
       <c r="ER14" t="n">
-        <v>1.792492184904404e-05</v>
+        <v>0.000121961158583872</v>
       </c>
       <c r="ES14" t="n">
-        <v>1.402954239893006e-05</v>
+        <v>0.0001586131111253053</v>
       </c>
       <c r="ET14" t="n">
-        <v>2.248906093882397e-05</v>
+        <v>0.0004084569809492677</v>
       </c>
       <c r="EU14" t="n">
-        <v>1.348052319372073e-05</v>
+        <v>6.717244104947895e-06</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.009445350064198e-05</v>
+        <v>4.522484232438728e-06</v>
       </c>
       <c r="EW14" t="n">
-        <v>1.196551602333784e-05</v>
+        <v>5.656131179421209e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>2.011896503972821e-05</v>
+        <v>2.627175854286179e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>8.711012924322858e-06</v>
+        <v>0.0001748341019265354</v>
       </c>
       <c r="EZ14" t="n">
-        <v>1.958109896804672e-05</v>
+        <v>4.423105565365404e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>6.040738298906945e-06</v>
+        <v>0.0001567951985634863</v>
       </c>
       <c r="FB14" t="n">
-        <v>3.105872337982873e-06</v>
+        <v>5.69613475818187e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>2.196562718381756e-06</v>
+        <v>0.000156582216732204</v>
       </c>
       <c r="FD14" t="n">
-        <v>4.870081738772569e-06</v>
+        <v>0.0001116265339078382</v>
       </c>
       <c r="FE14" t="n">
-        <v>6.733399459335487e-06</v>
+        <v>2.084299012494739e-06</v>
       </c>
       <c r="FF14" t="n">
-        <v>2.011551941905054e-06</v>
+        <v>2.500291157048196e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>1.545393752167001e-05</v>
+        <v>9.160196350421757e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>1.029630311677465e-05</v>
+        <v>0.0001368815283058211</v>
       </c>
       <c r="FI14" t="n">
-        <v>1.157342012447771e-05</v>
+        <v>0.0001620240946067497</v>
       </c>
       <c r="FJ14" t="n">
-        <v>2.248121199954767e-05</v>
+        <v>0.0002500355476513505</v>
       </c>
       <c r="FK14" t="n">
-        <v>1.457874986954266e-05</v>
+        <v>4.976012132829055e-05</v>
       </c>
       <c r="FL14" t="n">
-        <v>1.823359639274713e-06</v>
+        <v>0.0001994353660847992</v>
       </c>
       <c r="FM14" t="n">
-        <v>1.942932249221485e-05</v>
+        <v>5.014377529732883e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>2.340023638680577e-05</v>
+        <v>0.0001025712917908095</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.289997362619033e-05</v>
+        <v>2.751813008217141e-05</v>
       </c>
       <c r="FP14" t="n">
-        <v>1.716045335342642e-05</v>
+        <v>1.554222035338171e-05</v>
       </c>
       <c r="FQ14" t="n">
-        <v>4.38337228843011e-05</v>
+        <v>0.0005355707253329456</v>
       </c>
       <c r="FR14" t="n">
-        <v>1.143359531852184e-05</v>
+        <v>5.269957182463259e-05</v>
       </c>
       <c r="FS14" t="n">
-        <v>1.141066331911134e-05</v>
+        <v>0.0003190279821865261</v>
       </c>
       <c r="FT14" t="n">
-        <v>7.75596436142223e-06</v>
+        <v>0.0001122289395425469</v>
       </c>
       <c r="FU14" t="n">
-        <v>1.455596520827385e-05</v>
+        <v>3.960415415349416e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>4.939061000186484e-06</v>
+        <v>0.0001621508417883888</v>
       </c>
       <c r="FW14" t="n">
-        <v>6.754805781383766e-06</v>
+        <v>8.433301991317421e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>1.541380152048077e-05</v>
+        <v>0.0001925833348650485</v>
       </c>
       <c r="FY14" t="n">
-        <v>6.858143024146557e-06</v>
+        <v>3.143020148854703e-05</v>
       </c>
       <c r="FZ14" t="n">
-        <v>2.336376928724349e-05</v>
+        <v>0.0002090919442707673</v>
       </c>
       <c r="GA14" t="n">
-        <v>2.891136773541803e-06</v>
+        <v>0.0002273121353937313</v>
       </c>
       <c r="GB14" t="n">
-        <v>1.469890776206739e-05</v>
+        <v>4.044581874040887e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>2.775453594949795e-06</v>
+        <v>5.159938882570714e-05</v>
       </c>
       <c r="GD14" t="n">
-        <v>2.152689376089256e-05</v>
+        <v>0.0001490189752075821</v>
       </c>
       <c r="GE14" t="n">
-        <v>6.566851880052127e-07</v>
+        <v>0.0001436555321561173</v>
       </c>
       <c r="GF14" t="n">
-        <v>1.573718509462196e-05</v>
+        <v>6.862070222268812e-06</v>
       </c>
       <c r="GG14" t="n">
-        <v>7.809167072991841e-06</v>
+        <v>2.326460889889859e-05</v>
       </c>
     </row>
     <row r="15">
@@ -8970,571 +8970,571 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001632106577744707</v>
+        <v>0.0003685256233438849</v>
       </c>
       <c r="B16" t="n">
-        <v>3.934150299755856e-05</v>
+        <v>0.00548852514475584</v>
       </c>
       <c r="C16" t="n">
-        <v>8.761191566009074e-05</v>
+        <v>0.0003503658517729491</v>
       </c>
       <c r="D16" t="n">
-        <v>5.90941563132219e-05</v>
+        <v>0.001935375854372978</v>
       </c>
       <c r="E16" t="n">
-        <v>4.462565357243875e-06</v>
+        <v>0.0006112621631473303</v>
       </c>
       <c r="F16" t="n">
-        <v>3.942424882552586e-06</v>
+        <v>0.001210892107337713</v>
       </c>
       <c r="G16" t="n">
-        <v>4.969923611497506e-05</v>
+        <v>0.0002183168398914859</v>
       </c>
       <c r="H16" t="n">
-        <v>2.362045051995665e-05</v>
+        <v>0.0005196794518269598</v>
       </c>
       <c r="I16" t="n">
-        <v>3.90162349503953e-05</v>
+        <v>0.00117372116073966</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001511999580543488</v>
+        <v>0.0006290130550041795</v>
       </c>
       <c r="K16" t="n">
-        <v>2.866006252588704e-05</v>
+        <v>0.005226342007517815</v>
       </c>
       <c r="L16" t="n">
-        <v>9.909201617119834e-05</v>
+        <v>0.0006838947301730514</v>
       </c>
       <c r="M16" t="n">
-        <v>3.13537020701915e-05</v>
+        <v>0.001995627535507083</v>
       </c>
       <c r="N16" t="n">
-        <v>2.348752241232432e-05</v>
+        <v>0.0009334806818515062</v>
       </c>
       <c r="O16" t="n">
-        <v>8.6816398834344e-06</v>
+        <v>0.001422218745574355</v>
       </c>
       <c r="P16" t="n">
-        <v>5.505519220605493e-05</v>
+        <v>0.0005521342973224819</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.17174383578822e-05</v>
+        <v>0.0006828238256275654</v>
       </c>
       <c r="R16" t="n">
-        <v>6.017962004989386e-05</v>
+        <v>0.0003049873048439622</v>
       </c>
       <c r="S16" t="n">
-        <v>5.917893759033177e-06</v>
+        <v>0.0001701921573840082</v>
       </c>
       <c r="T16" t="n">
-        <v>3.776210360229015e-05</v>
+        <v>0.0003966421354562044</v>
       </c>
       <c r="U16" t="n">
-        <v>5.101141596242087e-06</v>
+        <v>0.0008664525812491775</v>
       </c>
       <c r="V16" t="n">
-        <v>4.164999609201914e-06</v>
+        <v>0.0002125328464899212</v>
       </c>
       <c r="W16" t="n">
-        <v>1.312671247433173e-05</v>
+        <v>4.244883893989027e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>5.932812428000034e-07</v>
+        <v>0.0001957906933967024</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.061808229176677e-07</v>
+        <v>0.00025647904840298</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.365441287111025e-05</v>
+        <v>1.646461169002578e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.137566848949064e-06</v>
+        <v>0.0003036850248463452</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.430595602869289e-06</v>
+        <v>0.0003223663661628962</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.517289643350523e-06</v>
+        <v>0.00102128810249269</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.258521297131665e-05</v>
+        <v>0.001118921092711389</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.644539588596672e-05</v>
+        <v>9.92530258372426e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.521952253824566e-05</v>
+        <v>0.0002934599760919809</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.719048327686323e-06</v>
+        <v>2.298860636074096e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.950346995727159e-05</v>
+        <v>0.0002826025011017919</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.006503018492367e-05</v>
+        <v>0.0001516940974397585</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.799186040647328e-05</v>
+        <v>0.0003178164479322731</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.209133890573867e-05</v>
+        <v>0.0004942358937114477</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.613812077674083e-05</v>
+        <v>0.0004543442628346384</v>
       </c>
       <c r="AM16" t="n">
-        <v>5.907972990826238e-06</v>
+        <v>0.0009302415419369936</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.209653004887514e-05</v>
+        <v>0.0001553944748593494</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.177567355625797e-05</v>
+        <v>0.0003510176902636886</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.738757969695143e-06</v>
+        <v>0.0004390909743960947</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.555645212647505e-08</v>
+        <v>0.0006742172408849001</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.123117181123234e-05</v>
+        <v>0.0001775053824530914</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.554879529270693e-06</v>
+        <v>0.0001978870423045009</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.864401075290516e-05</v>
+        <v>0.0005355636822059751</v>
       </c>
       <c r="AU16" t="n">
-        <v>1.829516259022057e-05</v>
+        <v>0.004737746901810169</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.989897934137844e-05</v>
+        <v>0.00146492337808013</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.120955964026507e-06</v>
+        <v>9.806040179682896e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>9.193159712594934e-06</v>
+        <v>0.001876441179774702</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.122094494756311e-05</v>
+        <v>0.0001883773074951023</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.507115641492419e-05</v>
+        <v>0.0004249799530953169</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.281141835032031e-05</v>
+        <v>1.986438292078674e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>3.809120244113728e-06</v>
+        <v>0.0006071306997910142</v>
       </c>
       <c r="BC16" t="n">
-        <v>4.162015829933807e-05</v>
+        <v>0.0002389979345025495</v>
       </c>
       <c r="BD16" t="n">
-        <v>3.621308860601857e-05</v>
+        <v>0.00106169655919075</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.262048630858772e-05</v>
+        <v>0.0006379771512001753</v>
       </c>
       <c r="BF16" t="n">
-        <v>4.676395747083006e-06</v>
+        <v>7.849965913919732e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.161211002909113e-05</v>
+        <v>0.0005761414649896324</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.892900763778016e-05</v>
+        <v>0.001571185071952641</v>
       </c>
       <c r="BI16" t="n">
-        <v>3.273768379585817e-05</v>
+        <v>0.0001265097671421245</v>
       </c>
       <c r="BJ16" t="n">
-        <v>3.515764547046274e-05</v>
+        <v>0.0004314145771786571</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.731528391246684e-05</v>
+        <v>0.0005559867131523788</v>
       </c>
       <c r="BL16" t="n">
-        <v>2.419096745143179e-05</v>
+        <v>0.0006668514688499272</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.14606600618572e-05</v>
+        <v>0.000189392187166959</v>
       </c>
       <c r="BN16" t="n">
-        <v>1.764401531545445e-05</v>
+        <v>0.0001234108931384981</v>
       </c>
       <c r="BO16" t="n">
-        <v>3.412156274862355e-06</v>
+        <v>0.000369964400306344</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.866412251023576e-05</v>
+        <v>0.0006757783703505993</v>
       </c>
       <c r="BQ16" t="n">
-        <v>8.299830369651318e-06</v>
+        <v>0.0004288837953936309</v>
       </c>
       <c r="BR16" t="n">
-        <v>8.492079359712079e-06</v>
+        <v>0.00062644446734339</v>
       </c>
       <c r="BS16" t="n">
-        <v>6.010512151988223e-06</v>
+        <v>0.0005091400817036629</v>
       </c>
       <c r="BT16" t="n">
-        <v>6.298262633208651e-06</v>
+        <v>0.0001894852466648445</v>
       </c>
       <c r="BU16" t="n">
-        <v>5.711844642064534e-05</v>
+        <v>0.0003048338112421334</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.374750172544736e-05</v>
+        <v>0.002040222520008683</v>
       </c>
       <c r="BW16" t="n">
-        <v>1.749416696839035e-05</v>
+        <v>0.000823156675323844</v>
       </c>
       <c r="BX16" t="n">
-        <v>4.254385203239508e-05</v>
+        <v>0.0002317886101081967</v>
       </c>
       <c r="BY16" t="n">
-        <v>2.33613154705381e-05</v>
+        <v>0.001093362225219607</v>
       </c>
       <c r="BZ16" t="n">
-        <v>7.331461347348522e-06</v>
+        <v>0.0003729015006683767</v>
       </c>
       <c r="CA16" t="n">
-        <v>6.105869942985009e-06</v>
+        <v>0.00033877621171996</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.940149377333e-05</v>
+        <v>0.0002295585436513647</v>
       </c>
       <c r="CC16" t="n">
-        <v>1.567413346492685e-05</v>
+        <v>5.672328188666143e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>3.345714139868505e-05</v>
+        <v>8.284372597699985e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>2.533187580411322e-05</v>
+        <v>0.0008947089081630111</v>
       </c>
       <c r="CF16" t="n">
-        <v>1.85306889761705e-05</v>
+        <v>0.0001221321726916358</v>
       </c>
       <c r="CG16" t="n">
-        <v>1.182031519419979e-05</v>
+        <v>2.400069570285268e-05</v>
       </c>
       <c r="CH16" t="n">
-        <v>3.346487346789218e-06</v>
+        <v>0.0002459728566464037</v>
       </c>
       <c r="CI16" t="n">
-        <v>4.943520707456628e-06</v>
+        <v>0.0002142053854186088</v>
       </c>
       <c r="CJ16" t="n">
-        <v>6.425007086363621e-06</v>
+        <v>0.0002973259252030402</v>
       </c>
       <c r="CK16" t="n">
-        <v>7.208891929622041e-06</v>
+        <v>2.801868868118618e-05</v>
       </c>
       <c r="CL16" t="n">
-        <v>3.147787992929807e-06</v>
+        <v>2.492826752131805e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>2.423313844701624e-06</v>
+        <v>0.0007137333159334958</v>
       </c>
       <c r="CN16" t="n">
-        <v>2.665181091288105e-05</v>
+        <v>0.001174024422653019</v>
       </c>
       <c r="CO16" t="n">
-        <v>1.178840466309339e-05</v>
+        <v>8.805612742435187e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>8.817482921585906e-07</v>
+        <v>0.001539605902507901</v>
       </c>
       <c r="CQ16" t="n">
-        <v>3.919921437045559e-05</v>
+        <v>0.001385051757097244</v>
       </c>
       <c r="CR16" t="n">
-        <v>1.366945070913061e-06</v>
+        <v>0.0004211400810163468</v>
       </c>
       <c r="CS16" t="n">
-        <v>3.39722573698964e-05</v>
+        <v>0.0006350934854708612</v>
       </c>
       <c r="CT16" t="n">
-        <v>1.410470395057928e-05</v>
+        <v>0.001475891447626054</v>
       </c>
       <c r="CU16" t="n">
-        <v>1.085298754333053e-05</v>
+        <v>0.0004048672853969038</v>
       </c>
       <c r="CV16" t="n">
-        <v>3.324725548736751e-05</v>
+        <v>4.847351010539569e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>1.93007945199497e-05</v>
+        <v>0.0008437571232207119</v>
       </c>
       <c r="CX16" t="n">
-        <v>2.07716911972966e-05</v>
+        <v>8.464956044917926e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>5.487011549121235e-06</v>
+        <v>0.0001663009024923667</v>
       </c>
       <c r="CZ16" t="n">
-        <v>1.907888145069592e-05</v>
+        <v>0.0002711488923523575</v>
       </c>
       <c r="DA16" t="n">
-        <v>3.488220500003081e-06</v>
+        <v>0.0004095601907465607</v>
       </c>
       <c r="DB16" t="n">
-        <v>5.875915121578146e-06</v>
+        <v>0.0002492254134267569</v>
       </c>
       <c r="DC16" t="n">
-        <v>3.814617230091244e-06</v>
+        <v>9.265430708182976e-05</v>
       </c>
       <c r="DD16" t="n">
-        <v>2.980251338158268e-06</v>
+        <v>9.037769632413983e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>6.777768703614129e-06</v>
+        <v>0.000366765249054879</v>
       </c>
       <c r="DF16" t="n">
-        <v>4.874923979514278e-05</v>
+        <v>0.0004239487461745739</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.29144773381995e-05</v>
+        <v>0.0003252035530749708</v>
       </c>
       <c r="DH16" t="n">
-        <v>1.232534305017907e-05</v>
+        <v>0.0009329678723588586</v>
       </c>
       <c r="DI16" t="n">
-        <v>8.990497008198872e-06</v>
+        <v>0.0009051450761035085</v>
       </c>
       <c r="DJ16" t="n">
-        <v>8.631986929685809e-06</v>
+        <v>0.0005998869310133159</v>
       </c>
       <c r="DK16" t="n">
-        <v>9.514282282907516e-06</v>
+        <v>0.000231764410273172</v>
       </c>
       <c r="DL16" t="n">
-        <v>1.374555722577497e-05</v>
+        <v>0.0004039049381390214</v>
       </c>
       <c r="DM16" t="n">
-        <v>9.181082532450091e-06</v>
+        <v>0.0002965579042211175</v>
       </c>
       <c r="DN16" t="n">
-        <v>4.396424628794193e-06</v>
+        <v>0.0001770905364537612</v>
       </c>
       <c r="DO16" t="n">
-        <v>3.774777360376902e-05</v>
+        <v>7.518283382523805e-06</v>
       </c>
       <c r="DP16" t="n">
-        <v>9.095287168747745e-06</v>
+        <v>0.0001256922696484253</v>
       </c>
       <c r="DQ16" t="n">
-        <v>7.970315891725477e-07</v>
+        <v>0.0004553420876618475</v>
       </c>
       <c r="DR16" t="n">
-        <v>3.884515535901301e-06</v>
+        <v>0.0003483712498564273</v>
       </c>
       <c r="DS16" t="n">
-        <v>2.076273176498944e-06</v>
+        <v>5.880474418518133e-06</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.778777368599549e-05</v>
+        <v>0.0001581418036948889</v>
       </c>
       <c r="DU16" t="n">
-        <v>3.746456968656275e-06</v>
+        <v>0.0002264998765895143</v>
       </c>
       <c r="DV16" t="n">
-        <v>7.779763109283522e-06</v>
+        <v>0.0001089398501790129</v>
       </c>
       <c r="DW16" t="n">
-        <v>1.45874882946373e-05</v>
+        <v>0.0001074503816198558</v>
       </c>
       <c r="DX16" t="n">
-        <v>1.364519812341314e-05</v>
+        <v>0.0002630185626912862</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.336632405786077e-06</v>
+        <v>0.0001964211405720562</v>
       </c>
       <c r="DZ16" t="n">
-        <v>1.404980866936967e-05</v>
+        <v>0.0001299282012041658</v>
       </c>
       <c r="EA16" t="n">
-        <v>3.494902193779126e-05</v>
+        <v>0.0004576818319037557</v>
       </c>
       <c r="EB16" t="n">
-        <v>7.214218385342974e-06</v>
+        <v>0.0002741302305366844</v>
       </c>
       <c r="EC16" t="n">
-        <v>3.300313665022259e-06</v>
+        <v>4.35989277320914e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>2.028155540756416e-05</v>
+        <v>0.0008801391231827438</v>
       </c>
       <c r="EE16" t="n">
-        <v>7.468509011232527e-08</v>
+        <v>9.16886783670634e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>4.64487966382876e-05</v>
+        <v>0.0002151339867850766</v>
       </c>
       <c r="EG16" t="n">
-        <v>2.399336153757758e-05</v>
+        <v>0.001087434240616858</v>
       </c>
       <c r="EH16" t="n">
-        <v>1.680911009316333e-05</v>
+        <v>0.0003613869484979659</v>
       </c>
       <c r="EI16" t="n">
-        <v>1.091977901523933e-05</v>
+        <v>0.0005143521702848375</v>
       </c>
       <c r="EJ16" t="n">
-        <v>2.644995674927486e-06</v>
+        <v>0.0006363834836520255</v>
       </c>
       <c r="EK16" t="n">
-        <v>1.356131997454213e-05</v>
+        <v>0.0001128023432102054</v>
       </c>
       <c r="EL16" t="n">
-        <v>1.198355766973691e-05</v>
+        <v>0.0001599125098437071</v>
       </c>
       <c r="EM16" t="n">
-        <v>8.661946594656911e-06</v>
+        <v>1.861640157585498e-06</v>
       </c>
       <c r="EN16" t="n">
-        <v>9.406390745425597e-06</v>
+        <v>0.0001267260377062485</v>
       </c>
       <c r="EO16" t="n">
-        <v>4.097332748642657e-06</v>
+        <v>0.0002630534581840038</v>
       </c>
       <c r="EP16" t="n">
-        <v>2.474692701071035e-05</v>
+        <v>0.001117897569201887</v>
       </c>
       <c r="EQ16" t="n">
-        <v>7.213550361484522e-06</v>
+        <v>0.0004422441124916077</v>
       </c>
       <c r="ER16" t="n">
-        <v>1.632751809665933e-05</v>
+        <v>0.000285306537989527</v>
       </c>
       <c r="ES16" t="n">
-        <v>1.763941327226348e-05</v>
+        <v>0.000614642514847219</v>
       </c>
       <c r="ET16" t="n">
-        <v>1.142170276580146e-05</v>
+        <v>0.0006349085597321391</v>
       </c>
       <c r="EU16" t="n">
-        <v>1.674912164162379e-05</v>
+        <v>9.591397974872962e-05</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.40680340336985e-05</v>
+        <v>0.00032469053985551</v>
       </c>
       <c r="EW16" t="n">
-        <v>1.091811009246157e-05</v>
+        <v>0.0004465346282813698</v>
       </c>
       <c r="EX16" t="n">
-        <v>3.162924986099824e-05</v>
+        <v>0.0001231686910614371</v>
       </c>
       <c r="EY16" t="n">
-        <v>1.586061443958897e-05</v>
+        <v>0.0007943430682644248</v>
       </c>
       <c r="EZ16" t="n">
-        <v>2.179063449148089e-05</v>
+        <v>0.0002549689379520714</v>
       </c>
       <c r="FA16" t="n">
-        <v>6.348290753521724e-06</v>
+        <v>3.791672861552797e-05</v>
       </c>
       <c r="FB16" t="n">
-        <v>9.377247806696687e-06</v>
+        <v>0.0001230116322403774</v>
       </c>
       <c r="FC16" t="n">
-        <v>1.343095050287957e-06</v>
+        <v>0.0002669685345608741</v>
       </c>
       <c r="FD16" t="n">
-        <v>5.102946033730404e-06</v>
+        <v>7.268775516422465e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>4.660873855755199e-06</v>
+        <v>7.416451262542978e-05</v>
       </c>
       <c r="FF16" t="n">
-        <v>4.208443897368852e-06</v>
+        <v>0.0001037485199049115</v>
       </c>
       <c r="FG16" t="n">
-        <v>2.695569128263742e-05</v>
+        <v>7.146678399294615e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>1.414953476341907e-05</v>
+        <v>6.681623199256137e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>1.539987533760723e-05</v>
+        <v>0.0003355004591867328</v>
       </c>
       <c r="FJ16" t="n">
-        <v>1.843468453444075e-05</v>
+        <v>0.0006145680672489107</v>
       </c>
       <c r="FK16" t="n">
-        <v>1.257387611985905e-05</v>
+        <v>2.335000317543745e-07</v>
       </c>
       <c r="FL16" t="n">
-        <v>4.239931513438933e-06</v>
+        <v>1.508253444626462e-05</v>
       </c>
       <c r="FM16" t="n">
-        <v>2.992522422573529e-05</v>
+        <v>0.0005636339192278683</v>
       </c>
       <c r="FN16" t="n">
-        <v>3.813976582023315e-05</v>
+        <v>0.0005223033367656171</v>
       </c>
       <c r="FO16" t="n">
-        <v>1.129557495005429e-05</v>
+        <v>0.0001184260472655296</v>
       </c>
       <c r="FP16" t="n">
-        <v>1.359901762043592e-05</v>
+        <v>0.0006096466677263379</v>
       </c>
       <c r="FQ16" t="n">
-        <v>4.848110256716609e-05</v>
+        <v>0.001800489029847085</v>
       </c>
       <c r="FR16" t="n">
-        <v>6.42383702142979e-06</v>
+        <v>0.0005423270049504936</v>
       </c>
       <c r="FS16" t="n">
-        <v>3.071905302931555e-05</v>
+        <v>0.0007293292437680066</v>
       </c>
       <c r="FT16" t="n">
-        <v>9.846076864050701e-06</v>
+        <v>0.001628794707357883</v>
       </c>
       <c r="FU16" t="n">
-        <v>4.903849003312644e-06</v>
+        <v>0.001012749737128615</v>
       </c>
       <c r="FV16" t="n">
-        <v>7.906069185992237e-07</v>
+        <v>0.0002788587298709899</v>
       </c>
       <c r="FW16" t="n">
-        <v>1.293641798838507e-05</v>
+        <v>1.406791852787137e-06</v>
       </c>
       <c r="FX16" t="n">
-        <v>1.126645292970352e-05</v>
+        <v>0.0005829363944940269</v>
       </c>
       <c r="FY16" t="n">
-        <v>7.945141987875104e-06</v>
+        <v>0.0001832182169891894</v>
       </c>
       <c r="FZ16" t="n">
-        <v>2.68942258117022e-05</v>
+        <v>0.0007145041599869728</v>
       </c>
       <c r="GA16" t="n">
-        <v>1.361352133244509e-06</v>
+        <v>4.880791493633296e-06</v>
       </c>
       <c r="GB16" t="n">
-        <v>1.721737135085277e-05</v>
+        <v>0.0006711768801324069</v>
       </c>
       <c r="GC16" t="n">
-        <v>2.755589775915723e-06</v>
+        <v>0.0004426340165082365</v>
       </c>
       <c r="GD16" t="n">
-        <v>1.667020114837214e-05</v>
+        <v>0.0003948589728679508</v>
       </c>
       <c r="GE16" t="n">
-        <v>9.453686288907193e-06</v>
+        <v>0.0001509324065409601</v>
       </c>
       <c r="GF16" t="n">
-        <v>2.819136534526478e-05</v>
+        <v>0.0001328701328020543</v>
       </c>
       <c r="GG16" t="n">
-        <v>9.533824595564511e-06</v>
+        <v>0.0007310268701985478</v>
       </c>
     </row>
     <row r="17">
@@ -10108,571 +10108,571 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.004280192777514458</v>
+        <v>0.0007232131902128458</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0002714726724661887</v>
+        <v>0.07323697209358215</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00494907982647419</v>
+        <v>0.009332195855677128</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001949670375324786</v>
+        <v>0.03504924103617668</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002695169299840927</v>
+        <v>0.03907980024814606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0005833315080963075</v>
+        <v>0.02990692853927612</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00129383709281683</v>
+        <v>0.01423895452171564</v>
       </c>
       <c r="H18" t="n">
-        <v>7.702370203332976e-05</v>
+        <v>0.02402032166719437</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001437146565876901</v>
+        <v>0.001835681730881333</v>
       </c>
       <c r="J18" t="n">
-        <v>0.004451452754437923</v>
+        <v>0.0008072894997894764</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0004425518272910267</v>
+        <v>0.06137196347117424</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005058933515101671</v>
+        <v>0.003436010796576738</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0009729483863338828</v>
+        <v>0.02113978937268257</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001184357097372413</v>
+        <v>0.02477126754820347</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0004245443269610405</v>
+        <v>0.02941547520458698</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0004994723713025451</v>
+        <v>0.01300888508558273</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0009474609978497028</v>
+        <v>0.004631909541785717</v>
       </c>
       <c r="R18" t="n">
-        <v>0.002081811660900712</v>
+        <v>0.003752089571207762</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0002450626343488693</v>
+        <v>0.001470937277190387</v>
       </c>
       <c r="T18" t="n">
-        <v>0.00161004054825753</v>
+        <v>0.01161795295774937</v>
       </c>
       <c r="U18" t="n">
-        <v>3.864629252348095e-05</v>
+        <v>0.001025028061121702</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0005717526655644178</v>
+        <v>0.01237614452838898</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0001439220504835248</v>
+        <v>0.009779474698007107</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0003287451399955899</v>
+        <v>0.002558631589636207</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0006359199178405106</v>
+        <v>0.005269096232950687</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0009409672347828746</v>
+        <v>0.01102349441498518</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.950053597800434e-06</v>
+        <v>0.006451552733778954</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0001096022606361657</v>
+        <v>0.004477008245885372</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.000327335437759757</v>
+        <v>0.00576293095946312</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0001603176060598344</v>
+        <v>0.002322602085769176</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0002857613144442439</v>
+        <v>0.005636401008814573</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0006725554703734815</v>
+        <v>0.006834377534687519</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0002304470835952088</v>
+        <v>0.00496002659201622</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0001527144340798259</v>
+        <v>0.008293246850371361</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.001897953450679779</v>
+        <v>0.008338660933077335</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.001360132591798902</v>
+        <v>0.003816619981080294</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0008724307408556342</v>
+        <v>0.006512521766126156</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.001560710021294653</v>
+        <v>0.01823567971587181</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0004691358772106469</v>
+        <v>0.002584610600024462</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0009782703127712011</v>
+        <v>0.003697742242366076</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0001643121358938515</v>
+        <v>0.001033389125950634</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.000150982872582972</v>
+        <v>0.01373051293194294</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.0001096660635084845</v>
+        <v>0.0006689894944429398</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0008364871027879417</v>
+        <v>0.009864936582744122</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.0001170511823147535</v>
+        <v>0.00747118704020977</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.001580895856022835</v>
+        <v>0.005787738598883152</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.001426993519999087</v>
+        <v>0.05509481579065323</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.002671865047886968</v>
+        <v>0.000830640085041523</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.001247890759259462</v>
+        <v>0.003879271680489182</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0002815499028656632</v>
+        <v>0.01087738573551178</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.001809814828447998</v>
+        <v>0.01630708016455173</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.0006628938717767596</v>
+        <v>0.002000659937039018</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0008931657648645341</v>
+        <v>0.0139271579682827</v>
       </c>
       <c r="BB18" t="n">
-        <v>3.38120007654652e-05</v>
+        <v>0.003385134972631931</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0007446311064995825</v>
+        <v>0.0003292891196906567</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.0004344681510701776</v>
+        <v>0.008661854080855846</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.001508940476924181</v>
+        <v>0.007805638946592808</v>
       </c>
       <c r="BF18" t="n">
-        <v>9.787439194042236e-05</v>
+        <v>0.008548934012651443</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.001496087061241269</v>
+        <v>0.02081038057804108</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.0009056553826667368</v>
+        <v>0.003732822835445404</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.001410528318956494</v>
+        <v>0.01327074877917767</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.001058596302755177</v>
+        <v>0.012590067461133</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.0003570771077647805</v>
+        <v>0.003749889554455876</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.0005137358093634248</v>
+        <v>0.009532762691378593</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0005736096063628793</v>
+        <v>0.0115637443959713</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.000955314957536757</v>
+        <v>0.003474289085716009</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.0001219691475853324</v>
+        <v>0.003604021389037371</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.001066283090040088</v>
+        <v>0.002366311615332961</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.0001861097698565573</v>
+        <v>0.006875894498080015</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.0002852431498467922</v>
+        <v>0.003566626459360123</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0009435091633349657</v>
+        <v>0.005741163156926632</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.0001498560595791787</v>
+        <v>0.007002085447311401</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.001694358885288239</v>
+        <v>0.006812591571360826</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.0005368799902498722</v>
+        <v>0.03491942957043648</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.001175632700324059</v>
+        <v>0.01311877556145191</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.00127811694983393</v>
+        <v>0.004204056225717068</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.001118344371207058</v>
+        <v>0.008220972493290901</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.0002903074491769075</v>
+        <v>0.002191991545259953</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.0003795173834078014</v>
+        <v>0.003524231957271695</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.0003276593051850796</v>
+        <v>0.003626296995207667</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.0006910524680279195</v>
+        <v>0.006016177125275135</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.0009411039063706994</v>
+        <v>0.002028041053563356</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.001035836059600115</v>
+        <v>0.01014235615730286</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.0009480001172050834</v>
+        <v>0.002535735722631216</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.0002079458499792963</v>
+        <v>0.005896788090467453</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.0003200990031473339</v>
+        <v>0.001846517785452306</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.0005664537893608212</v>
+        <v>0.005169836804270744</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.0002298144827364013</v>
+        <v>0.004077254328876734</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.0002557615225668997</v>
+        <v>0.004216906614601612</v>
       </c>
       <c r="CL18" t="n">
-        <v>9.119325113715604e-06</v>
+        <v>0.003804543521255255</v>
       </c>
       <c r="CM18" t="n">
-        <v>3.153819852741435e-05</v>
+        <v>0.008372101932764053</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.0008836607448756695</v>
+        <v>0.005565297789871693</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.0002742698416113853</v>
+        <v>0.0001307912170886993</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.0002841525711119175</v>
+        <v>0.009431169368326664</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.0009184766095131636</v>
+        <v>0.009866555221378803</v>
       </c>
       <c r="CR18" t="n">
-        <v>2.684783248696476e-05</v>
+        <v>0.004935581237077713</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.0002003456902457401</v>
+        <v>0.01467872504144907</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.000242667505517602</v>
+        <v>0.01483918819576502</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.00068098702467978</v>
+        <v>0.001548848696984351</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.0009128471720032394</v>
+        <v>0.00202804640866816</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.001013132627122104</v>
+        <v>0.008618553169071674</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.001013068598695099</v>
+        <v>0.003293181536719203</v>
       </c>
       <c r="CY18" t="n">
-        <v>2.458183007547632e-05</v>
+        <v>0.008700260892510414</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0008290664409287274</v>
+        <v>0.001340007525868714</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.0005546867032535374</v>
+        <v>0.00907435454428196</v>
       </c>
       <c r="DB18" t="n">
-        <v>0.0002547048788983375</v>
+        <v>0.003103140508756042</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.0001159960811492056</v>
+        <v>0.005464321933686733</v>
       </c>
       <c r="DD18" t="n">
-        <v>8.798419003142044e-05</v>
+        <v>0.0009085648925974965</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.0003241504018660635</v>
+        <v>0.003284411272034049</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.002069661393761635</v>
+        <v>0.008281569927930832</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.0006102701299823821</v>
+        <v>0.003406904870644212</v>
       </c>
       <c r="DH18" t="n">
-        <v>2.667930675670505e-05</v>
+        <v>0.02576043829321861</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0006768082967028022</v>
+        <v>0.01100722700357437</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.0001583538250997663</v>
+        <v>0.003726084250956774</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.000188735342817381</v>
+        <v>0.01260572671890259</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.000331997056491673</v>
+        <v>0.006388726644217968</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.000502132170367986</v>
+        <v>0.007457803469151258</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.0003213201416656375</v>
+        <v>0.00201886729337275</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.001055918051861227</v>
+        <v>0.006989662069827318</v>
       </c>
       <c r="DP18" t="n">
-        <v>9.141846385318786e-05</v>
+        <v>0.00460658548399806</v>
       </c>
       <c r="DQ18" t="n">
-        <v>6.261700764298439e-05</v>
+        <v>0.005305519327521324</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.0005358571070246398</v>
+        <v>0.0007051688153296709</v>
       </c>
       <c r="DS18" t="n">
-        <v>5.706059164367616e-05</v>
+        <v>0.008943047374486923</v>
       </c>
       <c r="DT18" t="n">
-        <v>4.867659299634397e-05</v>
+        <v>0.00282702874392271</v>
       </c>
       <c r="DU18" t="n">
-        <v>4.431421984918416e-06</v>
+        <v>0.003905817167833447</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.0005654987180605531</v>
+        <v>0.003172978525981307</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.0003564360085874796</v>
+        <v>0.003830681322142482</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.0001951437734533101</v>
+        <v>0.002291380893439054</v>
       </c>
       <c r="DY18" t="n">
-        <v>4.663594882003963e-05</v>
+        <v>0.008718498051166534</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.0003971557016484439</v>
+        <v>9.98261384665966e-05</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.0007829393725842237</v>
+        <v>0.005418511107563972</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.0002347277768421918</v>
+        <v>0.006144034210592508</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.0002046859153779224</v>
+        <v>0.0003257442731410265</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.001182577107101679</v>
+        <v>0.005076531320810318</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.0002823827671818435</v>
+        <v>0.0001260429853573442</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.001402482856065035</v>
+        <v>0.002025339286774397</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.0006515209679491818</v>
+        <v>0.00987965427339077</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.00092559854965657</v>
+        <v>0.00417507765814662</v>
       </c>
       <c r="EI18" t="n">
-        <v>0.000265070324530825</v>
+        <v>0.003055643057450652</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.0002978910342790186</v>
+        <v>0.01095179095864296</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.001265585538931191</v>
+        <v>0.004819945897907019</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.000101940066087991</v>
+        <v>0.004992373287677765</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.0009063915931619704</v>
+        <v>0.002924009459093213</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.0007132632890716195</v>
+        <v>0.0001331319799646735</v>
       </c>
       <c r="EO18" t="n">
-        <v>8.39545828057453e-06</v>
+        <v>0.0003072270192205906</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.001368649303913116</v>
+        <v>0.002828328870236874</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.0006100420141592622</v>
+        <v>0.009562257677316666</v>
       </c>
       <c r="ER18" t="n">
-        <v>1.248146872967482e-06</v>
+        <v>0.008943933062255383</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.0003261333622504026</v>
+        <v>0.005487105809152126</v>
       </c>
       <c r="ET18" t="n">
-        <v>0.0006095157586969435</v>
+        <v>0.01350124645978212</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.0005509216571226716</v>
+        <v>0.004083711188286543</v>
       </c>
       <c r="EV18" t="n">
-        <v>0.0002199235605075955</v>
+        <v>0.01268477737903595</v>
       </c>
       <c r="EW18" t="n">
-        <v>0.0005395959015004337</v>
+        <v>0.00130204507149756</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.0009039725991897285</v>
+        <v>0.001483271713368595</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.000872812292072922</v>
+        <v>0.007739189546555281</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.001019895542412996</v>
+        <v>0.002272582147270441</v>
       </c>
       <c r="FA18" t="n">
-        <v>6.970090907998383e-06</v>
+        <v>0.007827014662325382</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.0004602504777722061</v>
+        <v>1.636327942833304e-05</v>
       </c>
       <c r="FC18" t="n">
-        <v>0.000289351271931082</v>
+        <v>0.006114540621638298</v>
       </c>
       <c r="FD18" t="n">
-        <v>0.0002655874122865498</v>
+        <v>0.005261032842099667</v>
       </c>
       <c r="FE18" t="n">
-        <v>0.0002845669514499605</v>
+        <v>0.005188500508666039</v>
       </c>
       <c r="FF18" t="n">
-        <v>0.0001712846278678626</v>
+        <v>0.003815019503235817</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.0006772145279683173</v>
+        <v>0.002184635959565639</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.0003876850241795182</v>
+        <v>0.006319383159279823</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.000591025163885206</v>
+        <v>0.009481464512646198</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.001070926897227764</v>
+        <v>0.01087071746587753</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.0005077701061964035</v>
+        <v>0.002307700924575329</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.000560696586035192</v>
+        <v>0.0003116352017968893</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.0002688899694476277</v>
+        <v>1.612585037946701e-05</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.0003612781874835491</v>
+        <v>0.003442005719989538</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.0005253933486528695</v>
+        <v>0.005069048143923283</v>
       </c>
       <c r="FP18" t="n">
-        <v>8.366894326172769e-05</v>
+        <v>0.0002755799796432257</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.002363538835197687</v>
+        <v>0.01091440580785275</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.00033312983578071</v>
+        <v>0.01026723347604275</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.001073039951734245</v>
+        <v>0.01144157256931067</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.0005958403344266117</v>
+        <v>0.007495467085391283</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.0002999122953042388</v>
+        <v>0.0003429681528359652</v>
       </c>
       <c r="FV18" t="n">
-        <v>0.0001182321284431964</v>
+        <v>0.008480323478579521</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.0002103026345139369</v>
+        <v>0.004465073347091675</v>
       </c>
       <c r="FX18" t="n">
-        <v>0.0002989336790051311</v>
+        <v>0.0004247609758749604</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.0004966437700204551</v>
+        <v>0.01021525263786316</v>
       </c>
       <c r="FZ18" t="n">
-        <v>7.174181519076228e-06</v>
+        <v>0.001777382218278944</v>
       </c>
       <c r="GA18" t="n">
-        <v>0.0001602942647878081</v>
+        <v>0.00111219403333962</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.0005689598037861288</v>
+        <v>0.006465183105319738</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.001178021193481982</v>
+        <v>0.007010583765804768</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.0007342955796048045</v>
+        <v>0.008239729329943657</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.0004092362651135772</v>
+        <v>0.0301455594599247</v>
       </c>
       <c r="GF18" t="n">
-        <v>0.0001273446396226063</v>
+        <v>0.002685714513063431</v>
       </c>
       <c r="GG18" t="n">
-        <v>7.212543278001249e-05</v>
+        <v>0.0004237866960465908</v>
       </c>
     </row>
     <row r="19">
